--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_15_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_15_39.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2997678.862888864</v>
+        <v>3024444.880394589</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6552513.316172468</v>
+        <v>7244818.617086787</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7627398.21940412</v>
+        <v>7461121.700851357</v>
       </c>
     </row>
     <row r="11">
@@ -1576,7 +1578,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>7.242590527312131e-12</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -1670,7 +1672,7 @@
         <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>2.061352688542684e-12</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1977,7 +1979,7 @@
         <v>0</v>
       </c>
       <c r="U18" t="n">
-        <v>3.844144202957977e-12</v>
+        <v>0</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -3174,7 +3176,7 @@
         <v>0</v>
       </c>
       <c r="Y33" t="n">
-        <v>6.379050887517223e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>7.348356723113624e-12</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -5206,22 +5208,22 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>7.315748007385991e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>7.315748007385991e-12</v>
+        <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>7.315748007385991e-12</v>
+        <v>0</v>
       </c>
       <c r="P13" t="n">
-        <v>7.315748007385991e-12</v>
+        <v>0</v>
       </c>
       <c r="Q13" t="n">
-        <v>7.315748007385991e-12</v>
+        <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>7.315748007385991e-12</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -5282,40 +5284,40 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2.082174432871398e-12</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>2.082174432871398e-12</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>2.082174432871398e-12</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>2.082174432871398e-12</v>
+        <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>2.082174432871398e-12</v>
+        <v>0</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.082174432871398e-12</v>
+        <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>2.082174432871398e-12</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>2.082174432871398e-12</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>2.082174432871398e-12</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>2.082174432871398e-12</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>2.082174432871398e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>2.082174432871398e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -5574,55 +5576,55 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="H18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>3.882973942381796e-12</v>
+        <v>0</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -23255,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>110.9605020895114</v>
+        <v>132.165124803735</v>
       </c>
       <c r="C11" t="n">
-        <v>75.25866269652269</v>
+        <v>96.46328541074624</v>
       </c>
       <c r="D11" t="n">
-        <v>59.43163189668965</v>
+        <v>80.6362546109132</v>
       </c>
       <c r="E11" t="n">
-        <v>105.0295966205129</v>
+        <v>126.2342193347364</v>
       </c>
       <c r="F11" t="n">
-        <v>149.2214708948707</v>
+        <v>170.4260936090942</v>
       </c>
       <c r="G11" t="n">
-        <v>177.9524243091317</v>
+        <v>198.9637926933232</v>
       </c>
       <c r="H11" t="n">
-        <v>111.8099008922427</v>
+        <v>131.0353576990255</v>
       </c>
       <c r="I11" t="n">
-        <v>42.87726772795472</v>
+        <v>56.63145288361792</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23303,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>18.91315103193025</v>
+        <v>27.97826143727858</v>
       </c>
       <c r="S11" t="n">
-        <v>10.14259167045591</v>
+        <v>26.94343133907427</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0.7265160450307917</v>
+        <v>21.91567841285178</v>
       </c>
       <c r="V11" t="n">
-        <v>61.01905078441663</v>
+        <v>82.22367349864018</v>
       </c>
       <c r="W11" t="n">
-        <v>69.80313026276517</v>
+        <v>91.00775297698871</v>
       </c>
       <c r="X11" t="n">
-        <v>94.25950798485295</v>
+        <v>115.4641306990765</v>
       </c>
       <c r="Y11" t="n">
-        <v>127.8004799003898</v>
+        <v>149.0051026146134</v>
       </c>
     </row>
     <row r="12">
@@ -23388,22 +23390,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>0</v>
+        <v>15.40745441905872</v>
       </c>
       <c r="U12" t="n">
-        <v>10.79019035854267</v>
+        <v>31.98801042919141</v>
       </c>
       <c r="V12" t="n">
-        <v>7.887858517570351</v>
+        <v>29.0924812317939</v>
       </c>
       <c r="W12" t="n">
-        <v>47.12676205780039</v>
+        <v>68.33138477202394</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>12.55236641657368</v>
       </c>
       <c r="Y12" t="n">
-        <v>8.762173369154681</v>
+        <v>29.96679608337823</v>
       </c>
     </row>
     <row r="13">
@@ -23461,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0.603931747398093</v>
+        <v>17.91078095032333</v>
       </c>
       <c r="S13" t="n">
-        <v>7.808307249801606</v>
+        <v>27.50220780043375</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>45.74607419335771</v>
+        <v>66.94596851270305</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>6.165441084165138</v>
       </c>
       <c r="W13" t="n">
-        <v>50.07440318987054</v>
+        <v>71.27902590409408</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23492,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>110.9605020895114</v>
+        <v>132.165124803735</v>
       </c>
       <c r="C14" t="n">
-        <v>75.25866269652269</v>
+        <v>96.46328541074624</v>
       </c>
       <c r="D14" t="n">
-        <v>59.43163189668965</v>
+        <v>80.63625461091422</v>
       </c>
       <c r="E14" t="n">
-        <v>105.0295966205129</v>
+        <v>126.2342193347364</v>
       </c>
       <c r="F14" t="n">
-        <v>149.2214708948707</v>
+        <v>170.4260936090942</v>
       </c>
       <c r="G14" t="n">
-        <v>177.9524243091317</v>
+        <v>198.9637926933232</v>
       </c>
       <c r="H14" t="n">
-        <v>111.8099008922427</v>
+        <v>131.0353576990255</v>
       </c>
       <c r="I14" t="n">
-        <v>42.87726772795472</v>
+        <v>56.63145288361792</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23540,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>18.91315103193025</v>
+        <v>27.97826143727858</v>
       </c>
       <c r="S14" t="n">
-        <v>10.14259167045591</v>
+        <v>26.94343133907427</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0.7265160450307917</v>
+        <v>21.91567841285178</v>
       </c>
       <c r="V14" t="n">
-        <v>61.01905078441663</v>
+        <v>82.22367349864018</v>
       </c>
       <c r="W14" t="n">
-        <v>69.80313026276517</v>
+        <v>91.00775297698871</v>
       </c>
       <c r="X14" t="n">
-        <v>94.25950798485088</v>
+        <v>115.4641306990765</v>
       </c>
       <c r="Y14" t="n">
-        <v>127.8004799003898</v>
+        <v>149.0051026146134</v>
       </c>
     </row>
     <row r="15">
@@ -23625,22 +23627,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>0</v>
+        <v>15.40745441905872</v>
       </c>
       <c r="U15" t="n">
-        <v>10.79019035854267</v>
+        <v>31.98801042919141</v>
       </c>
       <c r="V15" t="n">
-        <v>7.887858517570351</v>
+        <v>29.0924812317939</v>
       </c>
       <c r="W15" t="n">
-        <v>47.12676205780039</v>
+        <v>68.33138477202394</v>
       </c>
       <c r="X15" t="n">
-        <v>0</v>
+        <v>12.55236641657368</v>
       </c>
       <c r="Y15" t="n">
-        <v>8.762173369154681</v>
+        <v>29.96679608337823</v>
       </c>
     </row>
     <row r="16">
@@ -23698,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0.603931747398093</v>
+        <v>17.91078095032333</v>
       </c>
       <c r="S16" t="n">
-        <v>7.808307249808848</v>
+        <v>27.50220780043375</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>45.74607419335771</v>
+        <v>66.94596851270305</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>6.165441084165138</v>
       </c>
       <c r="W16" t="n">
-        <v>50.07440318987054</v>
+        <v>71.27902590409408</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23729,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>110.9605020895114</v>
+        <v>132.165124803735</v>
       </c>
       <c r="C17" t="n">
-        <v>75.25866269652269</v>
+        <v>96.46328541074624</v>
       </c>
       <c r="D17" t="n">
-        <v>59.43163189668965</v>
+        <v>80.6362546109132</v>
       </c>
       <c r="E17" t="n">
-        <v>105.0295966205129</v>
+        <v>126.2342193347364</v>
       </c>
       <c r="F17" t="n">
-        <v>149.2214708948707</v>
+        <v>170.4260936090942</v>
       </c>
       <c r="G17" t="n">
-        <v>177.9524243091317</v>
+        <v>198.9637926933232</v>
       </c>
       <c r="H17" t="n">
-        <v>111.8099008922427</v>
+        <v>131.0353576990255</v>
       </c>
       <c r="I17" t="n">
-        <v>42.87726772795472</v>
+        <v>56.63145288361792</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23777,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>18.91315103193025</v>
+        <v>27.97826143727858</v>
       </c>
       <c r="S17" t="n">
-        <v>10.14259167045591</v>
+        <v>26.94343133907427</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0.7265160450307917</v>
+        <v>21.91567841285178</v>
       </c>
       <c r="V17" t="n">
-        <v>61.01905078441663</v>
+        <v>82.22367349864018</v>
       </c>
       <c r="W17" t="n">
-        <v>69.80313026276517</v>
+        <v>91.00775297698871</v>
       </c>
       <c r="X17" t="n">
-        <v>94.25950798485295</v>
+        <v>115.4641306990765</v>
       </c>
       <c r="Y17" t="n">
-        <v>127.8004799003898</v>
+        <v>149.0051026146134</v>
       </c>
     </row>
     <row r="18">
@@ -23862,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>0</v>
+        <v>15.40745441905872</v>
       </c>
       <c r="U18" t="n">
-        <v>10.79019035853883</v>
+        <v>31.98801042919141</v>
       </c>
       <c r="V18" t="n">
-        <v>7.887858517570351</v>
+        <v>29.0924812317939</v>
       </c>
       <c r="W18" t="n">
-        <v>47.12676205780039</v>
+        <v>68.33138477202394</v>
       </c>
       <c r="X18" t="n">
-        <v>0</v>
+        <v>12.55236641657368</v>
       </c>
       <c r="Y18" t="n">
-        <v>8.762173369154681</v>
+        <v>29.96679608337823</v>
       </c>
     </row>
     <row r="19">
@@ -23935,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0.603931747398093</v>
+        <v>17.91078095032333</v>
       </c>
       <c r="S19" t="n">
-        <v>7.808307249808848</v>
+        <v>27.50220780043375</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>45.74607419335771</v>
+        <v>66.94596851270305</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>6.165441084165138</v>
       </c>
       <c r="W19" t="n">
-        <v>50.07440318987054</v>
+        <v>71.27902590409408</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23966,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>110.9605020895114</v>
+        <v>132.165124803735</v>
       </c>
       <c r="C20" t="n">
-        <v>75.25866269652269</v>
+        <v>96.46328541074627</v>
       </c>
       <c r="D20" t="n">
-        <v>59.43163189668965</v>
+        <v>80.63625461091323</v>
       </c>
       <c r="E20" t="n">
-        <v>105.0295966205129</v>
+        <v>126.2342193347365</v>
       </c>
       <c r="F20" t="n">
-        <v>149.2214708948707</v>
+        <v>170.4260936090943</v>
       </c>
       <c r="G20" t="n">
-        <v>177.9524243091317</v>
+        <v>198.9637926933232</v>
       </c>
       <c r="H20" t="n">
-        <v>111.8099008922427</v>
+        <v>131.0353576990256</v>
       </c>
       <c r="I20" t="n">
-        <v>42.8772677279547</v>
+        <v>56.63145288361795</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24014,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>18.91315103193028</v>
+        <v>27.9782614372786</v>
       </c>
       <c r="S20" t="n">
-        <v>10.14259167045589</v>
+        <v>26.94343133907429</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0.7265160450307885</v>
+        <v>21.9156784128518</v>
       </c>
       <c r="V20" t="n">
-        <v>61.01905078441663</v>
+        <v>82.22367349864021</v>
       </c>
       <c r="W20" t="n">
-        <v>69.80313026276517</v>
+        <v>91.00775297698874</v>
       </c>
       <c r="X20" t="n">
-        <v>94.25950798485295</v>
+        <v>115.4641306990765</v>
       </c>
       <c r="Y20" t="n">
-        <v>127.8004799003898</v>
+        <v>149.0051026146134</v>
       </c>
     </row>
     <row r="21">
@@ -24099,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>15.40745441905875</v>
       </c>
       <c r="U21" t="n">
-        <v>10.79019035854266</v>
+        <v>31.98801042919143</v>
       </c>
       <c r="V21" t="n">
-        <v>7.887858517570351</v>
+        <v>29.09248123179393</v>
       </c>
       <c r="W21" t="n">
-        <v>47.12676205780039</v>
+        <v>68.33138477202397</v>
       </c>
       <c r="X21" t="n">
-        <v>0</v>
+        <v>12.5523664165737</v>
       </c>
       <c r="Y21" t="n">
-        <v>8.762173369154681</v>
+        <v>29.96679608337826</v>
       </c>
     </row>
     <row r="22">
@@ -24172,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0.6039317473981001</v>
+        <v>17.91078095032336</v>
       </c>
       <c r="S22" t="n">
-        <v>7.808307249808855</v>
+        <v>27.50220780043378</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>45.74607419335773</v>
+        <v>66.94596851270308</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>6.165441084165167</v>
       </c>
       <c r="W22" t="n">
-        <v>50.07440318987054</v>
+        <v>71.27902590409411</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24203,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>110.9605020895114</v>
+        <v>132.165124803735</v>
       </c>
       <c r="C23" t="n">
-        <v>75.25866269652269</v>
+        <v>96.46328541074624</v>
       </c>
       <c r="D23" t="n">
-        <v>59.43163189668965</v>
+        <v>80.6362546109132</v>
       </c>
       <c r="E23" t="n">
-        <v>105.0295966205129</v>
+        <v>126.2342193347364</v>
       </c>
       <c r="F23" t="n">
-        <v>149.2214708948707</v>
+        <v>170.4260936090942</v>
       </c>
       <c r="G23" t="n">
-        <v>177.9524243091317</v>
+        <v>198.9637926933232</v>
       </c>
       <c r="H23" t="n">
-        <v>111.8099008922427</v>
+        <v>131.0353576990255</v>
       </c>
       <c r="I23" t="n">
-        <v>42.8772677279547</v>
+        <v>56.63145288361792</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24251,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>18.91315103193028</v>
+        <v>27.97826143727858</v>
       </c>
       <c r="S23" t="n">
-        <v>10.14259167045589</v>
+        <v>26.94343133907427</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>0.7265160450307885</v>
+        <v>21.91567841285178</v>
       </c>
       <c r="V23" t="n">
-        <v>61.01905078441663</v>
+        <v>82.22367349864018</v>
       </c>
       <c r="W23" t="n">
-        <v>69.80313026276517</v>
+        <v>91.00775297698871</v>
       </c>
       <c r="X23" t="n">
-        <v>94.25950798485295</v>
+        <v>115.4641306990765</v>
       </c>
       <c r="Y23" t="n">
-        <v>127.8004799003898</v>
+        <v>149.0051026146134</v>
       </c>
     </row>
     <row r="24">
@@ -24336,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>0</v>
+        <v>15.40745441905872</v>
       </c>
       <c r="U24" t="n">
-        <v>10.79019035854266</v>
+        <v>31.98801042919141</v>
       </c>
       <c r="V24" t="n">
-        <v>7.887858517570351</v>
+        <v>29.0924812317939</v>
       </c>
       <c r="W24" t="n">
-        <v>47.12676205780039</v>
+        <v>68.33138477202394</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>12.55236641657368</v>
       </c>
       <c r="Y24" t="n">
-        <v>8.762173369154681</v>
+        <v>29.96679608337823</v>
       </c>
     </row>
     <row r="25">
@@ -24409,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0.6039317473981001</v>
+        <v>17.91078095032333</v>
       </c>
       <c r="S25" t="n">
-        <v>7.808307249808855</v>
+        <v>27.50220780043375</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>45.74607419335773</v>
+        <v>66.94596851270305</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>6.165441084165138</v>
       </c>
       <c r="W25" t="n">
-        <v>50.07440318987054</v>
+        <v>71.27902590409408</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24440,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>110.9605020895114</v>
+        <v>134.6601342531192</v>
       </c>
       <c r="C26" t="n">
-        <v>75.25866269652269</v>
+        <v>98.95829486013048</v>
       </c>
       <c r="D26" t="n">
-        <v>59.43163189668965</v>
+        <v>83.13126406029744</v>
       </c>
       <c r="E26" t="n">
-        <v>105.0295966205129</v>
+        <v>128.7292287841207</v>
       </c>
       <c r="F26" t="n">
-        <v>149.2214708948707</v>
+        <v>172.9211030584785</v>
       </c>
       <c r="G26" t="n">
-        <v>177.9524243091317</v>
+        <v>201.4588021427074</v>
       </c>
       <c r="H26" t="n">
-        <v>111.8099008922427</v>
+        <v>133.5303671484098</v>
       </c>
       <c r="I26" t="n">
-        <v>42.8772677279547</v>
+        <v>59.12646233300217</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24488,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>18.91315103193028</v>
+        <v>30.47327088666282</v>
       </c>
       <c r="S26" t="n">
-        <v>10.14259167045589</v>
+        <v>29.43844078845851</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0.7265160450307885</v>
+        <v>24.41068786223602</v>
       </c>
       <c r="V26" t="n">
-        <v>61.01905078441663</v>
+        <v>84.71868294802442</v>
       </c>
       <c r="W26" t="n">
-        <v>69.80313026276517</v>
+        <v>93.50276242637295</v>
       </c>
       <c r="X26" t="n">
-        <v>94.25950798485295</v>
+        <v>117.9591401484607</v>
       </c>
       <c r="Y26" t="n">
-        <v>127.8004799003898</v>
+        <v>151.5001120639976</v>
       </c>
     </row>
     <row r="27">
@@ -24570,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0</v>
+        <v>0.9698954793968539</v>
       </c>
       <c r="T27" t="n">
-        <v>0</v>
+        <v>17.90246386844296</v>
       </c>
       <c r="U27" t="n">
-        <v>10.79019035854266</v>
+        <v>34.48301987857565</v>
       </c>
       <c r="V27" t="n">
-        <v>7.887858517570351</v>
+        <v>31.58749068117814</v>
       </c>
       <c r="W27" t="n">
-        <v>47.12676205780039</v>
+        <v>70.82639422140818</v>
       </c>
       <c r="X27" t="n">
-        <v>0</v>
+        <v>15.04737586595792</v>
       </c>
       <c r="Y27" t="n">
-        <v>8.762173369154681</v>
+        <v>32.46180553276247</v>
       </c>
     </row>
     <row r="28">
@@ -24646,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0.6039317473981001</v>
+        <v>20.40579039970757</v>
       </c>
       <c r="S28" t="n">
-        <v>7.808307249808855</v>
+        <v>29.99721724981799</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>45.74607419335773</v>
+        <v>69.44097796208729</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>135.3152046907668</v>
       </c>
       <c r="W28" t="n">
-        <v>50.07440318987054</v>
+        <v>73.77403535347833</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24677,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>110.9605020895114</v>
+        <v>134.6601342531192</v>
       </c>
       <c r="C29" t="n">
-        <v>75.25866269652269</v>
+        <v>98.95829486013048</v>
       </c>
       <c r="D29" t="n">
-        <v>59.43163189668965</v>
+        <v>83.13126406029744</v>
       </c>
       <c r="E29" t="n">
-        <v>105.0295966205129</v>
+        <v>128.7292287841207</v>
       </c>
       <c r="F29" t="n">
-        <v>149.2214708948707</v>
+        <v>172.9211030584785</v>
       </c>
       <c r="G29" t="n">
-        <v>177.9524243091317</v>
+        <v>201.4588021427074</v>
       </c>
       <c r="H29" t="n">
-        <v>111.8099008922427</v>
+        <v>133.5303671484098</v>
       </c>
       <c r="I29" t="n">
-        <v>42.8772677279547</v>
+        <v>59.12646233300217</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24725,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>18.91315103193028</v>
+        <v>30.47327088666282</v>
       </c>
       <c r="S29" t="n">
-        <v>10.14259167045589</v>
+        <v>29.43844078845851</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>0.7265160450307885</v>
+        <v>24.41068786223602</v>
       </c>
       <c r="V29" t="n">
-        <v>61.01905078441663</v>
+        <v>84.71868294802442</v>
       </c>
       <c r="W29" t="n">
-        <v>69.80313026276517</v>
+        <v>93.50276242637295</v>
       </c>
       <c r="X29" t="n">
-        <v>94.25950798485295</v>
+        <v>117.9591401484607</v>
       </c>
       <c r="Y29" t="n">
-        <v>127.8004799003898</v>
+        <v>151.5001120639976</v>
       </c>
     </row>
     <row r="30">
@@ -24807,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>0.9698954793968539</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>17.90246386844296</v>
       </c>
       <c r="U30" t="n">
-        <v>10.79019035854266</v>
+        <v>34.48301987857565</v>
       </c>
       <c r="V30" t="n">
-        <v>7.887858517570351</v>
+        <v>31.58749068117814</v>
       </c>
       <c r="W30" t="n">
-        <v>47.12676205780039</v>
+        <v>70.82639422140818</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>15.04737586595792</v>
       </c>
       <c r="Y30" t="n">
-        <v>8.762173369154681</v>
+        <v>32.46180553276247</v>
       </c>
     </row>
     <row r="31">
@@ -24880,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>0</v>
+        <v>126.6547541572204</v>
       </c>
       <c r="R31" t="n">
-        <v>0.6039317473981001</v>
+        <v>20.40579039970757</v>
       </c>
       <c r="S31" t="n">
-        <v>7.808307249808855</v>
+        <v>29.99721724981799</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>45.74607419335773</v>
+        <v>69.44097796208729</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>8.66045053354938</v>
       </c>
       <c r="W31" t="n">
-        <v>50.07440318987054</v>
+        <v>73.77403535347833</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24914,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>110.9605020895114</v>
+        <v>134.6601342531192</v>
       </c>
       <c r="C32" t="n">
-        <v>75.25866269652266</v>
+        <v>98.95829486013048</v>
       </c>
       <c r="D32" t="n">
-        <v>59.43163189668962</v>
+        <v>83.13126406029744</v>
       </c>
       <c r="E32" t="n">
-        <v>105.0295966205128</v>
+        <v>128.7292287841207</v>
       </c>
       <c r="F32" t="n">
-        <v>149.2214708948707</v>
+        <v>172.9211030584785</v>
       </c>
       <c r="G32" t="n">
-        <v>177.9524243091317</v>
+        <v>201.4588021427074</v>
       </c>
       <c r="H32" t="n">
-        <v>111.8099008922426</v>
+        <v>133.5303671484098</v>
       </c>
       <c r="I32" t="n">
-        <v>42.87726772795469</v>
+        <v>59.12646233300217</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24962,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>18.91315103193023</v>
+        <v>30.47327088666282</v>
       </c>
       <c r="S32" t="n">
-        <v>10.14259167045589</v>
+        <v>29.43844078845851</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0.7265160450307633</v>
+        <v>24.41068786223602</v>
       </c>
       <c r="V32" t="n">
-        <v>61.01905078441661</v>
+        <v>84.71868294802442</v>
       </c>
       <c r="W32" t="n">
-        <v>69.80313026276514</v>
+        <v>93.50276242637295</v>
       </c>
       <c r="X32" t="n">
-        <v>94.25950798485292</v>
+        <v>117.9591401484607</v>
       </c>
       <c r="Y32" t="n">
-        <v>127.8004799003898</v>
+        <v>151.5001120639976</v>
       </c>
     </row>
     <row r="33">
@@ -25044,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0</v>
+        <v>0.9698954793968539</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>17.90246386844296</v>
       </c>
       <c r="U33" t="n">
-        <v>10.79019035854265</v>
+        <v>34.48301987857565</v>
       </c>
       <c r="V33" t="n">
-        <v>7.887858517570322</v>
+        <v>31.58749068117814</v>
       </c>
       <c r="W33" t="n">
-        <v>47.12676205780036</v>
+        <v>70.82639422140818</v>
       </c>
       <c r="X33" t="n">
-        <v>0</v>
+        <v>15.04737586595792</v>
       </c>
       <c r="Y33" t="n">
-        <v>8.762173369148273</v>
+        <v>32.46180553276247</v>
       </c>
     </row>
     <row r="34">
@@ -25114,28 +25116,28 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>126.6547541572184</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0.6039317473980645</v>
+        <v>20.40579039970757</v>
       </c>
       <c r="S34" t="n">
-        <v>7.80830724980882</v>
+        <v>29.99721724981799</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>45.74607419335769</v>
+        <v>69.44097796208729</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>8.66045053354938</v>
       </c>
       <c r="W34" t="n">
-        <v>50.07440318987051</v>
+        <v>73.77403535347833</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25151,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>110.9605020895114</v>
+        <v>134.6601342531192</v>
       </c>
       <c r="C35" t="n">
-        <v>75.25866269652269</v>
+        <v>98.95829486013045</v>
       </c>
       <c r="D35" t="n">
-        <v>59.43163189668965</v>
+        <v>83.13126406029741</v>
       </c>
       <c r="E35" t="n">
-        <v>105.0295966205129</v>
+        <v>128.7292287841206</v>
       </c>
       <c r="F35" t="n">
-        <v>149.2214708948707</v>
+        <v>172.9211030584785</v>
       </c>
       <c r="G35" t="n">
-        <v>177.9524243091317</v>
+        <v>201.4588021427074</v>
       </c>
       <c r="H35" t="n">
-        <v>111.8099008922427</v>
+        <v>133.5303671484097</v>
       </c>
       <c r="I35" t="n">
-        <v>42.8772677279547</v>
+        <v>59.12646233300214</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25199,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>18.91315103193028</v>
+        <v>30.47327088666279</v>
       </c>
       <c r="S35" t="n">
-        <v>10.14259167045589</v>
+        <v>29.43844078845848</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>0.7265160450307885</v>
+        <v>24.41068786223599</v>
       </c>
       <c r="V35" t="n">
-        <v>61.01905078441663</v>
+        <v>84.71868294802439</v>
       </c>
       <c r="W35" t="n">
-        <v>69.80313026276517</v>
+        <v>93.50276242637293</v>
       </c>
       <c r="X35" t="n">
-        <v>94.25950798485295</v>
+        <v>117.9591401484607</v>
       </c>
       <c r="Y35" t="n">
-        <v>127.8004799003898</v>
+        <v>151.5001120639976</v>
       </c>
     </row>
     <row r="36">
@@ -25281,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0</v>
+        <v>0.9698954793968255</v>
       </c>
       <c r="T36" t="n">
-        <v>0</v>
+        <v>17.90246386844294</v>
       </c>
       <c r="U36" t="n">
-        <v>10.79019035854266</v>
+        <v>34.48301987857562</v>
       </c>
       <c r="V36" t="n">
-        <v>7.887858517570351</v>
+        <v>31.58749068117811</v>
       </c>
       <c r="W36" t="n">
-        <v>47.12676205780039</v>
+        <v>70.82639422140815</v>
       </c>
       <c r="X36" t="n">
-        <v>0</v>
+        <v>15.04737586595789</v>
       </c>
       <c r="Y36" t="n">
-        <v>8.762173369154681</v>
+        <v>32.46180553276244</v>
       </c>
     </row>
     <row r="37">
@@ -25357,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0.6039317473981001</v>
+        <v>20.40579039970754</v>
       </c>
       <c r="S37" t="n">
-        <v>7.808307249808855</v>
+        <v>29.99721724981796</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>45.74607419335773</v>
+        <v>69.44097796208726</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>8.660450533549351</v>
       </c>
       <c r="W37" t="n">
-        <v>50.07440318987054</v>
+        <v>73.7740353534783</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>126.654754157216</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25388,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>110.9605020895114</v>
+        <v>134.6601342531192</v>
       </c>
       <c r="C38" t="n">
-        <v>75.25866269652269</v>
+        <v>98.95829486013048</v>
       </c>
       <c r="D38" t="n">
-        <v>59.43163189668965</v>
+        <v>83.13126406029744</v>
       </c>
       <c r="E38" t="n">
-        <v>105.0295966205129</v>
+        <v>128.7292287841207</v>
       </c>
       <c r="F38" t="n">
-        <v>149.2214708948707</v>
+        <v>172.9211030584785</v>
       </c>
       <c r="G38" t="n">
-        <v>177.9524243091317</v>
+        <v>201.4588021427074</v>
       </c>
       <c r="H38" t="n">
-        <v>111.8099008922427</v>
+        <v>133.5303671484098</v>
       </c>
       <c r="I38" t="n">
-        <v>42.87726772795472</v>
+        <v>59.12646233300217</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25436,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>18.91315103193025</v>
+        <v>30.47327088666282</v>
       </c>
       <c r="S38" t="n">
-        <v>10.14259167045591</v>
+        <v>29.43844078845851</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0.7265160450307917</v>
+        <v>24.41068786223602</v>
       </c>
       <c r="V38" t="n">
-        <v>61.01905078441663</v>
+        <v>84.71868294802442</v>
       </c>
       <c r="W38" t="n">
-        <v>69.80313026276517</v>
+        <v>93.50276242637295</v>
       </c>
       <c r="X38" t="n">
-        <v>94.25950798485295</v>
+        <v>117.9591401484607</v>
       </c>
       <c r="Y38" t="n">
-        <v>127.8004799003898</v>
+        <v>151.5001120639976</v>
       </c>
     </row>
     <row r="39">
@@ -25518,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>0.9698954793968539</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>17.90246386844296</v>
       </c>
       <c r="U39" t="n">
-        <v>10.79019035854267</v>
+        <v>34.48301987857565</v>
       </c>
       <c r="V39" t="n">
-        <v>7.887858517570351</v>
+        <v>31.58749068117814</v>
       </c>
       <c r="W39" t="n">
-        <v>47.12676205780039</v>
+        <v>70.82639422140818</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>15.04737586595792</v>
       </c>
       <c r="Y39" t="n">
-        <v>8.762173369154681</v>
+        <v>32.46180553276247</v>
       </c>
     </row>
     <row r="40">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>126.6547541572176</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25594,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0.6039317473907446</v>
+        <v>20.40579039970757</v>
       </c>
       <c r="S40" t="n">
-        <v>7.808307249808848</v>
+        <v>29.99721724981799</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>45.74607419335771</v>
+        <v>69.44097796208729</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>8.66045053354938</v>
       </c>
       <c r="W40" t="n">
-        <v>50.07440318987054</v>
+        <v>73.77403535347833</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25640,49 +25642,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>425.1615556852395</v>
+        <v>424.9683013552074</v>
       </c>
       <c r="H41" t="n">
-        <v>359.0190322683504</v>
+        <v>357.0398663609097</v>
       </c>
       <c r="I41" t="n">
-        <v>290.0863991040625</v>
+        <v>282.6359615455021</v>
       </c>
       <c r="J41" t="n">
-        <v>180.4276389757292</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K41" t="n">
-        <v>187.1313384208502</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L41" t="n">
-        <v>171.581898839202</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M41" t="n">
-        <v>138.9352602797516</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N41" t="n">
-        <v>133.6102077246292</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O41" t="n">
-        <v>148.0530168059526</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P41" t="n">
-        <v>182.990255219108</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q41" t="n">
-        <v>216.4894883479166</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R41" t="n">
-        <v>266.122282408038</v>
+        <v>253.9827700991628</v>
       </c>
       <c r="S41" t="n">
-        <v>257.3517230465637</v>
+        <v>252.9479400009585</v>
       </c>
       <c r="T41" t="n">
-        <v>220.4961873656892</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U41" t="n">
-        <v>247.9356474211386</v>
+        <v>247.920187074736</v>
       </c>
       <c r="V41" t="n">
         <v>308.2281821605244</v>
@@ -25719,49 +25721,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H42" t="n">
-        <v>149.631802706106</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I42" t="n">
-        <v>137.0300227191484</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J42" t="n">
-        <v>138.34934582705</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K42" t="n">
-        <v>108.1766334547838</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L42" t="n">
-        <v>69.42235938738361</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M42" t="n">
-        <v>49.23998181247759</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N42" t="n">
-        <v>26.8926640895925</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>61.07341979204932</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P42" t="n">
-        <v>80.75037203953283</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q42" t="n">
-        <v>135.9175601506888</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R42" t="n">
-        <v>192.1984848054242</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S42" t="n">
-        <v>226.4000077278574</v>
+        <v>224.4793946918968</v>
       </c>
       <c r="T42" t="n">
-        <v>241.8287383772942</v>
+        <v>241.4119630809429</v>
       </c>
       <c r="U42" t="n">
-        <v>257.9993217346504</v>
+        <v>257.9925190910756</v>
       </c>
       <c r="V42" t="n">
         <v>255.0969898936781</v>
@@ -25798,49 +25800,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>169.92444481789</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H43" t="n">
-        <v>171.7086235718632</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I43" t="n">
-        <v>179.6660901299453</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J43" t="n">
-        <v>163.855985710936</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K43" t="n">
-        <v>139.7869691951286</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L43" t="n">
-        <v>129.7913943420367</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M43" t="n">
-        <v>131.498635421155</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N43" t="n">
-        <v>115.4744376461909</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O43" t="n">
-        <v>140.0015246507702</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P43" t="n">
-        <v>151.0840793328529</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q43" t="n">
-        <v>195.8453499965997</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R43" t="n">
-        <v>247.8130631235059</v>
+        <v>243.9152896122075</v>
       </c>
       <c r="S43" t="n">
-        <v>255.0174386259166</v>
+        <v>253.506716462318</v>
       </c>
       <c r="T43" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U43" t="n">
-        <v>292.9552055694655</v>
+        <v>292.9504771745873</v>
       </c>
       <c r="V43" t="n">
         <v>232.1699497460494</v>
@@ -25877,49 +25879,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>425.1615556852395</v>
+        <v>424.9683013552074</v>
       </c>
       <c r="H44" t="n">
-        <v>359.0190322683504</v>
+        <v>357.0398663609097</v>
       </c>
       <c r="I44" t="n">
-        <v>290.0863991040625</v>
+        <v>282.6359615455021</v>
       </c>
       <c r="J44" t="n">
-        <v>180.4276389757292</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K44" t="n">
-        <v>187.1313384208502</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L44" t="n">
-        <v>171.581898839202</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M44" t="n">
-        <v>138.9352602797516</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N44" t="n">
-        <v>133.6102077246292</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O44" t="n">
-        <v>148.0530168059526</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P44" t="n">
-        <v>182.990255219108</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q44" t="n">
-        <v>216.4894883479166</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R44" t="n">
-        <v>266.122282408038</v>
+        <v>253.9827700991628</v>
       </c>
       <c r="S44" t="n">
-        <v>257.3517230465637</v>
+        <v>252.9479400009585</v>
       </c>
       <c r="T44" t="n">
-        <v>220.4961873656892</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U44" t="n">
-        <v>247.9356474211386</v>
+        <v>247.920187074736</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25956,49 +25958,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H45" t="n">
-        <v>149.631802706106</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I45" t="n">
-        <v>137.0300227191484</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J45" t="n">
-        <v>138.34934582705</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K45" t="n">
-        <v>108.1766334547838</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L45" t="n">
-        <v>69.42235938738361</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M45" t="n">
-        <v>49.23998181247759</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N45" t="n">
-        <v>26.8926640895925</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>61.07341979204932</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P45" t="n">
-        <v>80.75037203953283</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q45" t="n">
-        <v>135.9175601506888</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R45" t="n">
-        <v>192.1984848054242</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S45" t="n">
-        <v>226.4000077278574</v>
+        <v>224.4793946918968</v>
       </c>
       <c r="T45" t="n">
-        <v>241.8287383772942</v>
+        <v>241.4119630809429</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9993217346504</v>
+        <v>257.9925190910756</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26035,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.92444481789</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H46" t="n">
-        <v>171.7086235718632</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I46" t="n">
-        <v>179.6660901299453</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J46" t="n">
-        <v>163.855985710936</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K46" t="n">
-        <v>139.7869691951286</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L46" t="n">
-        <v>129.7913943420367</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M46" t="n">
-        <v>131.498635421155</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N46" t="n">
-        <v>115.4744376461909</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O46" t="n">
-        <v>140.0015246507702</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P46" t="n">
-        <v>151.0840793328529</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q46" t="n">
-        <v>195.8453499965997</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R46" t="n">
-        <v>247.8130631235059</v>
+        <v>243.9152896122075</v>
       </c>
       <c r="S46" t="n">
-        <v>255.0174386259166</v>
+        <v>253.506716462318</v>
       </c>
       <c r="T46" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9552055694655</v>
+        <v>292.9504771745873</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>694948.0701882789</v>
+        <v>671644.2293425425</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>694948.070188279</v>
+        <v>671644.2293425425</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>694948.070188279</v>
+        <v>671644.2293425425</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>694948.0701882789</v>
+        <v>671644.2293425425</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>694948.0701882789</v>
+        <v>671644.2293425425</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>694948.0701882789</v>
+        <v>666223.8712139445</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>694948.0701882789</v>
+        <v>666223.8712139444</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>694948.070188279</v>
+        <v>666223.8712139445</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>694948.0701882789</v>
+        <v>666223.8712139444</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>694948.070188279</v>
+        <v>666223.8712139445</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>157891.1764563128</v>
+        <v>180653.9543647725</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>157891.1764563128</v>
+        <v>180653.9543647725</v>
       </c>
     </row>
   </sheetData>
@@ -26311,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>972066.4577229992</v>
+        <v>972066.4577229994</v>
       </c>
       <c r="C2" t="n">
         <v>972066.4577229993</v>
@@ -26320,40 +26322,40 @@
         <v>972066.457722999</v>
       </c>
       <c r="E2" t="n">
-        <v>874289.5076562226</v>
+        <v>844971.7723986829</v>
       </c>
       <c r="F2" t="n">
-        <v>874289.5076562223</v>
+        <v>844971.7723986828</v>
       </c>
       <c r="G2" t="n">
-        <v>874289.5076562224</v>
+        <v>844971.7723986829</v>
       </c>
       <c r="H2" t="n">
-        <v>874289.5076562226</v>
+        <v>844971.7723986829</v>
       </c>
       <c r="I2" t="n">
-        <v>874289.5076562222</v>
+        <v>844971.7723986829</v>
       </c>
       <c r="J2" t="n">
-        <v>874289.5076562222</v>
+        <v>838152.6121723825</v>
       </c>
       <c r="K2" t="n">
-        <v>874289.5076562222</v>
+        <v>838152.6121723827</v>
       </c>
       <c r="L2" t="n">
-        <v>874289.5076562227</v>
+        <v>838152.6121723827</v>
       </c>
       <c r="M2" t="n">
-        <v>874289.5076562222</v>
+        <v>838152.6121723829</v>
       </c>
       <c r="N2" t="n">
-        <v>874289.5076562223</v>
+        <v>838152.6121723828</v>
       </c>
       <c r="O2" t="n">
-        <v>198637.2865095548</v>
+        <v>227274.3296847139</v>
       </c>
       <c r="P2" t="n">
-        <v>198637.2865095548</v>
+        <v>227274.3296847139</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>465658.4581859659</v>
+        <v>487315.9607566318</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,13 +26389,13 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>197767.3051008862</v>
+        <v>178807.59937</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -26415,43 +26417,43 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743361</v>
+        <v>569049.7736743363</v>
       </c>
       <c r="E4" t="n">
-        <v>395528.2485795181</v>
+        <v>361601.3979115863</v>
       </c>
       <c r="F4" t="n">
-        <v>395528.2485795181</v>
+        <v>361601.3979115863</v>
       </c>
       <c r="G4" t="n">
-        <v>395528.2485795181</v>
+        <v>361601.3979115864</v>
       </c>
       <c r="H4" t="n">
-        <v>395528.2485795179</v>
+        <v>361601.3979115864</v>
       </c>
       <c r="I4" t="n">
-        <v>395528.2485795179</v>
+        <v>361601.3979115864</v>
       </c>
       <c r="J4" t="n">
-        <v>395528.2485795179</v>
+        <v>357609.4469985641</v>
       </c>
       <c r="K4" t="n">
-        <v>395528.2485795179</v>
+        <v>357609.4469985641</v>
       </c>
       <c r="L4" t="n">
-        <v>395528.2485795181</v>
+        <v>357609.4469985641</v>
       </c>
       <c r="M4" t="n">
-        <v>395528.2485795179</v>
+        <v>357609.4469985642</v>
       </c>
       <c r="N4" t="n">
-        <v>395528.2485795181</v>
+        <v>357609.4469985641</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>28051.7373980901</v>
+        <v>27317.05588930929</v>
       </c>
       <c r="F5" t="n">
-        <v>28051.7373980901</v>
+        <v>27317.05588930929</v>
       </c>
       <c r="G5" t="n">
-        <v>28051.7373980901</v>
+        <v>27317.05588930929</v>
       </c>
       <c r="H5" t="n">
-        <v>28051.7373980901</v>
+        <v>27317.05588930929</v>
       </c>
       <c r="I5" t="n">
-        <v>28051.7373980901</v>
+        <v>27317.05588930929</v>
       </c>
       <c r="J5" t="n">
-        <v>28051.7373980901</v>
+        <v>27107.30293990901</v>
       </c>
       <c r="K5" t="n">
-        <v>28051.7373980901</v>
+        <v>27107.30293990901</v>
       </c>
       <c r="L5" t="n">
-        <v>28051.7373980901</v>
+        <v>27107.30293990901</v>
       </c>
       <c r="M5" t="n">
-        <v>28051.7373980901</v>
+        <v>27107.30293990901</v>
       </c>
       <c r="N5" t="n">
-        <v>28051.7373980901</v>
+        <v>27107.30293990901</v>
       </c>
       <c r="O5" t="n">
-        <v>7269.112932432088</v>
+        <v>8317.082850613346</v>
       </c>
       <c r="P5" t="n">
-        <v>7269.112932432088</v>
+        <v>8317.082850613346</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
+        <v>369389.0840486631</v>
+      </c>
+      <c r="C6" t="n">
         <v>369389.084048663</v>
       </c>
-      <c r="C6" t="n">
-        <v>369389.0840486631</v>
-      </c>
       <c r="D6" t="n">
-        <v>369389.0840486629</v>
+        <v>369389.0840486628</v>
       </c>
       <c r="E6" t="n">
-        <v>-14948.93650735149</v>
+        <v>-31262.64215884451</v>
       </c>
       <c r="F6" t="n">
-        <v>450709.5216786142</v>
+        <v>456053.3185977872</v>
       </c>
       <c r="G6" t="n">
-        <v>450709.5216786143</v>
+        <v>456053.3185977872</v>
       </c>
       <c r="H6" t="n">
-        <v>450709.5216786145</v>
+        <v>456053.3185977872</v>
       </c>
       <c r="I6" t="n">
-        <v>450709.5216786142</v>
+        <v>456053.3185977872</v>
       </c>
       <c r="J6" t="n">
-        <v>252942.216577728</v>
+        <v>274628.2628639095</v>
       </c>
       <c r="K6" t="n">
-        <v>450709.5216786142</v>
+        <v>453435.8622339096</v>
       </c>
       <c r="L6" t="n">
-        <v>450709.5216786145</v>
+        <v>453435.8622339096</v>
       </c>
       <c r="M6" t="n">
-        <v>450709.5216786142</v>
+        <v>453435.8622339097</v>
       </c>
       <c r="N6" t="n">
-        <v>450709.5216786142</v>
+        <v>453435.8622339097</v>
       </c>
       <c r="O6" t="n">
-        <v>191368.1735771227</v>
+        <v>218957.2468341005</v>
       </c>
       <c r="P6" t="n">
-        <v>191368.1735771227</v>
+        <v>218957.2468341005</v>
       </c>
     </row>
   </sheetData>
@@ -26692,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="F2" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="G2" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="H2" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="I2" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="J2" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="K2" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="L2" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="M2" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="N2" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>333.4455473592701</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="F3" t="n">
-        <v>333.4455473592701</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="G3" t="n">
-        <v>333.4455473592701</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="H3" t="n">
-        <v>333.4455473592701</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="I3" t="n">
-        <v>333.4455473592701</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="J3" t="n">
-        <v>333.4455473592701</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="K3" t="n">
-        <v>333.4455473592701</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="L3" t="n">
-        <v>333.4455473592701</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="M3" t="n">
-        <v>333.4455473592701</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="N3" t="n">
-        <v>333.4455473592701</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="O3" t="n">
-        <v>333.4455473592701</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="P3" t="n">
-        <v>333.4455473592701</v>
+        <v>381.5175619547406</v>
       </c>
     </row>
     <row r="4">
@@ -26914,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26929,13 +26931,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>333.4455473592701</v>
+        <v>381.5175619547406</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27151,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27166,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28087,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="C11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="D11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="E11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="F11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="G11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="H11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="I11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="J11" t="n">
-        <v>180.4276389757292</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K11" t="n">
-        <v>187.1313384208502</v>
+        <v>162.5486629370358</v>
       </c>
       <c r="L11" t="n">
-        <v>171.581898839202</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M11" t="n">
-        <v>138.9352602797516</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N11" t="n">
-        <v>133.6102077246292</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O11" t="n">
-        <v>148.0530168059526</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P11" t="n">
-        <v>182.990255219108</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q11" t="n">
-        <v>216.4894883479166</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T11" t="n">
-        <v>220.4961873656892</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y11" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="12">
@@ -28181,61 +28183,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H12" t="n">
-        <v>149.631802706106</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I12" t="n">
-        <v>137.0300227191484</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J12" t="n">
-        <v>138.34934582705</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K12" t="n">
-        <v>108.1766334547838</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L12" t="n">
-        <v>69.42235938738361</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M12" t="n">
-        <v>49.23998181247759</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N12" t="n">
-        <v>26.8926640895925</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>61.07341979204932</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P12" t="n">
-        <v>80.75037203953283</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q12" t="n">
-        <v>135.9175601506888</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R12" t="n">
-        <v>192.1984848054242</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S12" t="n">
-        <v>226.4000077278574</v>
+        <v>224.4793946918968</v>
       </c>
       <c r="T12" t="n">
-        <v>241.8287383772942</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="U12" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V12" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W12" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X12" t="n">
-        <v>238.5568750784579</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y12" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="13">
@@ -28260,55 +28262,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>169.92444481789</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H13" t="n">
-        <v>171.7086235718632</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I13" t="n">
-        <v>179.6660901299453</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J13" t="n">
-        <v>163.855985710936</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K13" t="n">
-        <v>139.7869691951286</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L13" t="n">
-        <v>129.7913943420367</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M13" t="n">
-        <v>131.4986354211624</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N13" t="n">
-        <v>115.4744376461909</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O13" t="n">
-        <v>140.0015246507702</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P13" t="n">
-        <v>151.0840793328529</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q13" t="n">
-        <v>195.8453499965997</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R13" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S13" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T13" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U13" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V13" t="n">
-        <v>232.1699497460494</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W13" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X13" t="n">
         <v>214.9420418072343</v>
@@ -28324,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="C14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="D14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618832</v>
       </c>
       <c r="E14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="F14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="G14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="H14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="I14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="J14" t="n">
-        <v>180.4276389757292</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K14" t="n">
-        <v>187.1313384208502</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L14" t="n">
-        <v>171.5818988392041</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M14" t="n">
-        <v>138.9352602797516</v>
+        <v>105.0014909015127</v>
       </c>
       <c r="N14" t="n">
-        <v>133.6102077246292</v>
+        <v>99.1273544811869</v>
       </c>
       <c r="O14" t="n">
-        <v>148.0530168059526</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P14" t="n">
-        <v>182.990255219108</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q14" t="n">
-        <v>216.4894883479166</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T14" t="n">
-        <v>220.4961873656892</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y14" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="15">
@@ -28418,61 +28420,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H15" t="n">
-        <v>149.631802706106</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I15" t="n">
-        <v>137.0300227191484</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J15" t="n">
-        <v>138.34934582705</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K15" t="n">
-        <v>108.1766334547838</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L15" t="n">
-        <v>69.42235938738361</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M15" t="n">
-        <v>49.23998181247759</v>
+        <v>23.04073385794618</v>
       </c>
       <c r="N15" t="n">
-        <v>26.8926640895925</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>61.07341979204932</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P15" t="n">
-        <v>80.75037203953283</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q15" t="n">
-        <v>135.9175601506888</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R15" t="n">
-        <v>192.1984848054242</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S15" t="n">
-        <v>226.4000077278574</v>
+        <v>224.4793946918968</v>
       </c>
       <c r="T15" t="n">
-        <v>241.8287383772942</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="U15" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V15" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W15" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X15" t="n">
-        <v>238.5568750784579</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y15" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="16">
@@ -28497,55 +28499,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.92444481789</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H16" t="n">
-        <v>171.7086235718632</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I16" t="n">
-        <v>179.6660901299453</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J16" t="n">
-        <v>163.855985710936</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K16" t="n">
-        <v>139.7869691951286</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L16" t="n">
-        <v>129.7913943420367</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M16" t="n">
-        <v>131.498635421155</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N16" t="n">
-        <v>115.4744376461909</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O16" t="n">
-        <v>140.0015246507702</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P16" t="n">
-        <v>151.0840793328529</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q16" t="n">
-        <v>195.8453499965997</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R16" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S16" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T16" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U16" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V16" t="n">
-        <v>232.1699497460494</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W16" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X16" t="n">
         <v>214.9420418072343</v>
@@ -28561,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="C17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="D17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="E17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="F17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="G17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="H17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="I17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="J17" t="n">
-        <v>180.4276389757292</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K17" t="n">
-        <v>187.1313384208502</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L17" t="n">
-        <v>171.581898839202</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M17" t="n">
-        <v>138.9352602797516</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N17" t="n">
-        <v>133.6102077246292</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O17" t="n">
-        <v>148.0530168059526</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P17" t="n">
-        <v>182.990255219108</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q17" t="n">
-        <v>216.4894883479166</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T17" t="n">
-        <v>220.4961873656892</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y17" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="18">
@@ -28646,7 +28648,7 @@
         <v>214.7813755111856</v>
       </c>
       <c r="D18" t="n">
-        <v>180.7611153144717</v>
+        <v>180.7611153144678</v>
       </c>
       <c r="E18" t="n">
         <v>197.9362491610792</v>
@@ -28655,61 +28657,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H18" t="n">
-        <v>149.631802706106</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I18" t="n">
-        <v>137.0300227191484</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J18" t="n">
-        <v>138.34934582705</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K18" t="n">
-        <v>108.1766334547838</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L18" t="n">
-        <v>69.42235938738361</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M18" t="n">
-        <v>49.23998181247759</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N18" t="n">
-        <v>26.8926640895925</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>61.07341979204932</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P18" t="n">
-        <v>80.75037203953283</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q18" t="n">
-        <v>135.9175601506888</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R18" t="n">
-        <v>192.1984848054242</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S18" t="n">
-        <v>226.4000077278574</v>
+        <v>224.4793946918968</v>
       </c>
       <c r="T18" t="n">
-        <v>241.8287383772942</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="U18" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V18" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W18" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X18" t="n">
-        <v>238.5568750784579</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y18" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="19">
@@ -28734,55 +28736,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.92444481789</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H19" t="n">
-        <v>171.7086235718632</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I19" t="n">
-        <v>179.6660901299453</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J19" t="n">
-        <v>163.855985710936</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K19" t="n">
-        <v>139.7869691951286</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L19" t="n">
-        <v>129.7913943420367</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M19" t="n">
-        <v>131.498635421155</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N19" t="n">
-        <v>115.4744376461909</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O19" t="n">
-        <v>140.0015246507702</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P19" t="n">
-        <v>151.0840793328529</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q19" t="n">
-        <v>195.8453499965997</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R19" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S19" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T19" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U19" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V19" t="n">
-        <v>232.1699497460494</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W19" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X19" t="n">
         <v>214.9420418072343</v>
@@ -28798,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="C20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="D20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="E20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="F20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="G20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="H20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="I20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="J20" t="n">
-        <v>180.4276389757292</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K20" t="n">
-        <v>187.1313384208502</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L20" t="n">
-        <v>171.581898839202</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M20" t="n">
-        <v>138.9352602797516</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N20" t="n">
-        <v>133.6102077246292</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O20" t="n">
-        <v>148.0530168059526</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P20" t="n">
-        <v>182.990255219108</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q20" t="n">
-        <v>216.4894883479166</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T20" t="n">
-        <v>220.4961873656892</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y20" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="21">
@@ -28892,61 +28894,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H21" t="n">
-        <v>149.631802706106</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I21" t="n">
-        <v>137.0300227191484</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J21" t="n">
-        <v>138.34934582705</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K21" t="n">
-        <v>108.1766334547838</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L21" t="n">
-        <v>69.42235938738361</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M21" t="n">
-        <v>49.23998181247759</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N21" t="n">
-        <v>26.8926640895925</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>61.07341979204932</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P21" t="n">
-        <v>80.75037203953283</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q21" t="n">
-        <v>135.9175601506888</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R21" t="n">
-        <v>192.1984848054242</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S21" t="n">
-        <v>226.4000077278574</v>
+        <v>224.4793946918968</v>
       </c>
       <c r="T21" t="n">
-        <v>241.8287383772942</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="U21" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V21" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W21" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X21" t="n">
-        <v>238.5568750784579</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y21" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="22">
@@ -28971,55 +28973,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.92444481789</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H22" t="n">
-        <v>171.7086235718632</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I22" t="n">
-        <v>179.6660901299453</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J22" t="n">
-        <v>163.855985710936</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K22" t="n">
-        <v>139.7869691951286</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L22" t="n">
-        <v>129.7913943420367</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M22" t="n">
-        <v>131.498635421155</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N22" t="n">
-        <v>115.4744376461909</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O22" t="n">
-        <v>140.0015246507702</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P22" t="n">
-        <v>151.0840793328529</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q22" t="n">
-        <v>195.8453499965997</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R22" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S22" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T22" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U22" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V22" t="n">
-        <v>232.1699497460494</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W22" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X22" t="n">
         <v>214.9420418072343</v>
@@ -29035,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="C23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="D23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="E23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="F23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="G23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="H23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="I23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="J23" t="n">
-        <v>180.4276389757292</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K23" t="n">
-        <v>187.1313384208502</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L23" t="n">
-        <v>171.581898839202</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M23" t="n">
-        <v>138.9352602797516</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N23" t="n">
-        <v>133.6102077246292</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O23" t="n">
-        <v>148.0530168059526</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P23" t="n">
-        <v>182.990255219108</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q23" t="n">
-        <v>216.4894883479166</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T23" t="n">
-        <v>220.4961873656892</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y23" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="24">
@@ -29129,61 +29131,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H24" t="n">
-        <v>149.631802706106</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I24" t="n">
-        <v>137.0300227191484</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J24" t="n">
-        <v>138.34934582705</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K24" t="n">
-        <v>108.1766334547838</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L24" t="n">
-        <v>69.42235938738361</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M24" t="n">
-        <v>49.23998181247759</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N24" t="n">
-        <v>26.8926640895925</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>61.07341979204932</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P24" t="n">
-        <v>80.75037203953283</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q24" t="n">
-        <v>135.9175601506888</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R24" t="n">
-        <v>192.1984848054242</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S24" t="n">
-        <v>226.4000077278574</v>
+        <v>224.4793946918968</v>
       </c>
       <c r="T24" t="n">
-        <v>241.8287383772942</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="U24" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V24" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W24" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X24" t="n">
-        <v>238.5568750784579</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="Y24" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
     </row>
     <row r="25">
@@ -29208,55 +29210,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.92444481789</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H25" t="n">
-        <v>171.7086235718632</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I25" t="n">
-        <v>179.6660901299453</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J25" t="n">
-        <v>163.855985710936</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K25" t="n">
-        <v>139.7869691951286</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L25" t="n">
-        <v>129.7913943420367</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M25" t="n">
-        <v>131.498635421155</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N25" t="n">
-        <v>115.4744376461909</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O25" t="n">
-        <v>140.0015246507702</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P25" t="n">
-        <v>151.0840793328529</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q25" t="n">
-        <v>195.8453499965997</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R25" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="S25" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="T25" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U25" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="V25" t="n">
-        <v>232.1699497460494</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="W25" t="n">
-        <v>247.2091313761078</v>
+        <v>226.0045086618842</v>
       </c>
       <c r="X25" t="n">
         <v>214.9420418072343</v>
@@ -29272,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="C26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="D26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="E26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="F26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="G26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="H26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="I26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="J26" t="n">
-        <v>180.4276389757292</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K26" t="n">
-        <v>187.1313384208502</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L26" t="n">
-        <v>171.581898839202</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M26" t="n">
-        <v>138.9352602797516</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N26" t="n">
-        <v>133.6102077246292</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O26" t="n">
-        <v>148.0530168059526</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P26" t="n">
-        <v>182.990255219108</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q26" t="n">
-        <v>216.4894883479166</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="S26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T26" t="n">
-        <v>220.4961873656892</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="W26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="Y26" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
     </row>
     <row r="27">
@@ -29366,61 +29368,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H27" t="n">
-        <v>149.631802706106</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I27" t="n">
-        <v>137.0300227191484</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J27" t="n">
-        <v>138.34934582705</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K27" t="n">
-        <v>108.1766334547838</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L27" t="n">
-        <v>69.42235938738361</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M27" t="n">
-        <v>49.23998181247759</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N27" t="n">
-        <v>26.8926640895925</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>61.07341979204932</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P27" t="n">
-        <v>80.75037203953283</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q27" t="n">
-        <v>135.9175601506888</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R27" t="n">
-        <v>192.1984848054242</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S27" t="n">
-        <v>226.4000077278574</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T27" t="n">
-        <v>241.8287383772942</v>
+        <v>223.5094992125</v>
       </c>
       <c r="U27" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V27" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="W27" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X27" t="n">
-        <v>238.5568750784579</v>
+        <v>223.5094992125</v>
       </c>
       <c r="Y27" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
     </row>
     <row r="28">
@@ -29445,55 +29447,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>169.92444481789</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H28" t="n">
-        <v>171.7086235718632</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I28" t="n">
-        <v>179.6660901299453</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J28" t="n">
-        <v>163.855985710936</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K28" t="n">
-        <v>139.7869691951286</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L28" t="n">
-        <v>129.7913943420367</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M28" t="n">
-        <v>131.498635421155</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N28" t="n">
-        <v>115.4744376461909</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O28" t="n">
-        <v>140.0015246507702</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P28" t="n">
-        <v>151.0840793328529</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q28" t="n">
-        <v>195.8453499965997</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R28" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="S28" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T28" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U28" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V28" t="n">
-        <v>232.1699497460494</v>
+        <v>96.85474505528252</v>
       </c>
       <c r="W28" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X28" t="n">
         <v>214.9420418072343</v>
@@ -29509,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="C29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="D29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="E29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="F29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="G29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="H29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="I29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="J29" t="n">
-        <v>180.4276389757292</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K29" t="n">
-        <v>187.1313384208502</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L29" t="n">
-        <v>171.581898839202</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M29" t="n">
-        <v>138.9352602797516</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N29" t="n">
-        <v>133.6102077246292</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O29" t="n">
-        <v>148.0530168059526</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P29" t="n">
-        <v>182.990255219108</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q29" t="n">
-        <v>216.4894883479166</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="S29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T29" t="n">
-        <v>220.4961873656892</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="W29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="Y29" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
     </row>
     <row r="30">
@@ -29603,61 +29605,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H30" t="n">
-        <v>149.631802706106</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I30" t="n">
-        <v>137.0300227191484</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J30" t="n">
-        <v>138.34934582705</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K30" t="n">
-        <v>108.1766334547838</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L30" t="n">
-        <v>69.42235938738361</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M30" t="n">
-        <v>49.23998181247759</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N30" t="n">
-        <v>26.8926640895925</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>61.07341979204932</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P30" t="n">
-        <v>80.75037203953283</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q30" t="n">
-        <v>135.9175601506888</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R30" t="n">
-        <v>192.1984848054242</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S30" t="n">
-        <v>226.4000077278574</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T30" t="n">
-        <v>241.8287383772942</v>
+        <v>223.5094992125</v>
       </c>
       <c r="U30" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V30" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="W30" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X30" t="n">
-        <v>238.5568750784579</v>
+        <v>223.5094992125</v>
       </c>
       <c r="Y30" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
     </row>
     <row r="31">
@@ -29682,55 +29684,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>169.92444481789</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H31" t="n">
-        <v>171.7086235718632</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I31" t="n">
-        <v>179.6660901299453</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J31" t="n">
-        <v>163.855985710936</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K31" t="n">
-        <v>139.7869691951286</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L31" t="n">
-        <v>129.7913943420367</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M31" t="n">
-        <v>131.498635421155</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N31" t="n">
-        <v>115.4744376461909</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O31" t="n">
-        <v>140.0015246507702</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P31" t="n">
-        <v>151.0840793328529</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q31" t="n">
-        <v>195.8453499965997</v>
+        <v>61.9317216354633</v>
       </c>
       <c r="R31" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="S31" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T31" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U31" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V31" t="n">
-        <v>232.1699497460494</v>
+        <v>223.5094992125</v>
       </c>
       <c r="W31" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X31" t="n">
         <v>214.9420418072343</v>
@@ -29746,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="C32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="D32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="E32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="F32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="G32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="H32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="I32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="J32" t="n">
-        <v>180.4276389757292</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K32" t="n">
-        <v>187.1313384208502</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L32" t="n">
-        <v>171.581898839202</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M32" t="n">
-        <v>138.9352602797516</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N32" t="n">
-        <v>133.6102077246292</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O32" t="n">
-        <v>148.0530168059526</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P32" t="n">
-        <v>182.990255219108</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q32" t="n">
-        <v>216.4894883479166</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="S32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T32" t="n">
-        <v>220.4961873656892</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="W32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="Y32" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
     </row>
     <row r="33">
@@ -29840,61 +29842,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H33" t="n">
-        <v>149.631802706106</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I33" t="n">
-        <v>137.0300227191484</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J33" t="n">
-        <v>138.3493458270565</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K33" t="n">
-        <v>108.1766334547838</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L33" t="n">
-        <v>69.42235938738361</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M33" t="n">
-        <v>49.23998181247759</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N33" t="n">
-        <v>26.8926640895925</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>61.07341979204932</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P33" t="n">
-        <v>80.75037203953283</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q33" t="n">
-        <v>135.9175601506888</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R33" t="n">
-        <v>192.1984848054242</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S33" t="n">
-        <v>226.4000077278574</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T33" t="n">
-        <v>241.8287383772942</v>
+        <v>223.5094992125</v>
       </c>
       <c r="U33" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V33" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="W33" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X33" t="n">
-        <v>238.5568750784579</v>
+        <v>223.5094992125</v>
       </c>
       <c r="Y33" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
     </row>
     <row r="34">
@@ -29919,55 +29921,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.92444481789</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H34" t="n">
-        <v>171.7086235718632</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I34" t="n">
-        <v>179.6660901299453</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J34" t="n">
-        <v>163.855985710936</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K34" t="n">
-        <v>139.7869691951286</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L34" t="n">
-        <v>129.7913943420367</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M34" t="n">
-        <v>131.498635421155</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N34" t="n">
-        <v>115.4744376461909</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O34" t="n">
-        <v>140.0015246507702</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P34" t="n">
-        <v>151.0840793328529</v>
+        <v>13.94489759894368</v>
       </c>
       <c r="Q34" t="n">
-        <v>195.8453499965997</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R34" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="S34" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T34" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U34" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V34" t="n">
-        <v>232.1699497460494</v>
+        <v>223.5094992125</v>
       </c>
       <c r="W34" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X34" t="n">
         <v>214.9420418072343</v>
@@ -29983,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="C35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="D35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="E35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="F35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="G35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="H35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="I35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="J35" t="n">
-        <v>180.4276389757292</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K35" t="n">
-        <v>187.1313384208502</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L35" t="n">
-        <v>171.581898839202</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M35" t="n">
-        <v>138.9352602797516</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N35" t="n">
-        <v>133.6102077246292</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O35" t="n">
-        <v>148.0530168059526</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P35" t="n">
-        <v>182.990255219108</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q35" t="n">
-        <v>216.4894883479166</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="S35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T35" t="n">
-        <v>220.4961873656892</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="W35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="Y35" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
     </row>
     <row r="36">
@@ -30077,61 +30079,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H36" t="n">
-        <v>149.631802706106</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I36" t="n">
-        <v>137.0300227191484</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J36" t="n">
-        <v>138.34934582705</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K36" t="n">
-        <v>108.1766334547838</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L36" t="n">
-        <v>69.42235938738361</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M36" t="n">
-        <v>49.23998181247759</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N36" t="n">
-        <v>26.8926640895925</v>
+        <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>61.07341979204932</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P36" t="n">
-        <v>80.75037203953283</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q36" t="n">
-        <v>135.9175601506888</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R36" t="n">
-        <v>192.1984848054242</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S36" t="n">
-        <v>226.4000077278574</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T36" t="n">
-        <v>241.8287383772942</v>
+        <v>223.5094992125</v>
       </c>
       <c r="U36" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V36" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="W36" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X36" t="n">
-        <v>238.5568750784579</v>
+        <v>223.5094992125</v>
       </c>
       <c r="Y36" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
     </row>
     <row r="37">
@@ -30156,58 +30158,58 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.92444481789</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H37" t="n">
-        <v>171.7086235718632</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I37" t="n">
-        <v>179.6660901299453</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J37" t="n">
-        <v>163.855985710936</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K37" t="n">
-        <v>139.7869691951286</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L37" t="n">
-        <v>129.7913943420367</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M37" t="n">
-        <v>131.498635421155</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N37" t="n">
-        <v>115.4744376461909</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O37" t="n">
-        <v>140.0015246507702</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P37" t="n">
-        <v>151.0840793328529</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q37" t="n">
-        <v>195.8453499965997</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R37" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="S37" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T37" t="n">
-        <v>215.7045047368257</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U37" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V37" t="n">
-        <v>232.1699497460494</v>
+        <v>223.5094992125</v>
       </c>
       <c r="W37" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X37" t="n">
-        <v>214.9420418072343</v>
+        <v>88.28728765001827</v>
       </c>
       <c r="Y37" t="n">
         <v>214.4841404602585</v>
@@ -30220,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="C38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="D38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="E38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="F38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="G38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="H38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="I38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="J38" t="n">
-        <v>180.4276389757292</v>
+        <v>164.0254192821721</v>
       </c>
       <c r="K38" t="n">
-        <v>187.1313384208502</v>
+        <v>162.5486629370368</v>
       </c>
       <c r="L38" t="n">
-        <v>171.581898839202</v>
+        <v>141.0849161526705</v>
       </c>
       <c r="M38" t="n">
-        <v>138.9352602797516</v>
+        <v>105.0014909015128</v>
       </c>
       <c r="N38" t="n">
-        <v>133.6102077246292</v>
+        <v>99.12735448118684</v>
       </c>
       <c r="O38" t="n">
-        <v>148.0530168059526</v>
+        <v>115.4918363067663</v>
       </c>
       <c r="P38" t="n">
-        <v>182.990255219108</v>
+        <v>155.2000409925878</v>
       </c>
       <c r="Q38" t="n">
-        <v>216.4894883479166</v>
+        <v>195.6201948156689</v>
       </c>
       <c r="R38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="S38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T38" t="n">
-        <v>220.4961873656892</v>
+        <v>219.650216535974</v>
       </c>
       <c r="U38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="W38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="Y38" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
     </row>
     <row r="39">
@@ -30314,61 +30316,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>169.6339686193251</v>
+        <v>169.5305684369876</v>
       </c>
       <c r="H39" t="n">
-        <v>149.631802706106</v>
+        <v>148.6331746293208</v>
       </c>
       <c r="I39" t="n">
-        <v>137.0300227191484</v>
+        <v>133.4699725816536</v>
       </c>
       <c r="J39" t="n">
-        <v>138.34934582705</v>
+        <v>128.5802961440214</v>
       </c>
       <c r="K39" t="n">
-        <v>108.1766334547838</v>
+        <v>91.47977155514764</v>
       </c>
       <c r="L39" t="n">
-        <v>69.42235938738361</v>
+        <v>46.97136804258392</v>
       </c>
       <c r="M39" t="n">
-        <v>49.23998181247759</v>
+        <v>23.04073385794621</v>
       </c>
       <c r="N39" t="n">
-        <v>26.8926640895925</v>
+        <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>61.07341979204932</v>
+        <v>36.47188605845983</v>
       </c>
       <c r="P39" t="n">
-        <v>80.75037203953283</v>
+        <v>61.00547230880082</v>
       </c>
       <c r="Q39" t="n">
-        <v>135.9175601506888</v>
+        <v>122.7186175772305</v>
       </c>
       <c r="R39" t="n">
-        <v>192.1984848054242</v>
+        <v>185.7786033090706</v>
       </c>
       <c r="S39" t="n">
-        <v>226.4000077278574</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T39" t="n">
-        <v>241.8287383772942</v>
+        <v>223.5094992125</v>
       </c>
       <c r="U39" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V39" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="W39" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X39" t="n">
-        <v>238.5568750784579</v>
+        <v>223.5094992125</v>
       </c>
       <c r="Y39" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
     </row>
     <row r="40">
@@ -30378,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>173.5391974632748</v>
+        <v>46.88444330605726</v>
       </c>
       <c r="C40" t="n">
         <v>165.0035252842657</v>
@@ -30393,55 +30395,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.92444481789</v>
+        <v>169.8377575784555</v>
       </c>
       <c r="H40" t="n">
-        <v>171.7086235718632</v>
+        <v>170.9378952067096</v>
       </c>
       <c r="I40" t="n">
-        <v>179.6660901299453</v>
+        <v>177.0591684204074</v>
       </c>
       <c r="J40" t="n">
-        <v>163.855985710936</v>
+        <v>157.72719788292</v>
       </c>
       <c r="K40" t="n">
-        <v>139.7869691951286</v>
+        <v>129.7154881044711</v>
       </c>
       <c r="L40" t="n">
-        <v>129.7913943420367</v>
+        <v>116.9033660355724</v>
       </c>
       <c r="M40" t="n">
-        <v>131.498635421155</v>
+        <v>117.9100166068977</v>
       </c>
       <c r="N40" t="n">
-        <v>115.4744376461909</v>
+        <v>102.2089258152801</v>
       </c>
       <c r="O40" t="n">
-        <v>140.0015246507702</v>
+        <v>127.7486773896165</v>
       </c>
       <c r="P40" t="n">
-        <v>151.0840793328529</v>
+        <v>140.5996517561621</v>
       </c>
       <c r="Q40" t="n">
-        <v>195.8453499965997</v>
+        <v>188.5864757926837</v>
       </c>
       <c r="R40" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="S40" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="T40" t="n">
-        <v>215.7045047368332</v>
+        <v>215.3341138046966</v>
       </c>
       <c r="U40" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="V40" t="n">
-        <v>232.1699497460494</v>
+        <v>223.5094992125</v>
       </c>
       <c r="W40" t="n">
-        <v>247.2091313761078</v>
+        <v>223.5094992125</v>
       </c>
       <c r="X40" t="n">
         <v>214.9420418072343</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.340484612499577</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H11" t="n">
-        <v>13.7282380377613</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I11" t="n">
-        <v>51.67903302339001</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J11" t="n">
-        <v>113.7719558801361</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K11" t="n">
-        <v>170.5146695272433</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L11" t="n">
-        <v>211.5385254870272</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M11" t="n">
-        <v>235.3773687145666</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N11" t="n">
-        <v>239.186020619831</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O11" t="n">
-        <v>225.8565767542883</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P11" t="n">
-        <v>192.763362883205</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q11" t="n">
-        <v>144.7572576980638</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R11" t="n">
-        <v>84.20421653992665</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S11" t="n">
-        <v>30.54629310733415</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T11" t="n">
-        <v>5.867971391216902</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1072387689999662</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.7172224980935245</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H12" t="n">
-        <v>6.926859389482197</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I12" t="n">
-        <v>24.69384478085161</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J12" t="n">
-        <v>67.76179750628339</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K12" t="n">
-        <v>115.8157048785495</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L12" t="n">
-        <v>155.728507754912</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M12" t="n">
-        <v>181.7278233108022</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N12" t="n">
-        <v>186.5376180458241</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O12" t="n">
-        <v>170.6454774301729</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P12" t="n">
-        <v>136.9580400087538</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q12" t="n">
-        <v>91.55282273909621</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R12" t="n">
-        <v>44.53070913601726</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S12" t="n">
-        <v>13.32209333081611</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T12" t="n">
-        <v>2.890909981350652</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04718569066404768</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6012952493363887</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H13" t="n">
-        <v>5.34606139864535</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I13" t="n">
-        <v>18.08258804367977</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J13" t="n">
-        <v>42.51157412808268</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K13" t="n">
-        <v>69.85957533199132</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L13" t="n">
-        <v>89.39620461497547</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M13" t="n">
-        <v>94.25576349370317</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N13" t="n">
-        <v>92.01457210981306</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O13" t="n">
-        <v>84.99035033347431</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P13" t="n">
-        <v>72.72392724701193</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q13" t="n">
-        <v>50.35027765124978</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R13" t="n">
-        <v>27.03642093834343</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S13" t="n">
-        <v>10.4789362997987</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T13" t="n">
-        <v>2.569170610800933</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03279792269107578</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.340484612499577</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H14" t="n">
-        <v>13.7282380377613</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I14" t="n">
-        <v>51.67903302339001</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J14" t="n">
-        <v>113.7719558801361</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K14" t="n">
-        <v>170.5146695272433</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L14" t="n">
-        <v>211.5385254870272</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M14" t="n">
-        <v>235.3773687145666</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N14" t="n">
-        <v>239.186020619831</v>
+        <v>273.6688738632733</v>
       </c>
       <c r="O14" t="n">
-        <v>225.8565767542883</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P14" t="n">
-        <v>192.763362883205</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q14" t="n">
-        <v>144.7572576980638</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R14" t="n">
-        <v>84.20421653992665</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S14" t="n">
-        <v>30.54629310733415</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T14" t="n">
-        <v>5.867971391216902</v>
+        <v>6.713942220932166</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1072387689999662</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.7172224980935245</v>
+        <v>0.8206226804309515</v>
       </c>
       <c r="H15" t="n">
-        <v>6.926859389482197</v>
+        <v>7.925487466267348</v>
       </c>
       <c r="I15" t="n">
-        <v>24.69384478085161</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J15" t="n">
-        <v>67.76179750628339</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K15" t="n">
-        <v>115.8157048785495</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L15" t="n">
-        <v>155.728507754912</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M15" t="n">
-        <v>181.7278233108022</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N15" t="n">
-        <v>186.5376180458241</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O15" t="n">
-        <v>170.6454774301729</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P15" t="n">
-        <v>136.9580400087538</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q15" t="n">
-        <v>91.55282273909621</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R15" t="n">
-        <v>44.53070913601726</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S15" t="n">
-        <v>13.32209333081611</v>
+        <v>15.24270636677666</v>
       </c>
       <c r="T15" t="n">
-        <v>2.890909981350652</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04718569066404768</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6012952493363887</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H16" t="n">
-        <v>5.34606139864535</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I16" t="n">
-        <v>18.08258804367977</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J16" t="n">
-        <v>42.51157412808268</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K16" t="n">
-        <v>69.85957533199132</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L16" t="n">
-        <v>89.39620461497547</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M16" t="n">
-        <v>94.25576349370317</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N16" t="n">
-        <v>92.01457210981306</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O16" t="n">
-        <v>84.99035033347431</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P16" t="n">
-        <v>72.72392724701193</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q16" t="n">
-        <v>50.35027765124978</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R16" t="n">
-        <v>27.03642093834343</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S16" t="n">
-        <v>10.4789362997987</v>
+        <v>11.98965846339734</v>
       </c>
       <c r="T16" t="n">
-        <v>2.569170610800933</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03279792269107578</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.340484612499577</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H17" t="n">
-        <v>13.7282380377613</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I17" t="n">
-        <v>51.67903302339001</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J17" t="n">
-        <v>113.7719558801361</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K17" t="n">
-        <v>170.5146695272433</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L17" t="n">
-        <v>211.5385254870272</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M17" t="n">
-        <v>235.3773687145666</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N17" t="n">
-        <v>239.186020619831</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O17" t="n">
-        <v>225.8565767542883</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P17" t="n">
-        <v>192.763362883205</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q17" t="n">
-        <v>144.7572576980638</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R17" t="n">
-        <v>84.20421653992665</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S17" t="n">
-        <v>30.54629310733415</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T17" t="n">
-        <v>5.867971391216902</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1072387689999662</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7172224980935245</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H18" t="n">
-        <v>6.926859389482197</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I18" t="n">
-        <v>24.69384478085161</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J18" t="n">
-        <v>67.76179750628339</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K18" t="n">
-        <v>115.8157048785495</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L18" t="n">
-        <v>155.728507754912</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M18" t="n">
-        <v>181.7278233108022</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N18" t="n">
-        <v>186.5376180458241</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O18" t="n">
-        <v>170.6454774301729</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P18" t="n">
-        <v>136.9580400087538</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q18" t="n">
-        <v>91.55282273909621</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R18" t="n">
-        <v>44.53070913601726</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S18" t="n">
-        <v>13.32209333081611</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T18" t="n">
-        <v>2.890909981350652</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04718569066404768</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6012952493363887</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H19" t="n">
-        <v>5.34606139864535</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I19" t="n">
-        <v>18.08258804367977</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J19" t="n">
-        <v>42.51157412808268</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K19" t="n">
-        <v>69.85957533199132</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L19" t="n">
-        <v>89.39620461497547</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M19" t="n">
-        <v>94.25576349370317</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N19" t="n">
-        <v>92.01457210981306</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O19" t="n">
-        <v>84.99035033347431</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P19" t="n">
-        <v>72.72392724701193</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q19" t="n">
-        <v>50.35027765124978</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R19" t="n">
-        <v>27.03642093834343</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S19" t="n">
-        <v>10.4789362997987</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T19" t="n">
-        <v>2.569170610800933</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03279792269107578</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.340484612499577</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H20" t="n">
-        <v>13.7282380377613</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I20" t="n">
-        <v>51.67903302339001</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J20" t="n">
-        <v>113.7719558801361</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K20" t="n">
-        <v>170.5146695272433</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L20" t="n">
-        <v>211.5385254870272</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M20" t="n">
-        <v>235.3773687145666</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N20" t="n">
-        <v>239.186020619831</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O20" t="n">
-        <v>225.8565767542883</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P20" t="n">
-        <v>192.763362883205</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q20" t="n">
-        <v>144.7572576980638</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R20" t="n">
-        <v>84.20421653992665</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S20" t="n">
-        <v>30.54629310733415</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T20" t="n">
-        <v>5.867971391216902</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1072387689999662</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.7172224980935245</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H21" t="n">
-        <v>6.926859389482197</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I21" t="n">
-        <v>24.69384478085161</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J21" t="n">
-        <v>67.76179750628339</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K21" t="n">
-        <v>115.8157048785495</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L21" t="n">
-        <v>155.728507754912</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M21" t="n">
-        <v>181.7278233108022</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N21" t="n">
-        <v>186.5376180458241</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O21" t="n">
-        <v>170.6454774301729</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P21" t="n">
-        <v>136.9580400087538</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q21" t="n">
-        <v>91.55282273909621</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R21" t="n">
-        <v>44.53070913601726</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S21" t="n">
-        <v>13.32209333081611</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T21" t="n">
-        <v>2.890909981350652</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04718569066404768</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6012952493363887</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H22" t="n">
-        <v>5.34606139864535</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I22" t="n">
-        <v>18.08258804367977</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J22" t="n">
-        <v>42.51157412808268</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K22" t="n">
-        <v>69.85957533199132</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L22" t="n">
-        <v>89.39620461497547</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M22" t="n">
-        <v>94.25576349370317</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N22" t="n">
-        <v>92.01457210981306</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O22" t="n">
-        <v>84.99035033347431</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P22" t="n">
-        <v>72.72392724701193</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q22" t="n">
-        <v>50.35027765124978</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R22" t="n">
-        <v>27.03642093834343</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S22" t="n">
-        <v>10.4789362997987</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T22" t="n">
-        <v>2.569170610800933</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03279792269107578</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.340484612499577</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H23" t="n">
-        <v>13.7282380377613</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I23" t="n">
-        <v>51.67903302339001</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J23" t="n">
-        <v>113.7719558801361</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K23" t="n">
-        <v>170.5146695272433</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L23" t="n">
-        <v>211.5385254870272</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M23" t="n">
-        <v>235.3773687145666</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N23" t="n">
-        <v>239.186020619831</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O23" t="n">
-        <v>225.8565767542883</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P23" t="n">
-        <v>192.763362883205</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q23" t="n">
-        <v>144.7572576980638</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R23" t="n">
-        <v>84.20421653992665</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S23" t="n">
-        <v>30.54629310733415</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T23" t="n">
-        <v>5.867971391216902</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1072387689999662</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.7172224980935245</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H24" t="n">
-        <v>6.926859389482197</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I24" t="n">
-        <v>24.69384478085161</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J24" t="n">
-        <v>67.76179750628339</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K24" t="n">
-        <v>115.8157048785495</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L24" t="n">
-        <v>155.728507754912</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M24" t="n">
-        <v>181.7278233108022</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N24" t="n">
-        <v>186.5376180458241</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O24" t="n">
-        <v>170.6454774301729</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P24" t="n">
-        <v>136.9580400087538</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q24" t="n">
-        <v>91.55282273909621</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R24" t="n">
-        <v>44.53070913601726</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S24" t="n">
-        <v>13.32209333081611</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T24" t="n">
-        <v>2.890909981350652</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04718569066404768</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6012952493363887</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H25" t="n">
-        <v>5.34606139864535</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I25" t="n">
-        <v>18.08258804367977</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J25" t="n">
-        <v>42.51157412808268</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K25" t="n">
-        <v>69.85957533199132</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L25" t="n">
-        <v>89.39620461497547</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M25" t="n">
-        <v>94.25576349370317</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N25" t="n">
-        <v>92.01457210981306</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O25" t="n">
-        <v>84.99035033347431</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P25" t="n">
-        <v>72.72392724701193</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q25" t="n">
-        <v>50.35027765124978</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R25" t="n">
-        <v>27.03642093834343</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S25" t="n">
-        <v>10.4789362997987</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T25" t="n">
-        <v>2.569170610800933</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03279792269107578</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.340484612499577</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H26" t="n">
-        <v>13.7282380377613</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I26" t="n">
-        <v>51.67903302339001</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J26" t="n">
-        <v>113.7719558801361</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K26" t="n">
-        <v>170.5146695272433</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L26" t="n">
-        <v>211.5385254870272</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M26" t="n">
-        <v>235.3773687145666</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N26" t="n">
-        <v>239.186020619831</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O26" t="n">
-        <v>225.8565767542883</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P26" t="n">
-        <v>192.763362883205</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q26" t="n">
-        <v>144.7572576980638</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R26" t="n">
-        <v>84.20421653992665</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S26" t="n">
-        <v>30.54629310733415</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T26" t="n">
-        <v>5.867971391216902</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1072387689999662</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.7172224980935245</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H27" t="n">
-        <v>6.926859389482197</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I27" t="n">
-        <v>24.69384478085161</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J27" t="n">
-        <v>67.76179750628339</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K27" t="n">
-        <v>115.8157048785495</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L27" t="n">
-        <v>155.728507754912</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M27" t="n">
-        <v>181.7278233108022</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N27" t="n">
-        <v>186.5376180458241</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O27" t="n">
-        <v>170.6454774301729</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P27" t="n">
-        <v>136.9580400087538</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q27" t="n">
-        <v>91.55282273909621</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R27" t="n">
-        <v>44.53070913601726</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S27" t="n">
-        <v>13.32209333081611</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T27" t="n">
-        <v>2.890909981350652</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04718569066404768</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6012952493363887</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H28" t="n">
-        <v>5.34606139864535</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I28" t="n">
-        <v>18.08258804367977</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J28" t="n">
-        <v>42.51157412808268</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K28" t="n">
-        <v>69.85957533199132</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L28" t="n">
-        <v>89.39620461497547</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M28" t="n">
-        <v>94.25576349370317</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N28" t="n">
-        <v>92.01457210981306</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O28" t="n">
-        <v>84.99035033347431</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P28" t="n">
-        <v>72.72392724701193</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q28" t="n">
-        <v>50.35027765124978</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R28" t="n">
-        <v>27.03642093834343</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S28" t="n">
-        <v>10.4789362997987</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T28" t="n">
-        <v>2.569170610800933</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03279792269107578</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.340484612499577</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H29" t="n">
-        <v>13.7282380377613</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I29" t="n">
-        <v>51.67903302339001</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J29" t="n">
-        <v>113.7719558801361</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K29" t="n">
-        <v>170.5146695272433</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L29" t="n">
-        <v>211.5385254870272</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M29" t="n">
-        <v>235.3773687145666</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N29" t="n">
-        <v>239.186020619831</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O29" t="n">
-        <v>225.8565767542883</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P29" t="n">
-        <v>192.763362883205</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q29" t="n">
-        <v>144.7572576980638</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R29" t="n">
-        <v>84.20421653992665</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S29" t="n">
-        <v>30.54629310733415</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T29" t="n">
-        <v>5.867971391216902</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1072387689999662</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.7172224980935245</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H30" t="n">
-        <v>6.926859389482197</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I30" t="n">
-        <v>24.69384478085161</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J30" t="n">
-        <v>67.76179750628339</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K30" t="n">
-        <v>115.8157048785495</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L30" t="n">
-        <v>155.728507754912</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M30" t="n">
-        <v>181.7278233108022</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N30" t="n">
-        <v>186.5376180458241</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O30" t="n">
-        <v>170.6454774301729</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P30" t="n">
-        <v>136.9580400087538</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q30" t="n">
-        <v>91.55282273909621</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R30" t="n">
-        <v>44.53070913601726</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S30" t="n">
-        <v>13.32209333081611</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T30" t="n">
-        <v>2.890909981350652</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04718569066404768</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6012952493363887</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H31" t="n">
-        <v>5.34606139864535</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I31" t="n">
-        <v>18.08258804367977</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J31" t="n">
-        <v>42.51157412808268</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K31" t="n">
-        <v>69.85957533199132</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L31" t="n">
-        <v>89.39620461497547</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M31" t="n">
-        <v>94.25576349370317</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N31" t="n">
-        <v>92.01457210981306</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O31" t="n">
-        <v>84.99035033347431</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P31" t="n">
-        <v>72.72392724701193</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q31" t="n">
-        <v>50.35027765124978</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R31" t="n">
-        <v>27.03642093834343</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S31" t="n">
-        <v>10.4789362997987</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T31" t="n">
-        <v>2.569170610800933</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03279792269107578</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.340484612499577</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H32" t="n">
-        <v>13.7282380377613</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I32" t="n">
-        <v>51.67903302339001</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J32" t="n">
-        <v>113.7719558801361</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K32" t="n">
-        <v>170.5146695272433</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L32" t="n">
-        <v>211.5385254870272</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M32" t="n">
-        <v>235.3773687145666</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N32" t="n">
-        <v>239.186020619831</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O32" t="n">
-        <v>225.8565767542883</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P32" t="n">
-        <v>192.763362883205</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q32" t="n">
-        <v>144.7572576980638</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R32" t="n">
-        <v>84.20421653992665</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S32" t="n">
-        <v>30.54629310733415</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T32" t="n">
-        <v>5.867971391216902</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1072387689999662</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.7172224980935245</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H33" t="n">
-        <v>6.926859389482197</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I33" t="n">
-        <v>24.69384478085161</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J33" t="n">
-        <v>67.76179750628339</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K33" t="n">
-        <v>115.8157048785495</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L33" t="n">
-        <v>155.728507754912</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M33" t="n">
-        <v>181.7278233108022</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N33" t="n">
-        <v>186.5376180458241</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O33" t="n">
-        <v>170.6454774301729</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P33" t="n">
-        <v>136.9580400087538</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q33" t="n">
-        <v>91.55282273909621</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R33" t="n">
-        <v>44.53070913601726</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S33" t="n">
-        <v>13.32209333081611</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T33" t="n">
-        <v>2.890909981350652</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04718569066404768</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6012952493363887</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H34" t="n">
-        <v>5.34606139864535</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I34" t="n">
-        <v>18.08258804367977</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J34" t="n">
-        <v>42.51157412808268</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K34" t="n">
-        <v>69.85957533199132</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L34" t="n">
-        <v>89.39620461497547</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M34" t="n">
-        <v>94.25576349370317</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N34" t="n">
-        <v>92.01457210981306</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O34" t="n">
-        <v>84.99035033347431</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P34" t="n">
-        <v>72.72392724701193</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q34" t="n">
-        <v>50.35027765124978</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R34" t="n">
-        <v>27.03642093834343</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S34" t="n">
-        <v>10.4789362997987</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T34" t="n">
-        <v>2.569170610800933</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03279792269107578</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.340484612499577</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H35" t="n">
-        <v>13.7282380377613</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I35" t="n">
-        <v>51.67903302339001</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J35" t="n">
-        <v>113.7719558801361</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K35" t="n">
-        <v>170.5146695272433</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L35" t="n">
-        <v>211.5385254870272</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M35" t="n">
-        <v>235.3773687145666</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N35" t="n">
-        <v>239.186020619831</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O35" t="n">
-        <v>225.8565767542883</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P35" t="n">
-        <v>192.763362883205</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q35" t="n">
-        <v>144.7572576980638</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R35" t="n">
-        <v>84.20421653992665</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S35" t="n">
-        <v>30.54629310733415</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T35" t="n">
-        <v>5.867971391216902</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1072387689999662</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7172224980935245</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H36" t="n">
-        <v>6.926859389482197</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I36" t="n">
-        <v>24.69384478085161</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J36" t="n">
-        <v>67.76179750628339</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K36" t="n">
-        <v>115.8157048785495</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L36" t="n">
-        <v>155.728507754912</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M36" t="n">
-        <v>181.7278233108022</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N36" t="n">
-        <v>186.5376180458241</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O36" t="n">
-        <v>170.6454774301729</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P36" t="n">
-        <v>136.9580400087538</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q36" t="n">
-        <v>91.55282273909621</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R36" t="n">
-        <v>44.53070913601726</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S36" t="n">
-        <v>13.32209333081611</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T36" t="n">
-        <v>2.890909981350652</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04718569066404768</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6012952493363887</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H37" t="n">
-        <v>5.34606139864535</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I37" t="n">
-        <v>18.08258804367977</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J37" t="n">
-        <v>42.51157412808268</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K37" t="n">
-        <v>69.85957533199132</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L37" t="n">
-        <v>89.39620461497547</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M37" t="n">
-        <v>94.25576349370317</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N37" t="n">
-        <v>92.01457210981306</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O37" t="n">
-        <v>84.99035033347431</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P37" t="n">
-        <v>72.72392724701193</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q37" t="n">
-        <v>50.35027765124978</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R37" t="n">
-        <v>27.03642093834343</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S37" t="n">
-        <v>10.4789362997987</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T37" t="n">
-        <v>2.569170610800933</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03279792269107578</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.340484612499577</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H38" t="n">
-        <v>13.7282380377613</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I38" t="n">
-        <v>51.67903302339001</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J38" t="n">
-        <v>113.7719558801361</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K38" t="n">
-        <v>170.5146695272433</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L38" t="n">
-        <v>211.5385254870272</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M38" t="n">
-        <v>235.3773687145666</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N38" t="n">
-        <v>239.186020619831</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O38" t="n">
-        <v>225.8565767542883</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P38" t="n">
-        <v>192.763362883205</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q38" t="n">
-        <v>144.7572576980638</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R38" t="n">
-        <v>84.20421653992665</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S38" t="n">
-        <v>30.54629310733415</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T38" t="n">
-        <v>5.867971391216902</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1072387689999662</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7172224980935245</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H39" t="n">
-        <v>6.926859389482197</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I39" t="n">
-        <v>24.69384478085161</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J39" t="n">
-        <v>67.76179750628339</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K39" t="n">
-        <v>115.8157048785495</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L39" t="n">
-        <v>155.728507754912</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M39" t="n">
-        <v>181.7278233108022</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N39" t="n">
-        <v>186.5376180458241</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O39" t="n">
-        <v>170.6454774301729</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P39" t="n">
-        <v>136.9580400087538</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q39" t="n">
-        <v>91.55282273909621</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R39" t="n">
-        <v>44.53070913601726</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S39" t="n">
-        <v>13.32209333081611</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T39" t="n">
-        <v>2.890909981350652</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04718569066404768</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6012952493363887</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H40" t="n">
-        <v>5.34606139864535</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I40" t="n">
-        <v>18.08258804367977</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J40" t="n">
-        <v>42.51157412808268</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K40" t="n">
-        <v>69.85957533199132</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L40" t="n">
-        <v>89.39620461497547</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M40" t="n">
-        <v>94.25576349370317</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N40" t="n">
-        <v>92.01457210981306</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O40" t="n">
-        <v>84.99035033347431</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P40" t="n">
-        <v>72.72392724701193</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q40" t="n">
-        <v>50.35027765124978</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R40" t="n">
-        <v>27.03642093834343</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S40" t="n">
-        <v>10.4789362997987</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T40" t="n">
-        <v>2.569170610800933</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03279792269107578</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.340484612499577</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H41" t="n">
-        <v>13.7282380377613</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I41" t="n">
-        <v>51.67903302339001</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J41" t="n">
-        <v>113.7719558801361</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K41" t="n">
-        <v>170.5146695272433</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L41" t="n">
-        <v>211.5385254870272</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M41" t="n">
-        <v>235.3773687145666</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N41" t="n">
-        <v>239.186020619831</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O41" t="n">
-        <v>225.8565767542883</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P41" t="n">
-        <v>192.763362883205</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q41" t="n">
-        <v>144.7572576980638</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R41" t="n">
-        <v>84.20421653992665</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S41" t="n">
-        <v>30.54629310733415</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T41" t="n">
-        <v>5.867971391216902</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1072387689999662</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.7172224980935245</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H42" t="n">
-        <v>6.926859389482197</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I42" t="n">
-        <v>24.69384478085161</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J42" t="n">
-        <v>67.76179750628339</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K42" t="n">
-        <v>115.8157048785495</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L42" t="n">
-        <v>155.728507754912</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M42" t="n">
-        <v>181.7278233108022</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N42" t="n">
-        <v>186.5376180458241</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O42" t="n">
-        <v>170.6454774301729</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P42" t="n">
-        <v>136.9580400087538</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q42" t="n">
-        <v>91.55282273909621</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R42" t="n">
-        <v>44.53070913601726</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S42" t="n">
-        <v>13.32209333081611</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T42" t="n">
-        <v>2.890909981350652</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04718569066404768</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6012952493363887</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H43" t="n">
-        <v>5.34606139864535</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I43" t="n">
-        <v>18.08258804367977</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J43" t="n">
-        <v>42.51157412808268</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K43" t="n">
-        <v>69.85957533199132</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L43" t="n">
-        <v>89.39620461497547</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M43" t="n">
-        <v>94.25576349370317</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N43" t="n">
-        <v>92.01457210981306</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O43" t="n">
-        <v>84.99035033347431</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P43" t="n">
-        <v>72.72392724701193</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q43" t="n">
-        <v>50.35027765124978</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R43" t="n">
-        <v>27.03642093834343</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S43" t="n">
-        <v>10.4789362997987</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T43" t="n">
-        <v>2.569170610800933</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03279792269107578</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.340484612499577</v>
+        <v>1.533738942531619</v>
       </c>
       <c r="H44" t="n">
-        <v>13.7282380377613</v>
+        <v>15.70740394520195</v>
       </c>
       <c r="I44" t="n">
-        <v>51.67903302339001</v>
+        <v>59.12947058195031</v>
       </c>
       <c r="J44" t="n">
-        <v>113.7719558801361</v>
+        <v>130.1741755736931</v>
       </c>
       <c r="K44" t="n">
-        <v>170.5146695272433</v>
+        <v>195.0973450110566</v>
       </c>
       <c r="L44" t="n">
-        <v>211.5385254870272</v>
+        <v>242.0355081735587</v>
       </c>
       <c r="M44" t="n">
-        <v>235.3773687145666</v>
+        <v>269.3111380928054</v>
       </c>
       <c r="N44" t="n">
-        <v>239.186020619831</v>
+        <v>273.6688738632734</v>
       </c>
       <c r="O44" t="n">
-        <v>225.8565767542883</v>
+        <v>258.4177572534746</v>
       </c>
       <c r="P44" t="n">
-        <v>192.763362883205</v>
+        <v>220.5535771097252</v>
       </c>
       <c r="Q44" t="n">
-        <v>144.7572576980638</v>
+        <v>165.6265512303115</v>
       </c>
       <c r="R44" t="n">
-        <v>84.20421653992665</v>
+        <v>96.34372884880192</v>
       </c>
       <c r="S44" t="n">
-        <v>30.54629310733415</v>
+        <v>34.95007615293931</v>
       </c>
       <c r="T44" t="n">
-        <v>5.867971391216902</v>
+        <v>6.713942220932167</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1072387689999662</v>
+        <v>0.1226991154025295</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.7172224980935245</v>
+        <v>0.8206226804309514</v>
       </c>
       <c r="H45" t="n">
-        <v>6.926859389482197</v>
+        <v>7.925487466267349</v>
       </c>
       <c r="I45" t="n">
-        <v>24.69384478085161</v>
+        <v>28.25389491834636</v>
       </c>
       <c r="J45" t="n">
-        <v>67.76179750628339</v>
+        <v>77.53084718931197</v>
       </c>
       <c r="K45" t="n">
-        <v>115.8157048785495</v>
+        <v>132.5125667781857</v>
       </c>
       <c r="L45" t="n">
-        <v>155.728507754912</v>
+        <v>178.1794990997116</v>
       </c>
       <c r="M45" t="n">
-        <v>181.7278233108022</v>
+        <v>207.9270712653336</v>
       </c>
       <c r="N45" t="n">
-        <v>186.5376180458241</v>
+        <v>213.4302821354166</v>
       </c>
       <c r="O45" t="n">
-        <v>170.6454774301729</v>
+        <v>195.2470111637624</v>
       </c>
       <c r="P45" t="n">
-        <v>136.9580400087538</v>
+        <v>156.7029397394858</v>
       </c>
       <c r="Q45" t="n">
-        <v>91.55282273909621</v>
+        <v>104.7517653125544</v>
       </c>
       <c r="R45" t="n">
-        <v>44.53070913601726</v>
+        <v>50.95059063237085</v>
       </c>
       <c r="S45" t="n">
-        <v>13.32209333081611</v>
+        <v>15.24270636677665</v>
       </c>
       <c r="T45" t="n">
-        <v>2.890909981350652</v>
+        <v>3.307685277701948</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04718569066404768</v>
+        <v>0.05398833423887841</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6012952493363887</v>
+        <v>0.6879824887708436</v>
       </c>
       <c r="H46" t="n">
-        <v>5.34606139864535</v>
+        <v>6.116789763798959</v>
       </c>
       <c r="I46" t="n">
-        <v>18.08258804367977</v>
+        <v>20.68950975321774</v>
       </c>
       <c r="J46" t="n">
-        <v>42.51157412808268</v>
+        <v>48.64036195609864</v>
       </c>
       <c r="K46" t="n">
-        <v>69.85957533199132</v>
+        <v>79.93105642264891</v>
       </c>
       <c r="L46" t="n">
-        <v>89.39620461497547</v>
+        <v>102.2842329214398</v>
       </c>
       <c r="M46" t="n">
-        <v>94.25576349370317</v>
+        <v>107.8443823079605</v>
       </c>
       <c r="N46" t="n">
-        <v>92.01457210981306</v>
+        <v>105.2800839407238</v>
       </c>
       <c r="O46" t="n">
-        <v>84.99035033347431</v>
+        <v>97.243197594628</v>
       </c>
       <c r="P46" t="n">
-        <v>72.72392724701193</v>
+        <v>83.20835482370272</v>
       </c>
       <c r="Q46" t="n">
-        <v>50.35027765124978</v>
+        <v>57.60915185516583</v>
       </c>
       <c r="R46" t="n">
-        <v>27.03642093834343</v>
+        <v>30.93419444964174</v>
       </c>
       <c r="S46" t="n">
-        <v>10.4789362997987</v>
+        <v>11.98965846339733</v>
       </c>
       <c r="T46" t="n">
-        <v>2.569170610800933</v>
+        <v>2.939561542929968</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03279792269107578</v>
+        <v>0.03752631756931878</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35574,7 +35576,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>7.389644451905042e-12</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -35650,7 +35652,7 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="M14" t="n">
         <v>0</v>
@@ -35942,7 +35944,7 @@
         <v>0</v>
       </c>
       <c r="D18" t="n">
-        <v>3.922195901395753e-12</v>
+        <v>0</v>
       </c>
       <c r="E18" t="n">
         <v>0</v>
@@ -37145,7 +37147,7 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>6.508571459562518e-12</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
@@ -37728,7 +37730,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>7.497558129898607e-12</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_15_39.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/0/Output_15_39.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3024444.880394589</v>
+        <v>2996657.102716697</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7244818.617086787</v>
+        <v>7076675.664630482</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7461121.700851357</v>
+        <v>7499120.09771345</v>
       </c>
     </row>
     <row r="11">
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0</v>
+        <v>6.589546518505744e-12</v>
       </c>
       <c r="H18" t="n">
         <v>0</v>
@@ -23257,28 +23257,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>132.165124803735</v>
+        <v>129.4735900935847</v>
       </c>
       <c r="C11" t="n">
-        <v>96.46328541074624</v>
+        <v>93.77175070059596</v>
       </c>
       <c r="D11" t="n">
-        <v>80.6362546109132</v>
+        <v>77.94471990076292</v>
       </c>
       <c r="E11" t="n">
-        <v>126.2342193347364</v>
+        <v>123.5426846245861</v>
       </c>
       <c r="F11" t="n">
-        <v>170.4260936090942</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G11" t="n">
-        <v>198.9637926933232</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H11" t="n">
-        <v>131.0353576990255</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I11" t="n">
-        <v>56.63145288361792</v>
+        <v>54.85230342813409</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -23305,28 +23305,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>27.97826143727858</v>
+        <v>26.77333901565535</v>
       </c>
       <c r="S11" t="n">
-        <v>26.94343133907427</v>
+        <v>24.79118666175484</v>
       </c>
       <c r="T11" t="n">
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>21.91567841285178</v>
+        <v>19.22603698641522</v>
       </c>
       <c r="V11" t="n">
-        <v>82.22367349864018</v>
+        <v>79.5321387884899</v>
       </c>
       <c r="W11" t="n">
-        <v>91.00775297698871</v>
+        <v>88.31621826683843</v>
       </c>
       <c r="X11" t="n">
-        <v>115.4641306990765</v>
+        <v>112.7725959889262</v>
       </c>
       <c r="Y11" t="n">
-        <v>149.0051026146134</v>
+        <v>146.3135679044631</v>
       </c>
     </row>
     <row r="12">
@@ -23372,7 +23372,7 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>6.30961949354969e-12</v>
       </c>
       <c r="O12" t="n">
         <v>0</v>
@@ -23390,22 +23390,22 @@
         <v>0</v>
       </c>
       <c r="T12" t="n">
-        <v>15.40745441905872</v>
+        <v>12.76695827300771</v>
       </c>
       <c r="U12" t="n">
-        <v>31.98801042919141</v>
+        <v>29.29730877503837</v>
       </c>
       <c r="V12" t="n">
-        <v>29.0924812317939</v>
+        <v>26.40094652164362</v>
       </c>
       <c r="W12" t="n">
-        <v>68.33138477202394</v>
+        <v>65.63985006187366</v>
       </c>
       <c r="X12" t="n">
-        <v>12.55236641657368</v>
+        <v>9.860831706423397</v>
       </c>
       <c r="Y12" t="n">
-        <v>29.96679608337823</v>
+        <v>27.27526137322795</v>
       </c>
     </row>
     <row r="13">
@@ -23463,22 +23463,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>17.91078095032333</v>
+        <v>15.69657002817688</v>
       </c>
       <c r="S13" t="n">
-        <v>27.50220780043375</v>
+        <v>24.99567707362423</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>66.94596851270305</v>
+        <v>64.25501284475413</v>
       </c>
       <c r="V13" t="n">
-        <v>6.165441084165138</v>
+        <v>3.473906374014859</v>
       </c>
       <c r="W13" t="n">
-        <v>71.27902590409408</v>
+        <v>68.58749119394381</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23494,28 +23494,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>132.165124803735</v>
+        <v>129.4735900935847</v>
       </c>
       <c r="C14" t="n">
-        <v>96.46328541074624</v>
+        <v>93.77175070059596</v>
       </c>
       <c r="D14" t="n">
-        <v>80.63625461091422</v>
+        <v>77.94471990076292</v>
       </c>
       <c r="E14" t="n">
-        <v>126.2342193347364</v>
+        <v>123.5426846245861</v>
       </c>
       <c r="F14" t="n">
-        <v>170.4260936090942</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G14" t="n">
-        <v>198.9637926933232</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H14" t="n">
-        <v>131.0353576990255</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I14" t="n">
-        <v>56.63145288361792</v>
+        <v>54.85230342813409</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23542,28 +23542,28 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>27.97826143727858</v>
+        <v>26.77333901565535</v>
       </c>
       <c r="S14" t="n">
-        <v>26.94343133907427</v>
+        <v>24.79118666175484</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>21.91567841285178</v>
+        <v>19.22603698641522</v>
       </c>
       <c r="V14" t="n">
-        <v>82.22367349864018</v>
+        <v>79.5321387884899</v>
       </c>
       <c r="W14" t="n">
-        <v>91.00775297698871</v>
+        <v>88.31621826683843</v>
       </c>
       <c r="X14" t="n">
-        <v>115.4641306990765</v>
+        <v>112.7725959889262</v>
       </c>
       <c r="Y14" t="n">
-        <v>149.0051026146134</v>
+        <v>146.3135679044631</v>
       </c>
     </row>
     <row r="15">
@@ -23609,7 +23609,7 @@
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>6.30961949354969e-12</v>
       </c>
       <c r="O15" t="n">
         <v>0</v>
@@ -23627,22 +23627,22 @@
         <v>0</v>
       </c>
       <c r="T15" t="n">
-        <v>15.40745441905872</v>
+        <v>12.76695827300771</v>
       </c>
       <c r="U15" t="n">
-        <v>31.98801042919141</v>
+        <v>29.29730877503837</v>
       </c>
       <c r="V15" t="n">
-        <v>29.0924812317939</v>
+        <v>26.40094652164362</v>
       </c>
       <c r="W15" t="n">
-        <v>68.33138477202394</v>
+        <v>65.63985006187366</v>
       </c>
       <c r="X15" t="n">
-        <v>12.55236641657368</v>
+        <v>9.860831706423397</v>
       </c>
       <c r="Y15" t="n">
-        <v>29.96679608337823</v>
+        <v>27.27526137322795</v>
       </c>
     </row>
     <row r="16">
@@ -23700,22 +23700,22 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>17.91078095032333</v>
+        <v>15.69657002817688</v>
       </c>
       <c r="S16" t="n">
-        <v>27.50220780043375</v>
+        <v>24.99567707362423</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>66.94596851270305</v>
+        <v>64.25501284475413</v>
       </c>
       <c r="V16" t="n">
-        <v>6.165441084165138</v>
+        <v>3.473906374014859</v>
       </c>
       <c r="W16" t="n">
-        <v>71.27902590409408</v>
+        <v>68.58749119394381</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
@@ -23731,28 +23731,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>132.165124803735</v>
+        <v>129.4735900935847</v>
       </c>
       <c r="C17" t="n">
-        <v>96.46328541074624</v>
+        <v>93.77175070059596</v>
       </c>
       <c r="D17" t="n">
-        <v>80.6362546109132</v>
+        <v>77.94471990076292</v>
       </c>
       <c r="E17" t="n">
-        <v>126.2342193347364</v>
+        <v>123.5426846245861</v>
       </c>
       <c r="F17" t="n">
-        <v>170.4260936090942</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G17" t="n">
-        <v>198.9637926933232</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H17" t="n">
-        <v>131.0353576990255</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I17" t="n">
-        <v>56.63145288361792</v>
+        <v>54.85230342813409</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23779,28 +23779,28 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>27.97826143727858</v>
+        <v>26.77333901565535</v>
       </c>
       <c r="S17" t="n">
-        <v>26.94343133907427</v>
+        <v>24.79118666175484</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>21.91567841285178</v>
+        <v>19.22603698641522</v>
       </c>
       <c r="V17" t="n">
-        <v>82.22367349864018</v>
+        <v>79.5321387884899</v>
       </c>
       <c r="W17" t="n">
-        <v>91.00775297698871</v>
+        <v>88.31621826683843</v>
       </c>
       <c r="X17" t="n">
-        <v>115.4641306990765</v>
+        <v>112.7725959889262</v>
       </c>
       <c r="Y17" t="n">
-        <v>149.0051026146134</v>
+        <v>146.3135679044631</v>
       </c>
     </row>
     <row r="18">
@@ -23864,22 +23864,22 @@
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>15.40745441905872</v>
+        <v>12.76695827300771</v>
       </c>
       <c r="U18" t="n">
-        <v>31.98801042919141</v>
+        <v>29.29730877503837</v>
       </c>
       <c r="V18" t="n">
-        <v>29.0924812317939</v>
+        <v>26.40094652164362</v>
       </c>
       <c r="W18" t="n">
-        <v>68.33138477202394</v>
+        <v>65.63985006187366</v>
       </c>
       <c r="X18" t="n">
-        <v>12.55236641657368</v>
+        <v>9.860831706423397</v>
       </c>
       <c r="Y18" t="n">
-        <v>29.96679608337823</v>
+        <v>27.27526137322795</v>
       </c>
     </row>
     <row r="19">
@@ -23937,22 +23937,22 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>17.91078095032333</v>
+        <v>15.69657002817688</v>
       </c>
       <c r="S19" t="n">
-        <v>27.50220780043375</v>
+        <v>24.99567707362423</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>66.94596851270305</v>
+        <v>64.25501284475413</v>
       </c>
       <c r="V19" t="n">
-        <v>6.165441084165138</v>
+        <v>3.473906374014859</v>
       </c>
       <c r="W19" t="n">
-        <v>71.27902590409408</v>
+        <v>68.58749119394381</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
@@ -23968,28 +23968,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>132.165124803735</v>
+        <v>129.4735900935847</v>
       </c>
       <c r="C20" t="n">
-        <v>96.46328541074627</v>
+        <v>93.77175070059596</v>
       </c>
       <c r="D20" t="n">
-        <v>80.63625461091323</v>
+        <v>77.94471990076292</v>
       </c>
       <c r="E20" t="n">
-        <v>126.2342193347365</v>
+        <v>123.5426846245861</v>
       </c>
       <c r="F20" t="n">
-        <v>170.4260936090943</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G20" t="n">
-        <v>198.9637926933232</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H20" t="n">
-        <v>131.0353576990256</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I20" t="n">
-        <v>56.63145288361795</v>
+        <v>54.85230342813409</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24016,28 +24016,28 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>27.9782614372786</v>
+        <v>26.77333901565535</v>
       </c>
       <c r="S20" t="n">
-        <v>26.94343133907429</v>
+        <v>24.79118666175484</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>21.9156784128518</v>
+        <v>19.22603698641522</v>
       </c>
       <c r="V20" t="n">
-        <v>82.22367349864021</v>
+        <v>79.5321387884899</v>
       </c>
       <c r="W20" t="n">
-        <v>91.00775297698874</v>
+        <v>88.31621826683843</v>
       </c>
       <c r="X20" t="n">
-        <v>115.4641306990765</v>
+        <v>112.7725959889262</v>
       </c>
       <c r="Y20" t="n">
-        <v>149.0051026146134</v>
+        <v>146.3135679044631</v>
       </c>
     </row>
     <row r="21">
@@ -24101,22 +24101,22 @@
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>15.40745441905875</v>
+        <v>12.76695827300771</v>
       </c>
       <c r="U21" t="n">
-        <v>31.98801042919143</v>
+        <v>29.29730877503837</v>
       </c>
       <c r="V21" t="n">
-        <v>29.09248123179393</v>
+        <v>26.40094652164362</v>
       </c>
       <c r="W21" t="n">
-        <v>68.33138477202397</v>
+        <v>65.63985006187366</v>
       </c>
       <c r="X21" t="n">
-        <v>12.5523664165737</v>
+        <v>9.860831706423397</v>
       </c>
       <c r="Y21" t="n">
-        <v>29.96679608337826</v>
+        <v>27.27526137322795</v>
       </c>
     </row>
     <row r="22">
@@ -24174,22 +24174,22 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>17.91078095032336</v>
+        <v>15.69657002817688</v>
       </c>
       <c r="S22" t="n">
-        <v>27.50220780043378</v>
+        <v>24.99567707362423</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>66.94596851270308</v>
+        <v>64.25501284475413</v>
       </c>
       <c r="V22" t="n">
-        <v>6.165441084165167</v>
+        <v>3.473906374014859</v>
       </c>
       <c r="W22" t="n">
-        <v>71.27902590409411</v>
+        <v>68.58749119394381</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24205,28 +24205,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>132.165124803735</v>
+        <v>129.4735900935847</v>
       </c>
       <c r="C23" t="n">
-        <v>96.46328541074624</v>
+        <v>93.77175070059596</v>
       </c>
       <c r="D23" t="n">
-        <v>80.6362546109132</v>
+        <v>77.94471990076292</v>
       </c>
       <c r="E23" t="n">
-        <v>126.2342193347364</v>
+        <v>123.5426846245861</v>
       </c>
       <c r="F23" t="n">
-        <v>170.4260936090942</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G23" t="n">
-        <v>198.9637926933232</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H23" t="n">
-        <v>131.0353576990255</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I23" t="n">
-        <v>56.63145288361792</v>
+        <v>54.85230342813409</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -24253,28 +24253,28 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>27.97826143727858</v>
+        <v>26.77333901565535</v>
       </c>
       <c r="S23" t="n">
-        <v>26.94343133907427</v>
+        <v>24.79118666175484</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
       </c>
       <c r="U23" t="n">
-        <v>21.91567841285178</v>
+        <v>19.22603698641522</v>
       </c>
       <c r="V23" t="n">
-        <v>82.22367349864018</v>
+        <v>79.5321387884899</v>
       </c>
       <c r="W23" t="n">
-        <v>91.00775297698871</v>
+        <v>88.31621826683843</v>
       </c>
       <c r="X23" t="n">
-        <v>115.4641306990765</v>
+        <v>112.7725959889262</v>
       </c>
       <c r="Y23" t="n">
-        <v>149.0051026146134</v>
+        <v>146.3135679044631</v>
       </c>
     </row>
     <row r="24">
@@ -24338,22 +24338,22 @@
         <v>0</v>
       </c>
       <c r="T24" t="n">
-        <v>15.40745441905872</v>
+        <v>12.76695827300771</v>
       </c>
       <c r="U24" t="n">
-        <v>31.98801042919141</v>
+        <v>29.29730877503837</v>
       </c>
       <c r="V24" t="n">
-        <v>29.0924812317939</v>
+        <v>26.40094652164362</v>
       </c>
       <c r="W24" t="n">
-        <v>68.33138477202394</v>
+        <v>65.63985006187366</v>
       </c>
       <c r="X24" t="n">
-        <v>12.55236641657368</v>
+        <v>9.860831706423397</v>
       </c>
       <c r="Y24" t="n">
-        <v>29.96679608337823</v>
+        <v>27.27526137322795</v>
       </c>
     </row>
     <row r="25">
@@ -24411,22 +24411,22 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>17.91078095032333</v>
+        <v>15.69657002817688</v>
       </c>
       <c r="S25" t="n">
-        <v>27.50220780043375</v>
+        <v>24.99567707362423</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>66.94596851270305</v>
+        <v>64.25501284475413</v>
       </c>
       <c r="V25" t="n">
-        <v>6.165441084165138</v>
+        <v>3.473906374014859</v>
       </c>
       <c r="W25" t="n">
-        <v>71.27902590409408</v>
+        <v>68.58749119394381</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24442,28 +24442,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>134.6601342531192</v>
+        <v>129.4735900935847</v>
       </c>
       <c r="C26" t="n">
-        <v>98.95829486013048</v>
+        <v>93.77175070059596</v>
       </c>
       <c r="D26" t="n">
-        <v>83.13126406029744</v>
+        <v>77.94471990076292</v>
       </c>
       <c r="E26" t="n">
-        <v>128.7292287841207</v>
+        <v>123.5426846245861</v>
       </c>
       <c r="F26" t="n">
-        <v>172.9211030584785</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G26" t="n">
-        <v>201.4588021427074</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H26" t="n">
-        <v>133.5303671484098</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I26" t="n">
-        <v>59.12646233300217</v>
+        <v>54.85230342813409</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -24490,28 +24490,28 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>30.47327088666282</v>
+        <v>26.77333901565535</v>
       </c>
       <c r="S26" t="n">
-        <v>29.43844078845851</v>
+        <v>24.79118666175484</v>
       </c>
       <c r="T26" t="n">
         <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>24.41068786223602</v>
+        <v>19.22603698641522</v>
       </c>
       <c r="V26" t="n">
-        <v>84.71868294802442</v>
+        <v>79.5321387884899</v>
       </c>
       <c r="W26" t="n">
-        <v>93.50276242637295</v>
+        <v>88.31621826683843</v>
       </c>
       <c r="X26" t="n">
-        <v>117.9591401484607</v>
+        <v>112.7725959889262</v>
       </c>
       <c r="Y26" t="n">
-        <v>151.5001120639976</v>
+        <v>146.3135679044631</v>
       </c>
     </row>
     <row r="27">
@@ -24572,25 +24572,25 @@
         <v>0</v>
       </c>
       <c r="S27" t="n">
-        <v>0.9698954793968539</v>
+        <v>0</v>
       </c>
       <c r="T27" t="n">
-        <v>17.90246386844296</v>
+        <v>12.76695827300771</v>
       </c>
       <c r="U27" t="n">
-        <v>34.48301987857565</v>
+        <v>29.29730877503837</v>
       </c>
       <c r="V27" t="n">
-        <v>31.58749068117814</v>
+        <v>26.40094652164362</v>
       </c>
       <c r="W27" t="n">
-        <v>70.82639422140818</v>
+        <v>65.63985006187366</v>
       </c>
       <c r="X27" t="n">
-        <v>15.04737586595792</v>
+        <v>9.860831706423397</v>
       </c>
       <c r="Y27" t="n">
-        <v>32.46180553276247</v>
+        <v>27.27526137322795</v>
       </c>
     </row>
     <row r="28">
@@ -24648,22 +24648,22 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>20.40579039970757</v>
+        <v>15.69657002817688</v>
       </c>
       <c r="S28" t="n">
-        <v>29.99721724981799</v>
+        <v>24.99567707362423</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>69.44097796208729</v>
+        <v>64.25501284475413</v>
       </c>
       <c r="V28" t="n">
-        <v>135.3152046907668</v>
+        <v>3.473906374014859</v>
       </c>
       <c r="W28" t="n">
-        <v>73.77403535347833</v>
+        <v>68.58749119394381</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24679,28 +24679,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>134.6601342531192</v>
+        <v>129.4735900935848</v>
       </c>
       <c r="C29" t="n">
-        <v>98.95829486013048</v>
+        <v>93.77175070059602</v>
       </c>
       <c r="D29" t="n">
-        <v>83.13126406029744</v>
+        <v>77.94471990076298</v>
       </c>
       <c r="E29" t="n">
-        <v>128.7292287841207</v>
+        <v>123.5426846245862</v>
       </c>
       <c r="F29" t="n">
-        <v>172.9211030584785</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G29" t="n">
-        <v>201.4588021427074</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H29" t="n">
-        <v>133.5303671484098</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I29" t="n">
-        <v>59.12646233300217</v>
+        <v>54.85230342813414</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -24727,28 +24727,28 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>30.47327088666282</v>
+        <v>26.77333901565541</v>
       </c>
       <c r="S29" t="n">
-        <v>29.43844078845851</v>
+        <v>24.79118666175489</v>
       </c>
       <c r="T29" t="n">
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>24.41068786223602</v>
+        <v>19.22603698641527</v>
       </c>
       <c r="V29" t="n">
-        <v>84.71868294802442</v>
+        <v>79.53213878848996</v>
       </c>
       <c r="W29" t="n">
-        <v>93.50276242637295</v>
+        <v>88.31621826683849</v>
       </c>
       <c r="X29" t="n">
-        <v>117.9591401484607</v>
+        <v>112.7725959889263</v>
       </c>
       <c r="Y29" t="n">
-        <v>151.5001120639976</v>
+        <v>146.3135679044632</v>
       </c>
     </row>
     <row r="30">
@@ -24809,25 +24809,25 @@
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0.9698954793968539</v>
+        <v>0</v>
       </c>
       <c r="T30" t="n">
-        <v>17.90246386844296</v>
+        <v>12.76695827300777</v>
       </c>
       <c r="U30" t="n">
-        <v>34.48301987857565</v>
+        <v>29.29730877503842</v>
       </c>
       <c r="V30" t="n">
-        <v>31.58749068117814</v>
+        <v>26.40094652164368</v>
       </c>
       <c r="W30" t="n">
-        <v>70.82639422140818</v>
+        <v>65.63985006187372</v>
       </c>
       <c r="X30" t="n">
-        <v>15.04737586595792</v>
+        <v>9.860831706423454</v>
       </c>
       <c r="Y30" t="n">
-        <v>32.46180553276247</v>
+        <v>27.27526137322801</v>
       </c>
     </row>
     <row r="31">
@@ -24852,7 +24852,7 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>1.709887786915942e-11</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24882,25 +24882,25 @@
         <v>0</v>
       </c>
       <c r="Q31" t="n">
-        <v>126.6547541572204</v>
+        <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>20.40579039970757</v>
+        <v>15.69657002817694</v>
       </c>
       <c r="S31" t="n">
-        <v>29.99721724981799</v>
+        <v>24.99567707362429</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>69.44097796208729</v>
+        <v>64.25501284475419</v>
       </c>
       <c r="V31" t="n">
-        <v>8.66045053354938</v>
+        <v>3.473906374014916</v>
       </c>
       <c r="W31" t="n">
-        <v>73.77403535347833</v>
+        <v>68.58749119394386</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24916,28 +24916,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>134.6601342531192</v>
+        <v>129.4735900935848</v>
       </c>
       <c r="C32" t="n">
-        <v>98.95829486013048</v>
+        <v>93.77175070059602</v>
       </c>
       <c r="D32" t="n">
-        <v>83.13126406029744</v>
+        <v>77.94471990076298</v>
       </c>
       <c r="E32" t="n">
-        <v>128.7292287841207</v>
+        <v>123.5426846245862</v>
       </c>
       <c r="F32" t="n">
-        <v>172.9211030584785</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G32" t="n">
-        <v>201.4588021427074</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H32" t="n">
-        <v>133.5303671484098</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I32" t="n">
-        <v>59.12646233300217</v>
+        <v>54.85230342813414</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -24964,28 +24964,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>30.47327088666282</v>
+        <v>26.77333901565541</v>
       </c>
       <c r="S32" t="n">
-        <v>29.43844078845851</v>
+        <v>24.79118666175489</v>
       </c>
       <c r="T32" t="n">
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>24.41068786223602</v>
+        <v>19.22603698641527</v>
       </c>
       <c r="V32" t="n">
-        <v>84.71868294802442</v>
+        <v>79.53213878848996</v>
       </c>
       <c r="W32" t="n">
-        <v>93.50276242637295</v>
+        <v>88.31621826683849</v>
       </c>
       <c r="X32" t="n">
-        <v>117.9591401484607</v>
+        <v>112.7725959889263</v>
       </c>
       <c r="Y32" t="n">
-        <v>151.5001120639976</v>
+        <v>146.3135679044632</v>
       </c>
     </row>
     <row r="33">
@@ -25046,25 +25046,25 @@
         <v>0</v>
       </c>
       <c r="S33" t="n">
-        <v>0.9698954793968539</v>
+        <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>17.90246386844296</v>
+        <v>12.76695827300777</v>
       </c>
       <c r="U33" t="n">
-        <v>34.48301987857565</v>
+        <v>29.29730877503842</v>
       </c>
       <c r="V33" t="n">
-        <v>31.58749068117814</v>
+        <v>26.40094652164368</v>
       </c>
       <c r="W33" t="n">
-        <v>70.82639422140818</v>
+        <v>65.63985006187372</v>
       </c>
       <c r="X33" t="n">
-        <v>15.04737586595792</v>
+        <v>9.860831706423454</v>
       </c>
       <c r="Y33" t="n">
-        <v>32.46180553276247</v>
+        <v>27.27526137322801</v>
       </c>
     </row>
     <row r="34">
@@ -25116,28 +25116,28 @@
         <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>126.6547541572184</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>20.40579039970757</v>
+        <v>15.69657002817694</v>
       </c>
       <c r="S34" t="n">
-        <v>29.99721724981799</v>
+        <v>24.99567707362429</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>69.44097796208729</v>
+        <v>64.25501284475419</v>
       </c>
       <c r="V34" t="n">
-        <v>8.66045053354938</v>
+        <v>3.473906374014916</v>
       </c>
       <c r="W34" t="n">
-        <v>73.77403535347833</v>
+        <v>68.58749119394386</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25153,28 +25153,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>134.6601342531192</v>
+        <v>129.4735900935848</v>
       </c>
       <c r="C35" t="n">
-        <v>98.95829486013045</v>
+        <v>93.77175070059602</v>
       </c>
       <c r="D35" t="n">
-        <v>83.13126406029741</v>
+        <v>77.94471990076298</v>
       </c>
       <c r="E35" t="n">
-        <v>128.7292287841206</v>
+        <v>123.5426846245862</v>
       </c>
       <c r="F35" t="n">
-        <v>172.9211030584785</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G35" t="n">
-        <v>201.4588021427074</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H35" t="n">
-        <v>133.5303671484097</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I35" t="n">
-        <v>59.12646233300214</v>
+        <v>54.85230342813414</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -25201,28 +25201,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>30.47327088666279</v>
+        <v>26.77333901565541</v>
       </c>
       <c r="S35" t="n">
-        <v>29.43844078845848</v>
+        <v>24.79118666175489</v>
       </c>
       <c r="T35" t="n">
         <v>0</v>
       </c>
       <c r="U35" t="n">
-        <v>24.41068786223599</v>
+        <v>19.22603698641527</v>
       </c>
       <c r="V35" t="n">
-        <v>84.71868294802439</v>
+        <v>79.53213878848996</v>
       </c>
       <c r="W35" t="n">
-        <v>93.50276242637293</v>
+        <v>88.31621826683849</v>
       </c>
       <c r="X35" t="n">
-        <v>117.9591401484607</v>
+        <v>112.7725959889263</v>
       </c>
       <c r="Y35" t="n">
-        <v>151.5001120639976</v>
+        <v>146.3135679044632</v>
       </c>
     </row>
     <row r="36">
@@ -25283,25 +25283,25 @@
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>0.9698954793968255</v>
+        <v>0</v>
       </c>
       <c r="T36" t="n">
-        <v>17.90246386844294</v>
+        <v>12.76695827300777</v>
       </c>
       <c r="U36" t="n">
-        <v>34.48301987857562</v>
+        <v>29.29730877503842</v>
       </c>
       <c r="V36" t="n">
-        <v>31.58749068117811</v>
+        <v>26.40094652164368</v>
       </c>
       <c r="W36" t="n">
-        <v>70.82639422140815</v>
+        <v>65.63985006187372</v>
       </c>
       <c r="X36" t="n">
-        <v>15.04737586595789</v>
+        <v>9.860831706423454</v>
       </c>
       <c r="Y36" t="n">
-        <v>32.46180553276244</v>
+        <v>27.27526137322801</v>
       </c>
     </row>
     <row r="37">
@@ -25344,7 +25344,7 @@
         <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>2.280842181789922e-11</v>
       </c>
       <c r="N37" t="n">
         <v>0</v>
@@ -25359,25 +25359,25 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>20.40579039970754</v>
+        <v>15.69657002817694</v>
       </c>
       <c r="S37" t="n">
-        <v>29.99721724981796</v>
+        <v>24.99567707362429</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>69.44097796208726</v>
+        <v>64.25501284475419</v>
       </c>
       <c r="V37" t="n">
-        <v>8.660450533549351</v>
+        <v>3.473906374014916</v>
       </c>
       <c r="W37" t="n">
-        <v>73.7740353534783</v>
+        <v>68.58749119394386</v>
       </c>
       <c r="X37" t="n">
-        <v>126.654754157216</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25390,28 +25390,28 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>134.6601342531192</v>
+        <v>129.4735900935848</v>
       </c>
       <c r="C38" t="n">
-        <v>98.95829486013048</v>
+        <v>93.77175070059602</v>
       </c>
       <c r="D38" t="n">
-        <v>83.13126406029744</v>
+        <v>77.94471990076298</v>
       </c>
       <c r="E38" t="n">
-        <v>128.7292287841207</v>
+        <v>123.5426846245862</v>
       </c>
       <c r="F38" t="n">
-        <v>172.9211030584785</v>
+        <v>167.734558898944</v>
       </c>
       <c r="G38" t="n">
-        <v>201.4588021427074</v>
+        <v>196.2959240295945</v>
       </c>
       <c r="H38" t="n">
-        <v>133.5303671484098</v>
+        <v>128.5861928867899</v>
       </c>
       <c r="I38" t="n">
-        <v>59.12646233300217</v>
+        <v>54.85230342813414</v>
       </c>
       <c r="J38" t="n">
         <v>0</v>
@@ -25438,28 +25438,28 @@
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>30.47327088666282</v>
+        <v>26.77333901565541</v>
       </c>
       <c r="S38" t="n">
-        <v>29.43844078845851</v>
+        <v>24.79118666175489</v>
       </c>
       <c r="T38" t="n">
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>24.41068786223602</v>
+        <v>19.22603698641527</v>
       </c>
       <c r="V38" t="n">
-        <v>84.71868294802442</v>
+        <v>79.53213878848996</v>
       </c>
       <c r="W38" t="n">
-        <v>93.50276242637295</v>
+        <v>88.31621826683849</v>
       </c>
       <c r="X38" t="n">
-        <v>117.9591401484607</v>
+        <v>112.7725959889263</v>
       </c>
       <c r="Y38" t="n">
-        <v>151.5001120639976</v>
+        <v>146.3135679044632</v>
       </c>
     </row>
     <row r="39">
@@ -25520,25 +25520,25 @@
         <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>0.9698954793968539</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>17.90246386844296</v>
+        <v>12.76695827300777</v>
       </c>
       <c r="U39" t="n">
-        <v>34.48301987857565</v>
+        <v>29.29730877503842</v>
       </c>
       <c r="V39" t="n">
-        <v>31.58749068117814</v>
+        <v>26.40094652164368</v>
       </c>
       <c r="W39" t="n">
-        <v>70.82639422140818</v>
+        <v>65.63985006187372</v>
       </c>
       <c r="X39" t="n">
-        <v>15.04737586595792</v>
+        <v>9.860831706423454</v>
       </c>
       <c r="Y39" t="n">
-        <v>32.46180553276247</v>
+        <v>27.27526137322801</v>
       </c>
     </row>
     <row r="40">
@@ -25548,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>126.6547541572176</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25596,22 +25596,22 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>20.40579039970757</v>
+        <v>15.69657002817694</v>
       </c>
       <c r="S40" t="n">
-        <v>29.99721724981799</v>
+        <v>24.99567707362429</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>69.44097796208729</v>
+        <v>64.25501284475419</v>
       </c>
       <c r="V40" t="n">
-        <v>8.66045053354938</v>
+        <v>3.473906374014916</v>
       </c>
       <c r="W40" t="n">
-        <v>73.77403535347833</v>
+        <v>68.58749119394386</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25627,64 +25627,64 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>358.1696334656192</v>
+        <v>358.1696334656193</v>
       </c>
       <c r="C41" t="n">
         <v>322.4677940726305</v>
       </c>
       <c r="D41" t="n">
-        <v>306.6407632727974</v>
+        <v>306.6407632727975</v>
       </c>
       <c r="E41" t="n">
-        <v>352.2387279966206</v>
+        <v>352.2387279966221</v>
       </c>
       <c r="F41" t="n">
         <v>396.4306022709785</v>
       </c>
       <c r="G41" t="n">
-        <v>424.9683013552074</v>
+        <v>424.991967401629</v>
       </c>
       <c r="H41" t="n">
-        <v>357.0398663609097</v>
+        <v>357.2822362588244</v>
       </c>
       <c r="I41" t="n">
-        <v>282.6359615455021</v>
+        <v>283.5483468001686</v>
       </c>
       <c r="J41" t="n">
-        <v>164.0254192821721</v>
+        <v>166.0340453896424</v>
       </c>
       <c r="K41" t="n">
-        <v>162.5486629370368</v>
+        <v>165.5590727895308</v>
       </c>
       <c r="L41" t="n">
-        <v>141.0849161526705</v>
+        <v>144.8195957733377</v>
       </c>
       <c r="M41" t="n">
-        <v>105.0014909015128</v>
+        <v>109.157041575229</v>
       </c>
       <c r="N41" t="n">
-        <v>99.12735448118684</v>
+        <v>103.3501463092983</v>
       </c>
       <c r="O41" t="n">
-        <v>115.4918363067663</v>
+        <v>119.4792988857736</v>
       </c>
       <c r="P41" t="n">
-        <v>155.2000409925878</v>
+        <v>158.6032480505633</v>
       </c>
       <c r="Q41" t="n">
-        <v>195.6201948156689</v>
+        <v>198.1758615861731</v>
       </c>
       <c r="R41" t="n">
-        <v>253.9827700991628</v>
+        <v>255.4693823876899</v>
       </c>
       <c r="S41" t="n">
-        <v>252.9479400009585</v>
+        <v>253.4872300337894</v>
       </c>
       <c r="T41" t="n">
-        <v>219.650216535974</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U41" t="n">
-        <v>247.920187074736</v>
+        <v>247.9220803584498</v>
       </c>
       <c r="V41" t="n">
         <v>308.2281821605244</v>
@@ -25721,49 +25721,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G42" t="n">
-        <v>169.5305684369876</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H42" t="n">
-        <v>148.6331746293208</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I42" t="n">
-        <v>133.4699725816536</v>
+        <v>133.9059385535571</v>
       </c>
       <c r="J42" t="n">
-        <v>128.5802961440214</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K42" t="n">
-        <v>91.47977155514764</v>
+        <v>93.52447973190786</v>
       </c>
       <c r="L42" t="n">
-        <v>46.97136804258392</v>
+        <v>49.72073051889959</v>
       </c>
       <c r="M42" t="n">
-        <v>23.04073385794621</v>
+        <v>26.24911018875636</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>3.293292505464962</v>
       </c>
       <c r="O42" t="n">
-        <v>36.47188605845983</v>
+        <v>39.48460530404506</v>
       </c>
       <c r="P42" t="n">
-        <v>61.00547230880082</v>
+        <v>63.42344510940342</v>
       </c>
       <c r="Q42" t="n">
-        <v>122.7186175772305</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R42" t="n">
-        <v>185.7786033090706</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S42" t="n">
-        <v>224.4793946918968</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T42" t="n">
-        <v>241.4119630809429</v>
+        <v>241.4630016450422</v>
       </c>
       <c r="U42" t="n">
-        <v>257.9925190910756</v>
+        <v>257.9933521470729</v>
       </c>
       <c r="V42" t="n">
         <v>255.0969898936781</v>
@@ -25800,49 +25800,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G43" t="n">
-        <v>169.8377575784555</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H43" t="n">
-        <v>170.9378952067096</v>
+        <v>171.0322790855345</v>
       </c>
       <c r="I43" t="n">
-        <v>177.0591684204074</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J43" t="n">
-        <v>157.72719788292</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K43" t="n">
-        <v>129.7154881044711</v>
+        <v>130.9488479934094</v>
       </c>
       <c r="L43" t="n">
-        <v>116.9033660355724</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M43" t="n">
-        <v>117.9100166068977</v>
+        <v>119.5740873866288</v>
       </c>
       <c r="N43" t="n">
-        <v>102.2089258152801</v>
+        <v>103.8334287112503</v>
       </c>
       <c r="O43" t="n">
-        <v>127.7486773896165</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P43" t="n">
-        <v>140.5996517561621</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q43" t="n">
-        <v>188.5864757926837</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R43" t="n">
-        <v>243.9152896122075</v>
+        <v>244.3926134002114</v>
       </c>
       <c r="S43" t="n">
-        <v>253.506716462318</v>
+        <v>253.6917204456587</v>
       </c>
       <c r="T43" t="n">
-        <v>215.3341138046966</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U43" t="n">
-        <v>292.9504771745873</v>
+        <v>292.9510562167886</v>
       </c>
       <c r="V43" t="n">
         <v>232.1699497460494</v>
@@ -25879,49 +25879,49 @@
         <v>396.4306022709785</v>
       </c>
       <c r="G44" t="n">
-        <v>424.9683013552074</v>
+        <v>424.9919674016289</v>
       </c>
       <c r="H44" t="n">
-        <v>357.0398663609097</v>
+        <v>357.2822362588244</v>
       </c>
       <c r="I44" t="n">
-        <v>282.6359615455021</v>
+        <v>283.5483468001686</v>
       </c>
       <c r="J44" t="n">
-        <v>164.0254192821721</v>
+        <v>166.0340453896423</v>
       </c>
       <c r="K44" t="n">
-        <v>162.5486629370368</v>
+        <v>165.5590727895308</v>
       </c>
       <c r="L44" t="n">
-        <v>141.0849161526705</v>
+        <v>144.8195957733377</v>
       </c>
       <c r="M44" t="n">
-        <v>105.0014909015128</v>
+        <v>109.157041575229</v>
       </c>
       <c r="N44" t="n">
-        <v>99.12735448118684</v>
+        <v>103.3501463092983</v>
       </c>
       <c r="O44" t="n">
-        <v>115.4918363067663</v>
+        <v>119.4792988857736</v>
       </c>
       <c r="P44" t="n">
-        <v>155.2000409925878</v>
+        <v>158.6032480505633</v>
       </c>
       <c r="Q44" t="n">
-        <v>195.6201948156689</v>
+        <v>198.175861586173</v>
       </c>
       <c r="R44" t="n">
-        <v>253.9827700991628</v>
+        <v>255.4693823876898</v>
       </c>
       <c r="S44" t="n">
-        <v>252.9479400009585</v>
+        <v>253.4872300337893</v>
       </c>
       <c r="T44" t="n">
-        <v>219.650216535974</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U44" t="n">
-        <v>247.920187074736</v>
+        <v>247.9220803584497</v>
       </c>
       <c r="V44" t="n">
         <v>308.2281821605244</v>
@@ -25958,49 +25958,49 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G45" t="n">
-        <v>169.5305684369876</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H45" t="n">
-        <v>148.6331746293208</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I45" t="n">
-        <v>133.4699725816536</v>
+        <v>133.9059385535571</v>
       </c>
       <c r="J45" t="n">
-        <v>128.5802961440214</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K45" t="n">
-        <v>91.47977155514764</v>
+        <v>93.52447973190786</v>
       </c>
       <c r="L45" t="n">
-        <v>46.97136804258392</v>
+        <v>49.72073051889959</v>
       </c>
       <c r="M45" t="n">
-        <v>23.04073385794621</v>
+        <v>26.24911018875636</v>
       </c>
       <c r="N45" t="n">
-        <v>0</v>
+        <v>3.293292505464962</v>
       </c>
       <c r="O45" t="n">
-        <v>36.47188605845983</v>
+        <v>39.48460530404506</v>
       </c>
       <c r="P45" t="n">
-        <v>61.00547230880082</v>
+        <v>63.42344510940342</v>
       </c>
       <c r="Q45" t="n">
-        <v>122.7186175772305</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R45" t="n">
-        <v>185.7786033090706</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S45" t="n">
-        <v>224.4793946918968</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T45" t="n">
-        <v>241.4119630809429</v>
+        <v>241.4630016450422</v>
       </c>
       <c r="U45" t="n">
-        <v>257.9925190910756</v>
+        <v>257.9933521470729</v>
       </c>
       <c r="V45" t="n">
         <v>255.0969898936781</v>
@@ -26037,49 +26037,49 @@
         <v>126.9717133511</v>
       </c>
       <c r="G46" t="n">
-        <v>169.8377575784555</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H46" t="n">
-        <v>170.9378952067096</v>
+        <v>171.0322790855345</v>
       </c>
       <c r="I46" t="n">
-        <v>177.0591684204074</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J46" t="n">
-        <v>157.72719788292</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K46" t="n">
-        <v>129.7154881044711</v>
+        <v>130.9488479934094</v>
       </c>
       <c r="L46" t="n">
-        <v>116.9033660355724</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M46" t="n">
-        <v>117.9100166068977</v>
+        <v>119.5740873866288</v>
       </c>
       <c r="N46" t="n">
-        <v>102.2089258152801</v>
+        <v>103.8334287112503</v>
       </c>
       <c r="O46" t="n">
-        <v>127.7486773896165</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P46" t="n">
-        <v>140.5996517561621</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q46" t="n">
-        <v>188.5864757926837</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R46" t="n">
-        <v>243.9152896122075</v>
+        <v>244.3926134002114</v>
       </c>
       <c r="S46" t="n">
-        <v>253.506716462318</v>
+        <v>253.6917204456587</v>
       </c>
       <c r="T46" t="n">
-        <v>215.3341138046966</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U46" t="n">
-        <v>292.9504771745873</v>
+        <v>292.9510562167886</v>
       </c>
       <c r="V46" t="n">
         <v>232.1699497460494</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>671644.2293425425</v>
+        <v>674703.9906152654</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>671644.2293425425</v>
+        <v>674703.9906152654</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>671644.2293425425</v>
+        <v>674703.9906152657</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>671644.2293425425</v>
+        <v>674703.9906152657</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>671644.2293425425</v>
+        <v>674703.9906152657</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>666223.8712139445</v>
+        <v>674703.9906152657</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>666223.8712139444</v>
+        <v>674703.9906152653</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>666223.8712139445</v>
+        <v>674703.9906152656</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>666223.8712139444</v>
+        <v>674703.9906152651</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>666223.8712139445</v>
+        <v>674703.9906152656</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>180653.9543647725</v>
+        <v>177866.4103103884</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>180653.9543647725</v>
+        <v>177866.4103103885</v>
       </c>
     </row>
   </sheetData>
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>972066.4577229994</v>
+        <v>972066.4577229992</v>
       </c>
       <c r="C2" t="n">
-        <v>972066.4577229993</v>
+        <v>972066.457722999</v>
       </c>
       <c r="D2" t="n">
-        <v>972066.457722999</v>
+        <v>972066.4577229992</v>
       </c>
       <c r="E2" t="n">
-        <v>844971.7723986829</v>
+        <v>848821.1494837215</v>
       </c>
       <c r="F2" t="n">
-        <v>844971.7723986828</v>
+        <v>848821.1494837215</v>
       </c>
       <c r="G2" t="n">
-        <v>844971.7723986829</v>
+        <v>848821.1494837217</v>
       </c>
       <c r="H2" t="n">
-        <v>844971.7723986829</v>
+        <v>848821.1494837215</v>
       </c>
       <c r="I2" t="n">
-        <v>844971.7723986829</v>
+        <v>848821.1494837215</v>
       </c>
       <c r="J2" t="n">
-        <v>838152.6121723825</v>
+        <v>848821.1494837215</v>
       </c>
       <c r="K2" t="n">
-        <v>838152.6121723827</v>
+        <v>848821.1494837211</v>
       </c>
       <c r="L2" t="n">
-        <v>838152.6121723827</v>
+        <v>848821.1494837216</v>
       </c>
       <c r="M2" t="n">
-        <v>838152.6121723829</v>
+        <v>848821.1494837211</v>
       </c>
       <c r="N2" t="n">
-        <v>838152.6121723828</v>
+        <v>848821.1494837217</v>
       </c>
       <c r="O2" t="n">
-        <v>227274.3296847139</v>
+        <v>223767.4194227466</v>
       </c>
       <c r="P2" t="n">
-        <v>227274.3296847139</v>
+        <v>223767.4194227468</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>487315.9607566318</v>
+        <v>484739.6120673175</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>178807.59937</v>
+        <v>182956.8346976276</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26417,46 +26417,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="C4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="D4" t="n">
-        <v>569049.7736743363</v>
+        <v>569049.7736743361</v>
       </c>
       <c r="E4" t="n">
-        <v>361601.3979115863</v>
+        <v>365907.7841844988</v>
       </c>
       <c r="F4" t="n">
-        <v>361601.3979115863</v>
+        <v>365907.7841844988</v>
       </c>
       <c r="G4" t="n">
-        <v>361601.3979115864</v>
+        <v>365907.7841844988</v>
       </c>
       <c r="H4" t="n">
-        <v>361601.3979115864</v>
+        <v>365907.7841844989</v>
       </c>
       <c r="I4" t="n">
-        <v>361601.3979115864</v>
+        <v>365907.7841844989</v>
       </c>
       <c r="J4" t="n">
-        <v>357609.4469985641</v>
+        <v>365907.7841844989</v>
       </c>
       <c r="K4" t="n">
-        <v>357609.4469985641</v>
+        <v>365907.7841844987</v>
       </c>
       <c r="L4" t="n">
-        <v>357609.4469985641</v>
+        <v>365907.7841844989</v>
       </c>
       <c r="M4" t="n">
-        <v>357609.4469985642</v>
+        <v>365907.7841844986</v>
       </c>
       <c r="N4" t="n">
-        <v>357609.4469985641</v>
+        <v>365907.7841844989</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>-3.55463453321194e-11</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>27317.05588930929</v>
+        <v>27414.99546762451</v>
       </c>
       <c r="F5" t="n">
-        <v>27317.05588930929</v>
+        <v>27414.99546762451</v>
       </c>
       <c r="G5" t="n">
-        <v>27317.05588930929</v>
+        <v>27414.99546762451</v>
       </c>
       <c r="H5" t="n">
-        <v>27317.05588930929</v>
+        <v>27414.99546762451</v>
       </c>
       <c r="I5" t="n">
-        <v>27317.05588930929</v>
+        <v>27414.99546762451</v>
       </c>
       <c r="J5" t="n">
-        <v>27107.30293990901</v>
+        <v>27414.99546762451</v>
       </c>
       <c r="K5" t="n">
-        <v>27107.30293990901</v>
+        <v>27414.9954676245</v>
       </c>
       <c r="L5" t="n">
-        <v>27107.30293990901</v>
+        <v>27414.9954676245</v>
       </c>
       <c r="M5" t="n">
-        <v>27107.30293990901</v>
+        <v>27414.9954676245</v>
       </c>
       <c r="N5" t="n">
-        <v>27107.30293990901</v>
+        <v>27414.9954676245</v>
       </c>
       <c r="O5" t="n">
-        <v>8317.082850613346</v>
+        <v>8188.747797380935</v>
       </c>
       <c r="P5" t="n">
-        <v>8317.082850613346</v>
+        <v>8188.747797380939</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>369389.0840486631</v>
+        <v>369336.3449884705</v>
       </c>
       <c r="C6" t="n">
-        <v>369389.084048663</v>
+        <v>369336.3449884704</v>
       </c>
       <c r="D6" t="n">
-        <v>369389.0840486628</v>
+        <v>369336.3449884705</v>
       </c>
       <c r="E6" t="n">
-        <v>-31262.64215884451</v>
+        <v>-32454.11740461126</v>
       </c>
       <c r="F6" t="n">
-        <v>456053.3185977872</v>
+        <v>452285.4946627062</v>
       </c>
       <c r="G6" t="n">
-        <v>456053.3185977872</v>
+        <v>452285.4946627065</v>
       </c>
       <c r="H6" t="n">
-        <v>456053.3185977872</v>
+        <v>452285.4946627061</v>
       </c>
       <c r="I6" t="n">
-        <v>456053.3185977872</v>
+        <v>452285.4946627061</v>
       </c>
       <c r="J6" t="n">
-        <v>274628.2628639095</v>
+        <v>269328.6599650785</v>
       </c>
       <c r="K6" t="n">
-        <v>453435.8622339096</v>
+        <v>452285.494662706</v>
       </c>
       <c r="L6" t="n">
-        <v>453435.8622339096</v>
+        <v>452285.4946627062</v>
       </c>
       <c r="M6" t="n">
-        <v>453435.8622339097</v>
+        <v>452285.4946627061</v>
       </c>
       <c r="N6" t="n">
-        <v>453435.8622339097</v>
+        <v>452285.4946627063</v>
       </c>
       <c r="O6" t="n">
-        <v>218957.2468341005</v>
+        <v>196338.7777369617</v>
       </c>
       <c r="P6" t="n">
-        <v>218957.2468341005</v>
+        <v>196338.7777369618</v>
       </c>
     </row>
   </sheetData>
@@ -26694,34 +26694,34 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="F2" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="G2" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="H2" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="I2" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="J2" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="K2" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="L2" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="M2" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="N2" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>381.5175619547406</v>
+        <v>375.6306329073825</v>
       </c>
       <c r="F3" t="n">
-        <v>381.5175619547406</v>
+        <v>375.6306329073825</v>
       </c>
       <c r="G3" t="n">
-        <v>381.5175619547406</v>
+        <v>375.6306329073825</v>
       </c>
       <c r="H3" t="n">
-        <v>381.5175619547406</v>
+        <v>375.6306329073825</v>
       </c>
       <c r="I3" t="n">
-        <v>381.5175619547406</v>
+        <v>375.6306329073825</v>
       </c>
       <c r="J3" t="n">
-        <v>381.5175619547406</v>
+        <v>375.6306329073825</v>
       </c>
       <c r="K3" t="n">
-        <v>381.5175619547406</v>
+        <v>375.6306329073825</v>
       </c>
       <c r="L3" t="n">
-        <v>381.5175619547406</v>
+        <v>375.6306329073825</v>
       </c>
       <c r="M3" t="n">
-        <v>381.5175619547406</v>
+        <v>375.6306329073825</v>
       </c>
       <c r="N3" t="n">
-        <v>381.5175619547406</v>
+        <v>375.6306329073825</v>
       </c>
       <c r="O3" t="n">
-        <v>381.5175619547406</v>
+        <v>375.6306329073825</v>
       </c>
       <c r="P3" t="n">
-        <v>381.5175619547406</v>
+        <v>375.6306329073825</v>
       </c>
     </row>
     <row r="4">
@@ -26916,7 +26916,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>381.5175619547406</v>
+        <v>375.6306329073825</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27153,7 +27153,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -28089,76 +28089,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="C11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="D11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="E11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="F11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="G11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="H11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="I11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="J11" t="n">
-        <v>164.0254192821721</v>
+        <v>166.0340453896423</v>
       </c>
       <c r="K11" t="n">
-        <v>162.5486629370358</v>
+        <v>165.5590727895308</v>
       </c>
       <c r="L11" t="n">
-        <v>141.0849161526705</v>
+        <v>144.8195957733377</v>
       </c>
       <c r="M11" t="n">
-        <v>105.0014909015128</v>
+        <v>109.157041575229</v>
       </c>
       <c r="N11" t="n">
-        <v>99.12735448118684</v>
+        <v>103.3501463092983</v>
       </c>
       <c r="O11" t="n">
-        <v>115.4918363067663</v>
+        <v>119.4792988857736</v>
       </c>
       <c r="P11" t="n">
-        <v>155.2000409925878</v>
+        <v>158.6032480505633</v>
       </c>
       <c r="Q11" t="n">
-        <v>195.6201948156689</v>
+        <v>198.175861586173</v>
       </c>
       <c r="R11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="S11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="T11" t="n">
-        <v>219.650216535974</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="Y11" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
     </row>
     <row r="12">
@@ -28183,61 +28183,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G12" t="n">
-        <v>169.5305684369876</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H12" t="n">
-        <v>148.6331746293208</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I12" t="n">
-        <v>133.4699725816536</v>
+        <v>133.9059385535571</v>
       </c>
       <c r="J12" t="n">
-        <v>128.5802961440214</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K12" t="n">
-        <v>91.47977155514764</v>
+        <v>93.52447973190786</v>
       </c>
       <c r="L12" t="n">
-        <v>46.97136804258392</v>
+        <v>49.72073051889959</v>
       </c>
       <c r="M12" t="n">
-        <v>23.04073385794621</v>
+        <v>26.24911018875636</v>
       </c>
       <c r="N12" t="n">
-        <v>0</v>
+        <v>3.293292505458665</v>
       </c>
       <c r="O12" t="n">
-        <v>36.47188605845983</v>
+        <v>39.48460530404506</v>
       </c>
       <c r="P12" t="n">
-        <v>61.00547230880082</v>
+        <v>63.42344510940342</v>
       </c>
       <c r="Q12" t="n">
-        <v>122.7186175772305</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R12" t="n">
-        <v>185.7786033090706</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S12" t="n">
-        <v>224.4793946918968</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T12" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="U12" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V12" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W12" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X12" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="Y12" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
     </row>
     <row r="13">
@@ -28262,55 +28262,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G13" t="n">
-        <v>169.8377575784555</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H13" t="n">
-        <v>170.9378952067096</v>
+        <v>171.0322790855345</v>
       </c>
       <c r="I13" t="n">
-        <v>177.0591684204074</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J13" t="n">
-        <v>157.72719788292</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K13" t="n">
-        <v>129.7154881044711</v>
+        <v>130.9488479934094</v>
       </c>
       <c r="L13" t="n">
-        <v>116.9033660355724</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M13" t="n">
-        <v>117.9100166068977</v>
+        <v>119.5740873866288</v>
       </c>
       <c r="N13" t="n">
-        <v>102.2089258152801</v>
+        <v>103.8334287112503</v>
       </c>
       <c r="O13" t="n">
-        <v>127.7486773896165</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P13" t="n">
-        <v>140.5996517561621</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q13" t="n">
-        <v>188.5864757926837</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R13" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="S13" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="T13" t="n">
-        <v>215.3341138046966</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U13" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V13" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W13" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X13" t="n">
         <v>214.9420418072343</v>
@@ -28326,76 +28326,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="C14" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="D14" t="n">
-        <v>226.0045086618832</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="E14" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="F14" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="G14" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="H14" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="I14" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="J14" t="n">
-        <v>164.0254192821721</v>
+        <v>166.0340453896423</v>
       </c>
       <c r="K14" t="n">
-        <v>162.5486629370368</v>
+        <v>165.5590727895308</v>
       </c>
       <c r="L14" t="n">
-        <v>141.0849161526705</v>
+        <v>144.8195957733377</v>
       </c>
       <c r="M14" t="n">
-        <v>105.0014909015127</v>
+        <v>109.157041575229</v>
       </c>
       <c r="N14" t="n">
-        <v>99.1273544811869</v>
+        <v>103.3501463092983</v>
       </c>
       <c r="O14" t="n">
-        <v>115.4918363067663</v>
+        <v>119.4792988857736</v>
       </c>
       <c r="P14" t="n">
-        <v>155.2000409925878</v>
+        <v>158.6032480505633</v>
       </c>
       <c r="Q14" t="n">
-        <v>195.6201948156689</v>
+        <v>198.175861586173</v>
       </c>
       <c r="R14" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="S14" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="T14" t="n">
-        <v>219.650216535974</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U14" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V14" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W14" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X14" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="Y14" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
     </row>
     <row r="15">
@@ -28420,61 +28420,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G15" t="n">
-        <v>169.5305684369876</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H15" t="n">
-        <v>148.6331746293208</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I15" t="n">
-        <v>133.4699725816536</v>
+        <v>133.9059385535571</v>
       </c>
       <c r="J15" t="n">
-        <v>128.5802961440214</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K15" t="n">
-        <v>91.47977155514764</v>
+        <v>93.52447973190786</v>
       </c>
       <c r="L15" t="n">
-        <v>46.97136804258392</v>
+        <v>49.72073051889959</v>
       </c>
       <c r="M15" t="n">
-        <v>23.04073385794618</v>
+        <v>26.24911018875636</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>3.293292505458665</v>
       </c>
       <c r="O15" t="n">
-        <v>36.47188605845983</v>
+        <v>39.48460530404506</v>
       </c>
       <c r="P15" t="n">
-        <v>61.00547230880082</v>
+        <v>63.42344510940342</v>
       </c>
       <c r="Q15" t="n">
-        <v>122.7186175772305</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R15" t="n">
-        <v>185.7786033090706</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S15" t="n">
-        <v>224.4793946918968</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T15" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="U15" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V15" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W15" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X15" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="Y15" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
     </row>
     <row r="16">
@@ -28499,55 +28499,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G16" t="n">
-        <v>169.8377575784555</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H16" t="n">
-        <v>170.9378952067096</v>
+        <v>171.0322790855345</v>
       </c>
       <c r="I16" t="n">
-        <v>177.0591684204074</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J16" t="n">
-        <v>157.72719788292</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K16" t="n">
-        <v>129.7154881044711</v>
+        <v>130.9488479934094</v>
       </c>
       <c r="L16" t="n">
-        <v>116.9033660355724</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M16" t="n">
-        <v>117.9100166068977</v>
+        <v>119.5740873866288</v>
       </c>
       <c r="N16" t="n">
-        <v>102.2089258152801</v>
+        <v>103.8334287112503</v>
       </c>
       <c r="O16" t="n">
-        <v>127.7486773896165</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P16" t="n">
-        <v>140.5996517561621</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q16" t="n">
-        <v>188.5864757926837</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R16" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="S16" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="T16" t="n">
-        <v>215.3341138046966</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U16" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V16" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W16" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X16" t="n">
         <v>214.9420418072343</v>
@@ -28563,76 +28563,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="C17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="D17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="E17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="F17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="G17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="H17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="I17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="J17" t="n">
-        <v>164.0254192821721</v>
+        <v>166.0340453896423</v>
       </c>
       <c r="K17" t="n">
-        <v>162.5486629370368</v>
+        <v>165.5590727895308</v>
       </c>
       <c r="L17" t="n">
-        <v>141.0849161526705</v>
+        <v>144.8195957733377</v>
       </c>
       <c r="M17" t="n">
-        <v>105.0014909015128</v>
+        <v>109.157041575229</v>
       </c>
       <c r="N17" t="n">
-        <v>99.12735448118684</v>
+        <v>103.3501463092983</v>
       </c>
       <c r="O17" t="n">
-        <v>115.4918363067663</v>
+        <v>119.4792988857736</v>
       </c>
       <c r="P17" t="n">
-        <v>155.2000409925878</v>
+        <v>158.6032480505633</v>
       </c>
       <c r="Q17" t="n">
-        <v>195.6201948156689</v>
+        <v>198.175861586173</v>
       </c>
       <c r="R17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="S17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="T17" t="n">
-        <v>219.650216535974</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="Y17" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
     </row>
     <row r="18">
@@ -28657,61 +28657,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G18" t="n">
-        <v>169.5305684369876</v>
+        <v>169.5432308881395</v>
       </c>
       <c r="H18" t="n">
-        <v>148.6331746293208</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I18" t="n">
-        <v>133.4699725816536</v>
+        <v>133.9059385535571</v>
       </c>
       <c r="J18" t="n">
-        <v>128.5802961440214</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K18" t="n">
-        <v>91.47977155514764</v>
+        <v>93.52447973190786</v>
       </c>
       <c r="L18" t="n">
-        <v>46.97136804258392</v>
+        <v>49.72073051889959</v>
       </c>
       <c r="M18" t="n">
-        <v>23.04073385794621</v>
+        <v>26.24911018875636</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>3.293292505464962</v>
       </c>
       <c r="O18" t="n">
-        <v>36.47188605845983</v>
+        <v>39.48460530404506</v>
       </c>
       <c r="P18" t="n">
-        <v>61.00547230880082</v>
+        <v>63.42344510940342</v>
       </c>
       <c r="Q18" t="n">
-        <v>122.7186175772305</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R18" t="n">
-        <v>185.7786033090706</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S18" t="n">
-        <v>224.4793946918968</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T18" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="U18" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V18" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W18" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X18" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="Y18" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
     </row>
     <row r="19">
@@ -28736,55 +28736,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G19" t="n">
-        <v>169.8377575784555</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H19" t="n">
-        <v>170.9378952067096</v>
+        <v>171.0322790855345</v>
       </c>
       <c r="I19" t="n">
-        <v>177.0591684204074</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J19" t="n">
-        <v>157.72719788292</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K19" t="n">
-        <v>129.7154881044711</v>
+        <v>130.9488479934094</v>
       </c>
       <c r="L19" t="n">
-        <v>116.9033660355724</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M19" t="n">
-        <v>117.9100166068977</v>
+        <v>119.5740873866288</v>
       </c>
       <c r="N19" t="n">
-        <v>102.2089258152801</v>
+        <v>103.8334287112503</v>
       </c>
       <c r="O19" t="n">
-        <v>127.7486773896165</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P19" t="n">
-        <v>140.5996517561621</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q19" t="n">
-        <v>188.5864757926837</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R19" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="S19" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="T19" t="n">
-        <v>215.3341138046966</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U19" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V19" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W19" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X19" t="n">
         <v>214.9420418072343</v>
@@ -28800,76 +28800,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="C20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="D20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="E20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="F20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="G20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="H20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="I20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="J20" t="n">
-        <v>164.0254192821721</v>
+        <v>166.0340453896423</v>
       </c>
       <c r="K20" t="n">
-        <v>162.5486629370368</v>
+        <v>165.5590727895308</v>
       </c>
       <c r="L20" t="n">
-        <v>141.0849161526705</v>
+        <v>144.8195957733377</v>
       </c>
       <c r="M20" t="n">
-        <v>105.0014909015128</v>
+        <v>109.157041575229</v>
       </c>
       <c r="N20" t="n">
-        <v>99.12735448118684</v>
+        <v>103.3501463092983</v>
       </c>
       <c r="O20" t="n">
-        <v>115.4918363067663</v>
+        <v>119.4792988857736</v>
       </c>
       <c r="P20" t="n">
-        <v>155.2000409925878</v>
+        <v>158.6032480505633</v>
       </c>
       <c r="Q20" t="n">
-        <v>195.6201948156689</v>
+        <v>198.175861586173</v>
       </c>
       <c r="R20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="S20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="T20" t="n">
-        <v>219.650216535974</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="Y20" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
     </row>
     <row r="21">
@@ -28894,61 +28894,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G21" t="n">
-        <v>169.5305684369876</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H21" t="n">
-        <v>148.6331746293208</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I21" t="n">
-        <v>133.4699725816536</v>
+        <v>133.9059385535571</v>
       </c>
       <c r="J21" t="n">
-        <v>128.5802961440214</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K21" t="n">
-        <v>91.47977155514764</v>
+        <v>93.52447973190786</v>
       </c>
       <c r="L21" t="n">
-        <v>46.97136804258392</v>
+        <v>49.72073051889959</v>
       </c>
       <c r="M21" t="n">
-        <v>23.04073385794621</v>
+        <v>26.24911018875636</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>3.293292505464962</v>
       </c>
       <c r="O21" t="n">
-        <v>36.47188605845983</v>
+        <v>39.48460530404506</v>
       </c>
       <c r="P21" t="n">
-        <v>61.00547230880082</v>
+        <v>63.42344510940342</v>
       </c>
       <c r="Q21" t="n">
-        <v>122.7186175772305</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R21" t="n">
-        <v>185.7786033090706</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S21" t="n">
-        <v>224.4793946918968</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T21" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="U21" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V21" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W21" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X21" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="Y21" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
     </row>
     <row r="22">
@@ -28973,55 +28973,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G22" t="n">
-        <v>169.8377575784555</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H22" t="n">
-        <v>170.9378952067096</v>
+        <v>171.0322790855345</v>
       </c>
       <c r="I22" t="n">
-        <v>177.0591684204074</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J22" t="n">
-        <v>157.72719788292</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K22" t="n">
-        <v>129.7154881044711</v>
+        <v>130.9488479934094</v>
       </c>
       <c r="L22" t="n">
-        <v>116.9033660355724</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M22" t="n">
-        <v>117.9100166068977</v>
+        <v>119.5740873866288</v>
       </c>
       <c r="N22" t="n">
-        <v>102.2089258152801</v>
+        <v>103.8334287112503</v>
       </c>
       <c r="O22" t="n">
-        <v>127.7486773896165</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P22" t="n">
-        <v>140.5996517561621</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q22" t="n">
-        <v>188.5864757926837</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R22" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="S22" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="T22" t="n">
-        <v>215.3341138046966</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U22" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V22" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W22" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X22" t="n">
         <v>214.9420418072343</v>
@@ -29037,76 +29037,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="C23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="D23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="E23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="F23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="G23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="H23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="I23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="J23" t="n">
-        <v>164.0254192821721</v>
+        <v>166.0340453896423</v>
       </c>
       <c r="K23" t="n">
-        <v>162.5486629370368</v>
+        <v>165.5590727895308</v>
       </c>
       <c r="L23" t="n">
-        <v>141.0849161526705</v>
+        <v>144.8195957733377</v>
       </c>
       <c r="M23" t="n">
-        <v>105.0014909015128</v>
+        <v>109.157041575229</v>
       </c>
       <c r="N23" t="n">
-        <v>99.12735448118684</v>
+        <v>103.3501463092983</v>
       </c>
       <c r="O23" t="n">
-        <v>115.4918363067663</v>
+        <v>119.4792988857736</v>
       </c>
       <c r="P23" t="n">
-        <v>155.2000409925878</v>
+        <v>158.6032480505633</v>
       </c>
       <c r="Q23" t="n">
-        <v>195.6201948156689</v>
+        <v>198.175861586173</v>
       </c>
       <c r="R23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="S23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="T23" t="n">
-        <v>219.650216535974</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="Y23" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
     </row>
     <row r="24">
@@ -29131,61 +29131,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G24" t="n">
-        <v>169.5305684369876</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H24" t="n">
-        <v>148.6331746293208</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I24" t="n">
-        <v>133.4699725816536</v>
+        <v>133.9059385535571</v>
       </c>
       <c r="J24" t="n">
-        <v>128.5802961440214</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K24" t="n">
-        <v>91.47977155514764</v>
+        <v>93.52447973190786</v>
       </c>
       <c r="L24" t="n">
-        <v>46.97136804258392</v>
+        <v>49.72073051889959</v>
       </c>
       <c r="M24" t="n">
-        <v>23.04073385794621</v>
+        <v>26.24911018875636</v>
       </c>
       <c r="N24" t="n">
-        <v>0</v>
+        <v>3.293292505464962</v>
       </c>
       <c r="O24" t="n">
-        <v>36.47188605845983</v>
+        <v>39.48460530404506</v>
       </c>
       <c r="P24" t="n">
-        <v>61.00547230880082</v>
+        <v>63.42344510940342</v>
       </c>
       <c r="Q24" t="n">
-        <v>122.7186175772305</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R24" t="n">
-        <v>185.7786033090706</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S24" t="n">
-        <v>224.4793946918968</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T24" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="U24" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V24" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W24" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X24" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="Y24" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
     </row>
     <row r="25">
@@ -29210,55 +29210,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G25" t="n">
-        <v>169.8377575784555</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H25" t="n">
-        <v>170.9378952067096</v>
+        <v>171.0322790855345</v>
       </c>
       <c r="I25" t="n">
-        <v>177.0591684204074</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J25" t="n">
-        <v>157.72719788292</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K25" t="n">
-        <v>129.7154881044711</v>
+        <v>130.9488479934094</v>
       </c>
       <c r="L25" t="n">
-        <v>116.9033660355724</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M25" t="n">
-        <v>117.9100166068977</v>
+        <v>119.5740873866288</v>
       </c>
       <c r="N25" t="n">
-        <v>102.2089258152801</v>
+        <v>103.8334287112503</v>
       </c>
       <c r="O25" t="n">
-        <v>127.7486773896165</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P25" t="n">
-        <v>140.5996517561621</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q25" t="n">
-        <v>188.5864757926837</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R25" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="S25" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="T25" t="n">
-        <v>215.3341138046966</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U25" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V25" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W25" t="n">
-        <v>226.0045086618842</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X25" t="n">
         <v>214.9420418072343</v>
@@ -29274,76 +29274,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="C26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="D26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="E26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="F26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="G26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="H26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="I26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="J26" t="n">
-        <v>164.0254192821721</v>
+        <v>166.0340453896423</v>
       </c>
       <c r="K26" t="n">
-        <v>162.5486629370368</v>
+        <v>165.5590727895308</v>
       </c>
       <c r="L26" t="n">
-        <v>141.0849161526705</v>
+        <v>144.8195957733377</v>
       </c>
       <c r="M26" t="n">
-        <v>105.0014909015128</v>
+        <v>109.157041575229</v>
       </c>
       <c r="N26" t="n">
-        <v>99.12735448118684</v>
+        <v>103.3501463092983</v>
       </c>
       <c r="O26" t="n">
-        <v>115.4918363067663</v>
+        <v>119.4792988857736</v>
       </c>
       <c r="P26" t="n">
-        <v>155.2000409925878</v>
+        <v>158.6032480505633</v>
       </c>
       <c r="Q26" t="n">
-        <v>195.6201948156689</v>
+        <v>198.175861586173</v>
       </c>
       <c r="R26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="S26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="T26" t="n">
-        <v>219.650216535974</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="Y26" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
     </row>
     <row r="27">
@@ -29368,61 +29368,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G27" t="n">
-        <v>169.5305684369876</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H27" t="n">
-        <v>148.6331746293208</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I27" t="n">
-        <v>133.4699725816536</v>
+        <v>133.9059385535571</v>
       </c>
       <c r="J27" t="n">
-        <v>128.5802961440214</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K27" t="n">
-        <v>91.47977155514764</v>
+        <v>93.52447973190786</v>
       </c>
       <c r="L27" t="n">
-        <v>46.97136804258392</v>
+        <v>49.72073051889959</v>
       </c>
       <c r="M27" t="n">
-        <v>23.04073385794621</v>
+        <v>26.24911018875636</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>3.293292505464962</v>
       </c>
       <c r="O27" t="n">
-        <v>36.47188605845983</v>
+        <v>39.48460530404506</v>
       </c>
       <c r="P27" t="n">
-        <v>61.00547230880082</v>
+        <v>63.42344510940342</v>
       </c>
       <c r="Q27" t="n">
-        <v>122.7186175772305</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R27" t="n">
-        <v>185.7786033090706</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S27" t="n">
-        <v>223.5094992125</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T27" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="U27" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V27" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W27" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X27" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="Y27" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
     </row>
     <row r="28">
@@ -29447,55 +29447,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G28" t="n">
-        <v>169.8377575784555</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H28" t="n">
-        <v>170.9378952067096</v>
+        <v>171.0322790855345</v>
       </c>
       <c r="I28" t="n">
-        <v>177.0591684204074</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J28" t="n">
-        <v>157.72719788292</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K28" t="n">
-        <v>129.7154881044711</v>
+        <v>130.9488479934094</v>
       </c>
       <c r="L28" t="n">
-        <v>116.9033660355724</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M28" t="n">
-        <v>117.9100166068977</v>
+        <v>119.5740873866288</v>
       </c>
       <c r="N28" t="n">
-        <v>102.2089258152801</v>
+        <v>103.8334287112503</v>
       </c>
       <c r="O28" t="n">
-        <v>127.7486773896165</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P28" t="n">
-        <v>140.5996517561621</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q28" t="n">
-        <v>188.5864757926837</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R28" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="S28" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="T28" t="n">
-        <v>215.3341138046966</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U28" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="V28" t="n">
-        <v>96.85474505528252</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="W28" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720345</v>
       </c>
       <c r="X28" t="n">
         <v>214.9420418072343</v>
@@ -29511,76 +29511,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="C29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="D29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="E29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J29" t="n">
-        <v>164.0254192821721</v>
+        <v>166.0340453896423</v>
       </c>
       <c r="K29" t="n">
-        <v>162.5486629370368</v>
+        <v>165.5590727895308</v>
       </c>
       <c r="L29" t="n">
-        <v>141.0849161526705</v>
+        <v>144.8195957733377</v>
       </c>
       <c r="M29" t="n">
-        <v>105.0014909015128</v>
+        <v>109.157041575229</v>
       </c>
       <c r="N29" t="n">
-        <v>99.12735448118684</v>
+        <v>103.3501463092983</v>
       </c>
       <c r="O29" t="n">
-        <v>115.4918363067663</v>
+        <v>119.4792988857736</v>
       </c>
       <c r="P29" t="n">
-        <v>155.2000409925878</v>
+        <v>158.6032480505633</v>
       </c>
       <c r="Q29" t="n">
-        <v>195.6201948156689</v>
+        <v>198.175861586173</v>
       </c>
       <c r="R29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T29" t="n">
-        <v>219.650216535974</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y29" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="30">
@@ -29605,61 +29605,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G30" t="n">
-        <v>169.5305684369876</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H30" t="n">
-        <v>148.6331746293208</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I30" t="n">
-        <v>133.4699725816536</v>
+        <v>133.9059385535571</v>
       </c>
       <c r="J30" t="n">
-        <v>128.5802961440214</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K30" t="n">
-        <v>91.47977155514764</v>
+        <v>93.52447973190786</v>
       </c>
       <c r="L30" t="n">
-        <v>46.97136804258392</v>
+        <v>49.72073051889959</v>
       </c>
       <c r="M30" t="n">
-        <v>23.04073385794621</v>
+        <v>26.24911018875636</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>3.293292505464962</v>
       </c>
       <c r="O30" t="n">
-        <v>36.47188605845983</v>
+        <v>39.48460530404506</v>
       </c>
       <c r="P30" t="n">
-        <v>61.00547230880082</v>
+        <v>63.42344510940342</v>
       </c>
       <c r="Q30" t="n">
-        <v>122.7186175772305</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R30" t="n">
-        <v>185.7786033090706</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S30" t="n">
-        <v>223.5094992125</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T30" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="U30" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V30" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W30" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X30" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y30" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="31">
@@ -29684,55 +29684,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G31" t="n">
-        <v>169.8377575784555</v>
+        <v>169.8483733521304</v>
       </c>
       <c r="H31" t="n">
-        <v>170.9378952067096</v>
+        <v>171.0322790855345</v>
       </c>
       <c r="I31" t="n">
-        <v>177.0591684204074</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J31" t="n">
-        <v>157.72719788292</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K31" t="n">
-        <v>129.7154881044711</v>
+        <v>130.9488479934094</v>
       </c>
       <c r="L31" t="n">
-        <v>116.9033660355724</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M31" t="n">
-        <v>117.9100166068977</v>
+        <v>119.5740873866288</v>
       </c>
       <c r="N31" t="n">
-        <v>102.2089258152801</v>
+        <v>103.8334287112503</v>
       </c>
       <c r="O31" t="n">
-        <v>127.7486773896165</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P31" t="n">
-        <v>140.5996517561621</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q31" t="n">
-        <v>61.9317216354633</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R31" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S31" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T31" t="n">
-        <v>215.3341138046966</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U31" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V31" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W31" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X31" t="n">
         <v>214.9420418072343</v>
@@ -29748,76 +29748,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="C32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="D32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="E32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J32" t="n">
-        <v>164.0254192821721</v>
+        <v>166.0340453896423</v>
       </c>
       <c r="K32" t="n">
-        <v>162.5486629370368</v>
+        <v>165.5590727895308</v>
       </c>
       <c r="L32" t="n">
-        <v>141.0849161526705</v>
+        <v>144.8195957733377</v>
       </c>
       <c r="M32" t="n">
-        <v>105.0014909015128</v>
+        <v>109.157041575229</v>
       </c>
       <c r="N32" t="n">
-        <v>99.12735448118684</v>
+        <v>103.3501463092983</v>
       </c>
       <c r="O32" t="n">
-        <v>115.4918363067663</v>
+        <v>119.4792988857736</v>
       </c>
       <c r="P32" t="n">
-        <v>155.2000409925878</v>
+        <v>158.6032480505633</v>
       </c>
       <c r="Q32" t="n">
-        <v>195.6201948156689</v>
+        <v>198.175861586173</v>
       </c>
       <c r="R32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T32" t="n">
-        <v>219.650216535974</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y32" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="33">
@@ -29842,61 +29842,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G33" t="n">
-        <v>169.5305684369876</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H33" t="n">
-        <v>148.6331746293208</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I33" t="n">
-        <v>133.4699725816536</v>
+        <v>133.9059385535571</v>
       </c>
       <c r="J33" t="n">
-        <v>128.5802961440214</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K33" t="n">
-        <v>91.47977155514764</v>
+        <v>93.52447973190786</v>
       </c>
       <c r="L33" t="n">
-        <v>46.97136804258392</v>
+        <v>49.72073051889959</v>
       </c>
       <c r="M33" t="n">
-        <v>23.04073385794621</v>
+        <v>26.24911018875636</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>3.293292505464962</v>
       </c>
       <c r="O33" t="n">
-        <v>36.47188605845983</v>
+        <v>39.48460530404506</v>
       </c>
       <c r="P33" t="n">
-        <v>61.00547230880082</v>
+        <v>63.42344510940342</v>
       </c>
       <c r="Q33" t="n">
-        <v>122.7186175772305</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R33" t="n">
-        <v>185.7786033090706</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S33" t="n">
-        <v>223.5094992125</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T33" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="U33" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V33" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W33" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X33" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y33" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="34">
@@ -29921,55 +29921,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G34" t="n">
-        <v>169.8377575784555</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H34" t="n">
-        <v>170.9378952067096</v>
+        <v>171.0322790855345</v>
       </c>
       <c r="I34" t="n">
-        <v>177.0591684204074</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J34" t="n">
-        <v>157.72719788292</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K34" t="n">
-        <v>129.7154881044711</v>
+        <v>130.9488479934094</v>
       </c>
       <c r="L34" t="n">
-        <v>116.9033660355724</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M34" t="n">
-        <v>117.9100166068977</v>
+        <v>119.5740873866288</v>
       </c>
       <c r="N34" t="n">
-        <v>102.2089258152801</v>
+        <v>103.8334287112503</v>
       </c>
       <c r="O34" t="n">
-        <v>127.7486773896165</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P34" t="n">
-        <v>13.94489759894368</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q34" t="n">
-        <v>188.5864757926837</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R34" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S34" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T34" t="n">
-        <v>215.3341138046966</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U34" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V34" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W34" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X34" t="n">
         <v>214.9420418072343</v>
@@ -29985,76 +29985,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="C35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="D35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="E35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J35" t="n">
-        <v>164.0254192821721</v>
+        <v>166.0340453896423</v>
       </c>
       <c r="K35" t="n">
-        <v>162.5486629370368</v>
+        <v>165.5590727895308</v>
       </c>
       <c r="L35" t="n">
-        <v>141.0849161526705</v>
+        <v>144.8195957733377</v>
       </c>
       <c r="M35" t="n">
-        <v>105.0014909015128</v>
+        <v>109.157041575229</v>
       </c>
       <c r="N35" t="n">
-        <v>99.12735448118684</v>
+        <v>103.3501463092983</v>
       </c>
       <c r="O35" t="n">
-        <v>115.4918363067663</v>
+        <v>119.4792988857736</v>
       </c>
       <c r="P35" t="n">
-        <v>155.2000409925878</v>
+        <v>158.6032480505633</v>
       </c>
       <c r="Q35" t="n">
-        <v>195.6201948156689</v>
+        <v>198.175861586173</v>
       </c>
       <c r="R35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T35" t="n">
-        <v>219.650216535974</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y35" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="36">
@@ -30079,61 +30079,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G36" t="n">
-        <v>169.5305684369876</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H36" t="n">
-        <v>148.6331746293208</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I36" t="n">
-        <v>133.4699725816536</v>
+        <v>133.9059385535571</v>
       </c>
       <c r="J36" t="n">
-        <v>128.5802961440214</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K36" t="n">
-        <v>91.47977155514764</v>
+        <v>93.52447973190786</v>
       </c>
       <c r="L36" t="n">
-        <v>46.97136804258392</v>
+        <v>49.72073051889959</v>
       </c>
       <c r="M36" t="n">
-        <v>23.04073385794621</v>
+        <v>26.24911018875636</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>3.293292505464962</v>
       </c>
       <c r="O36" t="n">
-        <v>36.47188605845983</v>
+        <v>39.48460530404506</v>
       </c>
       <c r="P36" t="n">
-        <v>61.00547230880082</v>
+        <v>63.42344510940342</v>
       </c>
       <c r="Q36" t="n">
-        <v>122.7186175772305</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R36" t="n">
-        <v>185.7786033090706</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S36" t="n">
-        <v>223.5094992125</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T36" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="U36" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V36" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W36" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X36" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y36" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="37">
@@ -30158,58 +30158,58 @@
         <v>126.9717133511</v>
       </c>
       <c r="G37" t="n">
-        <v>169.8377575784555</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H37" t="n">
-        <v>170.9378952067096</v>
+        <v>171.0322790855345</v>
       </c>
       <c r="I37" t="n">
-        <v>177.0591684204074</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J37" t="n">
-        <v>157.72719788292</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K37" t="n">
-        <v>129.7154881044711</v>
+        <v>130.9488479934094</v>
       </c>
       <c r="L37" t="n">
-        <v>116.9033660355724</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M37" t="n">
-        <v>117.9100166068977</v>
+        <v>119.574087386606</v>
       </c>
       <c r="N37" t="n">
-        <v>102.2089258152801</v>
+        <v>103.8334287112503</v>
       </c>
       <c r="O37" t="n">
-        <v>127.7486773896165</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P37" t="n">
-        <v>140.5996517561621</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q37" t="n">
-        <v>188.5864757926837</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R37" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S37" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T37" t="n">
-        <v>215.3341138046966</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U37" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V37" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W37" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X37" t="n">
-        <v>88.28728765001827</v>
+        <v>214.9420418072343</v>
       </c>
       <c r="Y37" t="n">
         <v>214.4841404602585</v>
@@ -30222,76 +30222,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="C38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="D38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="E38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="F38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="G38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="H38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="I38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="J38" t="n">
-        <v>164.0254192821721</v>
+        <v>166.0340453896423</v>
       </c>
       <c r="K38" t="n">
-        <v>162.5486629370368</v>
+        <v>165.5590727895308</v>
       </c>
       <c r="L38" t="n">
-        <v>141.0849161526705</v>
+        <v>144.8195957733377</v>
       </c>
       <c r="M38" t="n">
-        <v>105.0014909015128</v>
+        <v>109.1570415752291</v>
       </c>
       <c r="N38" t="n">
-        <v>99.12735448118684</v>
+        <v>103.3501463092983</v>
       </c>
       <c r="O38" t="n">
-        <v>115.4918363067663</v>
+        <v>119.4792988857736</v>
       </c>
       <c r="P38" t="n">
-        <v>155.2000409925878</v>
+        <v>158.6032480505633</v>
       </c>
       <c r="Q38" t="n">
-        <v>195.6201948156689</v>
+        <v>198.175861586173</v>
       </c>
       <c r="R38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T38" t="n">
-        <v>219.650216535974</v>
+        <v>219.7538146541842</v>
       </c>
       <c r="U38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y38" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="39">
@@ -30316,61 +30316,61 @@
         <v>184.1437201392488</v>
       </c>
       <c r="G39" t="n">
-        <v>169.5305684369876</v>
+        <v>169.5432308881461</v>
       </c>
       <c r="H39" t="n">
-        <v>148.6331746293208</v>
+        <v>148.7554672497197</v>
       </c>
       <c r="I39" t="n">
-        <v>133.4699725816536</v>
+        <v>133.9059385535571</v>
       </c>
       <c r="J39" t="n">
-        <v>128.5802961440214</v>
+        <v>129.7766200931642</v>
       </c>
       <c r="K39" t="n">
-        <v>91.47977155514764</v>
+        <v>93.52447973190786</v>
       </c>
       <c r="L39" t="n">
-        <v>46.97136804258392</v>
+        <v>49.72073051889959</v>
       </c>
       <c r="M39" t="n">
-        <v>23.04073385794621</v>
+        <v>26.24911018875636</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>3.293292505464962</v>
       </c>
       <c r="O39" t="n">
-        <v>36.47188605845983</v>
+        <v>39.48460530404506</v>
       </c>
       <c r="P39" t="n">
-        <v>61.00547230880082</v>
+        <v>63.42344510940342</v>
       </c>
       <c r="Q39" t="n">
-        <v>122.7186175772305</v>
+        <v>124.3349683601957</v>
       </c>
       <c r="R39" t="n">
-        <v>185.7786033090706</v>
+        <v>186.5647860222253</v>
       </c>
       <c r="S39" t="n">
-        <v>223.5094992125</v>
+        <v>224.7145941684587</v>
       </c>
       <c r="T39" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="U39" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V39" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W39" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X39" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="Y39" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
     </row>
     <row r="40">
@@ -30380,7 +30380,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.88444330605726</v>
+        <v>173.5391974632748</v>
       </c>
       <c r="C40" t="n">
         <v>165.0035252842657</v>
@@ -30395,55 +30395,55 @@
         <v>126.9717133511</v>
       </c>
       <c r="G40" t="n">
-        <v>169.8377575784555</v>
+        <v>169.8483733521475</v>
       </c>
       <c r="H40" t="n">
-        <v>170.9378952067096</v>
+        <v>171.0322790855345</v>
       </c>
       <c r="I40" t="n">
-        <v>177.0591684204074</v>
+        <v>177.3784136874346</v>
       </c>
       <c r="J40" t="n">
-        <v>157.72719788292</v>
+        <v>158.4777330829414</v>
       </c>
       <c r="K40" t="n">
-        <v>129.7154881044711</v>
+        <v>130.9488479934094</v>
       </c>
       <c r="L40" t="n">
-        <v>116.9033660355724</v>
+        <v>118.4816420624657</v>
       </c>
       <c r="M40" t="n">
-        <v>117.9100166068977</v>
+        <v>119.5740873866288</v>
       </c>
       <c r="N40" t="n">
-        <v>102.2089258152801</v>
+        <v>103.8334287112503</v>
       </c>
       <c r="O40" t="n">
-        <v>127.7486773896165</v>
+        <v>129.2491687474579</v>
       </c>
       <c r="P40" t="n">
-        <v>140.5996517561621</v>
+        <v>141.8835813306875</v>
       </c>
       <c r="Q40" t="n">
-        <v>188.5864757926837</v>
+        <v>189.4754020788347</v>
       </c>
       <c r="R40" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="S40" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="T40" t="n">
-        <v>215.3341138046966</v>
+        <v>215.3794721104714</v>
       </c>
       <c r="U40" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="V40" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="W40" t="n">
-        <v>223.5094992125</v>
+        <v>228.6960433720344</v>
       </c>
       <c r="X40" t="n">
         <v>214.9420418072343</v>
@@ -30468,22 +30468,22 @@
         <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-1.249481443536195e-12</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -30504,19 +30504,19 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="T41" t="n">
         <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-5.684341886080801e-14</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.533738942531619</v>
+        <v>1.510072896110079</v>
       </c>
       <c r="H11" t="n">
-        <v>15.70740394520195</v>
+        <v>15.46503404728735</v>
       </c>
       <c r="I11" t="n">
-        <v>59.12947058195031</v>
+        <v>58.21708532728389</v>
       </c>
       <c r="J11" t="n">
-        <v>130.1741755736931</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K11" t="n">
-        <v>195.0973450110566</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L11" t="n">
-        <v>242.0355081735587</v>
+        <v>238.3008285528915</v>
       </c>
       <c r="M11" t="n">
-        <v>269.3111380928054</v>
+        <v>265.1555874190892</v>
       </c>
       <c r="N11" t="n">
-        <v>273.6688738632734</v>
+        <v>269.446082035162</v>
       </c>
       <c r="O11" t="n">
-        <v>258.4177572534746</v>
+        <v>254.4302946744673</v>
       </c>
       <c r="P11" t="n">
-        <v>220.5535771097252</v>
+        <v>217.1503700517497</v>
       </c>
       <c r="Q11" t="n">
-        <v>165.6265512303115</v>
+        <v>163.0708844598074</v>
       </c>
       <c r="R11" t="n">
-        <v>96.34372884880192</v>
+        <v>94.85711656027485</v>
       </c>
       <c r="S11" t="n">
-        <v>34.95007615293931</v>
+        <v>34.41078612010847</v>
       </c>
       <c r="T11" t="n">
-        <v>6.713942220932167</v>
+        <v>6.610344102721875</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.1208058316888063</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.8079602292724831</v>
       </c>
       <c r="H12" t="n">
-        <v>7.925487466267349</v>
+        <v>7.803194845868457</v>
       </c>
       <c r="I12" t="n">
-        <v>28.25389491834636</v>
+        <v>27.81792894644295</v>
       </c>
       <c r="J12" t="n">
-        <v>77.53084718931197</v>
+        <v>76.33452324016913</v>
       </c>
       <c r="K12" t="n">
-        <v>132.5125667781857</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L12" t="n">
-        <v>178.1794990997116</v>
+        <v>175.430136623396</v>
       </c>
       <c r="M12" t="n">
-        <v>207.9270712653336</v>
+        <v>204.7186949345234</v>
       </c>
       <c r="N12" t="n">
-        <v>213.4302821354166</v>
+        <v>210.1369896299517</v>
       </c>
       <c r="O12" t="n">
-        <v>195.2470111637624</v>
+        <v>192.2342919181771</v>
       </c>
       <c r="P12" t="n">
-        <v>156.7029397394858</v>
+        <v>154.2849669388832</v>
       </c>
       <c r="Q12" t="n">
-        <v>104.7517653125544</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R12" t="n">
-        <v>50.95059063237085</v>
+        <v>50.16440791921612</v>
       </c>
       <c r="S12" t="n">
-        <v>15.24270636677665</v>
+        <v>15.00750689021475</v>
       </c>
       <c r="T12" t="n">
-        <v>3.307685277701948</v>
+        <v>3.256646713602683</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05315527824161075</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.6773667150788864</v>
       </c>
       <c r="H13" t="n">
-        <v>6.116789763798959</v>
+        <v>6.022405884974104</v>
       </c>
       <c r="I13" t="n">
-        <v>20.68950975321774</v>
+        <v>20.37026448619052</v>
       </c>
       <c r="J13" t="n">
-        <v>48.64036195609864</v>
+        <v>47.88982675607727</v>
       </c>
       <c r="K13" t="n">
-        <v>79.93105642264891</v>
+        <v>78.6976965337106</v>
       </c>
       <c r="L13" t="n">
-        <v>102.2842329214398</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M13" t="n">
-        <v>107.8443823079605</v>
+        <v>106.1803115282294</v>
       </c>
       <c r="N13" t="n">
-        <v>105.2800839407238</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O13" t="n">
-        <v>97.243197594628</v>
+        <v>95.74270623678663</v>
       </c>
       <c r="P13" t="n">
-        <v>83.20835482370272</v>
+        <v>81.92442524917729</v>
       </c>
       <c r="Q13" t="n">
-        <v>57.60915185516583</v>
+        <v>56.72022556901476</v>
       </c>
       <c r="R13" t="n">
-        <v>30.93419444964174</v>
+        <v>30.45687066163792</v>
       </c>
       <c r="S13" t="n">
-        <v>11.98965846339733</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T13" t="n">
-        <v>2.939561542929968</v>
+        <v>2.894203237155241</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.0369472753679393</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.533738942531619</v>
+        <v>1.510072896110079</v>
       </c>
       <c r="H14" t="n">
-        <v>15.70740394520195</v>
+        <v>15.46503404728735</v>
       </c>
       <c r="I14" t="n">
-        <v>59.12947058195031</v>
+        <v>58.21708532728389</v>
       </c>
       <c r="J14" t="n">
-        <v>130.1741755736931</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K14" t="n">
-        <v>195.0973450110566</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L14" t="n">
-        <v>242.0355081735587</v>
+        <v>238.3008285528915</v>
       </c>
       <c r="M14" t="n">
-        <v>269.3111380928054</v>
+        <v>265.1555874190892</v>
       </c>
       <c r="N14" t="n">
-        <v>273.6688738632733</v>
+        <v>269.446082035162</v>
       </c>
       <c r="O14" t="n">
-        <v>258.4177572534746</v>
+        <v>254.4302946744673</v>
       </c>
       <c r="P14" t="n">
-        <v>220.5535771097252</v>
+        <v>217.1503700517497</v>
       </c>
       <c r="Q14" t="n">
-        <v>165.6265512303115</v>
+        <v>163.0708844598074</v>
       </c>
       <c r="R14" t="n">
-        <v>96.34372884880192</v>
+        <v>94.85711656027485</v>
       </c>
       <c r="S14" t="n">
-        <v>34.95007615293931</v>
+        <v>34.41078612010847</v>
       </c>
       <c r="T14" t="n">
-        <v>6.713942220932166</v>
+        <v>6.610344102721875</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.1208058316888063</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8206226804309515</v>
+        <v>0.8079602292724831</v>
       </c>
       <c r="H15" t="n">
-        <v>7.925487466267348</v>
+        <v>7.803194845868457</v>
       </c>
       <c r="I15" t="n">
-        <v>28.25389491834636</v>
+        <v>27.81792894644295</v>
       </c>
       <c r="J15" t="n">
-        <v>77.53084718931197</v>
+        <v>76.33452324016913</v>
       </c>
       <c r="K15" t="n">
-        <v>132.5125667781857</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L15" t="n">
-        <v>178.1794990997116</v>
+        <v>175.430136623396</v>
       </c>
       <c r="M15" t="n">
-        <v>207.9270712653336</v>
+        <v>204.7186949345234</v>
       </c>
       <c r="N15" t="n">
-        <v>213.4302821354166</v>
+        <v>210.1369896299517</v>
       </c>
       <c r="O15" t="n">
-        <v>195.2470111637624</v>
+        <v>192.2342919181771</v>
       </c>
       <c r="P15" t="n">
-        <v>156.7029397394858</v>
+        <v>154.2849669388832</v>
       </c>
       <c r="Q15" t="n">
-        <v>104.7517653125544</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R15" t="n">
-        <v>50.95059063237085</v>
+        <v>50.16440791921612</v>
       </c>
       <c r="S15" t="n">
-        <v>15.24270636677666</v>
+        <v>15.00750689021475</v>
       </c>
       <c r="T15" t="n">
-        <v>3.307685277701948</v>
+        <v>3.256646713602683</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05315527824161075</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.6773667150788864</v>
       </c>
       <c r="H16" t="n">
-        <v>6.116789763798959</v>
+        <v>6.022405884974104</v>
       </c>
       <c r="I16" t="n">
-        <v>20.68950975321774</v>
+        <v>20.37026448619052</v>
       </c>
       <c r="J16" t="n">
-        <v>48.64036195609864</v>
+        <v>47.88982675607727</v>
       </c>
       <c r="K16" t="n">
-        <v>79.93105642264891</v>
+        <v>78.6976965337106</v>
       </c>
       <c r="L16" t="n">
-        <v>102.2842329214398</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M16" t="n">
-        <v>107.8443823079605</v>
+        <v>106.1803115282294</v>
       </c>
       <c r="N16" t="n">
-        <v>105.2800839407238</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O16" t="n">
-        <v>97.243197594628</v>
+        <v>95.74270623678663</v>
       </c>
       <c r="P16" t="n">
-        <v>83.20835482370272</v>
+        <v>81.92442524917729</v>
       </c>
       <c r="Q16" t="n">
-        <v>57.60915185516583</v>
+        <v>56.72022556901476</v>
       </c>
       <c r="R16" t="n">
-        <v>30.93419444964174</v>
+        <v>30.45687066163792</v>
       </c>
       <c r="S16" t="n">
-        <v>11.98965846339734</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T16" t="n">
-        <v>2.939561542929968</v>
+        <v>2.894203237155241</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.0369472753679393</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.533738942531619</v>
+        <v>1.510072896110079</v>
       </c>
       <c r="H17" t="n">
-        <v>15.70740394520195</v>
+        <v>15.46503404728735</v>
       </c>
       <c r="I17" t="n">
-        <v>59.12947058195031</v>
+        <v>58.21708532728389</v>
       </c>
       <c r="J17" t="n">
-        <v>130.1741755736931</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K17" t="n">
-        <v>195.0973450110566</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L17" t="n">
-        <v>242.0355081735587</v>
+        <v>238.3008285528915</v>
       </c>
       <c r="M17" t="n">
-        <v>269.3111380928054</v>
+        <v>265.1555874190892</v>
       </c>
       <c r="N17" t="n">
-        <v>273.6688738632734</v>
+        <v>269.446082035162</v>
       </c>
       <c r="O17" t="n">
-        <v>258.4177572534746</v>
+        <v>254.4302946744673</v>
       </c>
       <c r="P17" t="n">
-        <v>220.5535771097252</v>
+        <v>217.1503700517497</v>
       </c>
       <c r="Q17" t="n">
-        <v>165.6265512303115</v>
+        <v>163.0708844598074</v>
       </c>
       <c r="R17" t="n">
-        <v>96.34372884880192</v>
+        <v>94.85711656027485</v>
       </c>
       <c r="S17" t="n">
-        <v>34.95007615293931</v>
+        <v>34.41078612010847</v>
       </c>
       <c r="T17" t="n">
-        <v>6.713942220932167</v>
+        <v>6.610344102721875</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.1208058316888063</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.8079602292724831</v>
       </c>
       <c r="H18" t="n">
-        <v>7.925487466267349</v>
+        <v>7.803194845868457</v>
       </c>
       <c r="I18" t="n">
-        <v>28.25389491834636</v>
+        <v>27.81792894644295</v>
       </c>
       <c r="J18" t="n">
-        <v>77.53084718931197</v>
+        <v>76.33452324016913</v>
       </c>
       <c r="K18" t="n">
-        <v>132.5125667781857</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L18" t="n">
-        <v>178.1794990997116</v>
+        <v>175.430136623396</v>
       </c>
       <c r="M18" t="n">
-        <v>207.9270712653336</v>
+        <v>204.7186949345234</v>
       </c>
       <c r="N18" t="n">
-        <v>213.4302821354166</v>
+        <v>210.1369896299517</v>
       </c>
       <c r="O18" t="n">
-        <v>195.2470111637624</v>
+        <v>192.2342919181771</v>
       </c>
       <c r="P18" t="n">
-        <v>156.7029397394858</v>
+        <v>154.2849669388832</v>
       </c>
       <c r="Q18" t="n">
-        <v>104.7517653125544</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R18" t="n">
-        <v>50.95059063237085</v>
+        <v>50.16440791921612</v>
       </c>
       <c r="S18" t="n">
-        <v>15.24270636677665</v>
+        <v>15.00750689021475</v>
       </c>
       <c r="T18" t="n">
-        <v>3.307685277701948</v>
+        <v>3.256646713602683</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05315527824161075</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.6773667150788864</v>
       </c>
       <c r="H19" t="n">
-        <v>6.116789763798959</v>
+        <v>6.022405884974104</v>
       </c>
       <c r="I19" t="n">
-        <v>20.68950975321774</v>
+        <v>20.37026448619052</v>
       </c>
       <c r="J19" t="n">
-        <v>48.64036195609864</v>
+        <v>47.88982675607727</v>
       </c>
       <c r="K19" t="n">
-        <v>79.93105642264891</v>
+        <v>78.6976965337106</v>
       </c>
       <c r="L19" t="n">
-        <v>102.2842329214398</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M19" t="n">
-        <v>107.8443823079605</v>
+        <v>106.1803115282294</v>
       </c>
       <c r="N19" t="n">
-        <v>105.2800839407238</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O19" t="n">
-        <v>97.243197594628</v>
+        <v>95.74270623678663</v>
       </c>
       <c r="P19" t="n">
-        <v>83.20835482370272</v>
+        <v>81.92442524917729</v>
       </c>
       <c r="Q19" t="n">
-        <v>57.60915185516583</v>
+        <v>56.72022556901476</v>
       </c>
       <c r="R19" t="n">
-        <v>30.93419444964174</v>
+        <v>30.45687066163792</v>
       </c>
       <c r="S19" t="n">
-        <v>11.98965846339733</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T19" t="n">
-        <v>2.939561542929968</v>
+        <v>2.894203237155241</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.0369472753679393</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.533738942531619</v>
+        <v>1.510072896110079</v>
       </c>
       <c r="H20" t="n">
-        <v>15.70740394520195</v>
+        <v>15.46503404728735</v>
       </c>
       <c r="I20" t="n">
-        <v>59.12947058195031</v>
+        <v>58.21708532728389</v>
       </c>
       <c r="J20" t="n">
-        <v>130.1741755736931</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K20" t="n">
-        <v>195.0973450110566</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L20" t="n">
-        <v>242.0355081735587</v>
+        <v>238.3008285528915</v>
       </c>
       <c r="M20" t="n">
-        <v>269.3111380928054</v>
+        <v>265.1555874190892</v>
       </c>
       <c r="N20" t="n">
-        <v>273.6688738632734</v>
+        <v>269.446082035162</v>
       </c>
       <c r="O20" t="n">
-        <v>258.4177572534746</v>
+        <v>254.4302946744673</v>
       </c>
       <c r="P20" t="n">
-        <v>220.5535771097252</v>
+        <v>217.1503700517497</v>
       </c>
       <c r="Q20" t="n">
-        <v>165.6265512303115</v>
+        <v>163.0708844598074</v>
       </c>
       <c r="R20" t="n">
-        <v>96.34372884880192</v>
+        <v>94.85711656027485</v>
       </c>
       <c r="S20" t="n">
-        <v>34.95007615293931</v>
+        <v>34.41078612010847</v>
       </c>
       <c r="T20" t="n">
-        <v>6.713942220932167</v>
+        <v>6.610344102721875</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.1208058316888063</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.8079602292724831</v>
       </c>
       <c r="H21" t="n">
-        <v>7.925487466267349</v>
+        <v>7.803194845868457</v>
       </c>
       <c r="I21" t="n">
-        <v>28.25389491834636</v>
+        <v>27.81792894644295</v>
       </c>
       <c r="J21" t="n">
-        <v>77.53084718931197</v>
+        <v>76.33452324016913</v>
       </c>
       <c r="K21" t="n">
-        <v>132.5125667781857</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L21" t="n">
-        <v>178.1794990997116</v>
+        <v>175.430136623396</v>
       </c>
       <c r="M21" t="n">
-        <v>207.9270712653336</v>
+        <v>204.7186949345234</v>
       </c>
       <c r="N21" t="n">
-        <v>213.4302821354166</v>
+        <v>210.1369896299517</v>
       </c>
       <c r="O21" t="n">
-        <v>195.2470111637624</v>
+        <v>192.2342919181771</v>
       </c>
       <c r="P21" t="n">
-        <v>156.7029397394858</v>
+        <v>154.2849669388832</v>
       </c>
       <c r="Q21" t="n">
-        <v>104.7517653125544</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R21" t="n">
-        <v>50.95059063237085</v>
+        <v>50.16440791921612</v>
       </c>
       <c r="S21" t="n">
-        <v>15.24270636677665</v>
+        <v>15.00750689021475</v>
       </c>
       <c r="T21" t="n">
-        <v>3.307685277701948</v>
+        <v>3.256646713602683</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05315527824161075</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.6773667150788864</v>
       </c>
       <c r="H22" t="n">
-        <v>6.116789763798959</v>
+        <v>6.022405884974104</v>
       </c>
       <c r="I22" t="n">
-        <v>20.68950975321774</v>
+        <v>20.37026448619052</v>
       </c>
       <c r="J22" t="n">
-        <v>48.64036195609864</v>
+        <v>47.88982675607727</v>
       </c>
       <c r="K22" t="n">
-        <v>79.93105642264891</v>
+        <v>78.6976965337106</v>
       </c>
       <c r="L22" t="n">
-        <v>102.2842329214398</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M22" t="n">
-        <v>107.8443823079605</v>
+        <v>106.1803115282294</v>
       </c>
       <c r="N22" t="n">
-        <v>105.2800839407238</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O22" t="n">
-        <v>97.243197594628</v>
+        <v>95.74270623678663</v>
       </c>
       <c r="P22" t="n">
-        <v>83.20835482370272</v>
+        <v>81.92442524917729</v>
       </c>
       <c r="Q22" t="n">
-        <v>57.60915185516583</v>
+        <v>56.72022556901476</v>
       </c>
       <c r="R22" t="n">
-        <v>30.93419444964174</v>
+        <v>30.45687066163792</v>
       </c>
       <c r="S22" t="n">
-        <v>11.98965846339733</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T22" t="n">
-        <v>2.939561542929968</v>
+        <v>2.894203237155241</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.0369472753679393</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.533738942531619</v>
+        <v>1.510072896110079</v>
       </c>
       <c r="H23" t="n">
-        <v>15.70740394520195</v>
+        <v>15.46503404728735</v>
       </c>
       <c r="I23" t="n">
-        <v>59.12947058195031</v>
+        <v>58.21708532728389</v>
       </c>
       <c r="J23" t="n">
-        <v>130.1741755736931</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K23" t="n">
-        <v>195.0973450110566</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L23" t="n">
-        <v>242.0355081735587</v>
+        <v>238.3008285528915</v>
       </c>
       <c r="M23" t="n">
-        <v>269.3111380928054</v>
+        <v>265.1555874190892</v>
       </c>
       <c r="N23" t="n">
-        <v>273.6688738632734</v>
+        <v>269.446082035162</v>
       </c>
       <c r="O23" t="n">
-        <v>258.4177572534746</v>
+        <v>254.4302946744673</v>
       </c>
       <c r="P23" t="n">
-        <v>220.5535771097252</v>
+        <v>217.1503700517497</v>
       </c>
       <c r="Q23" t="n">
-        <v>165.6265512303115</v>
+        <v>163.0708844598074</v>
       </c>
       <c r="R23" t="n">
-        <v>96.34372884880192</v>
+        <v>94.85711656027485</v>
       </c>
       <c r="S23" t="n">
-        <v>34.95007615293931</v>
+        <v>34.41078612010847</v>
       </c>
       <c r="T23" t="n">
-        <v>6.713942220932167</v>
+        <v>6.610344102721875</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.1208058316888063</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.8079602292724831</v>
       </c>
       <c r="H24" t="n">
-        <v>7.925487466267349</v>
+        <v>7.803194845868457</v>
       </c>
       <c r="I24" t="n">
-        <v>28.25389491834636</v>
+        <v>27.81792894644295</v>
       </c>
       <c r="J24" t="n">
-        <v>77.53084718931197</v>
+        <v>76.33452324016913</v>
       </c>
       <c r="K24" t="n">
-        <v>132.5125667781857</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L24" t="n">
-        <v>178.1794990997116</v>
+        <v>175.430136623396</v>
       </c>
       <c r="M24" t="n">
-        <v>207.9270712653336</v>
+        <v>204.7186949345234</v>
       </c>
       <c r="N24" t="n">
-        <v>213.4302821354166</v>
+        <v>210.1369896299517</v>
       </c>
       <c r="O24" t="n">
-        <v>195.2470111637624</v>
+        <v>192.2342919181771</v>
       </c>
       <c r="P24" t="n">
-        <v>156.7029397394858</v>
+        <v>154.2849669388832</v>
       </c>
       <c r="Q24" t="n">
-        <v>104.7517653125544</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R24" t="n">
-        <v>50.95059063237085</v>
+        <v>50.16440791921612</v>
       </c>
       <c r="S24" t="n">
-        <v>15.24270636677665</v>
+        <v>15.00750689021475</v>
       </c>
       <c r="T24" t="n">
-        <v>3.307685277701948</v>
+        <v>3.256646713602683</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05315527824161075</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.6773667150788864</v>
       </c>
       <c r="H25" t="n">
-        <v>6.116789763798959</v>
+        <v>6.022405884974104</v>
       </c>
       <c r="I25" t="n">
-        <v>20.68950975321774</v>
+        <v>20.37026448619052</v>
       </c>
       <c r="J25" t="n">
-        <v>48.64036195609864</v>
+        <v>47.88982675607727</v>
       </c>
       <c r="K25" t="n">
-        <v>79.93105642264891</v>
+        <v>78.6976965337106</v>
       </c>
       <c r="L25" t="n">
-        <v>102.2842329214398</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M25" t="n">
-        <v>107.8443823079605</v>
+        <v>106.1803115282294</v>
       </c>
       <c r="N25" t="n">
-        <v>105.2800839407238</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O25" t="n">
-        <v>97.243197594628</v>
+        <v>95.74270623678663</v>
       </c>
       <c r="P25" t="n">
-        <v>83.20835482370272</v>
+        <v>81.92442524917729</v>
       </c>
       <c r="Q25" t="n">
-        <v>57.60915185516583</v>
+        <v>56.72022556901476</v>
       </c>
       <c r="R25" t="n">
-        <v>30.93419444964174</v>
+        <v>30.45687066163792</v>
       </c>
       <c r="S25" t="n">
-        <v>11.98965846339733</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T25" t="n">
-        <v>2.939561542929968</v>
+        <v>2.894203237155241</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.0369472753679393</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.533738942531619</v>
+        <v>1.510072896110079</v>
       </c>
       <c r="H26" t="n">
-        <v>15.70740394520195</v>
+        <v>15.46503404728735</v>
       </c>
       <c r="I26" t="n">
-        <v>59.12947058195031</v>
+        <v>58.21708532728389</v>
       </c>
       <c r="J26" t="n">
-        <v>130.1741755736931</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K26" t="n">
-        <v>195.0973450110566</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L26" t="n">
-        <v>242.0355081735587</v>
+        <v>238.3008285528915</v>
       </c>
       <c r="M26" t="n">
-        <v>269.3111380928054</v>
+        <v>265.1555874190892</v>
       </c>
       <c r="N26" t="n">
-        <v>273.6688738632734</v>
+        <v>269.446082035162</v>
       </c>
       <c r="O26" t="n">
-        <v>258.4177572534746</v>
+        <v>254.4302946744673</v>
       </c>
       <c r="P26" t="n">
-        <v>220.5535771097252</v>
+        <v>217.1503700517497</v>
       </c>
       <c r="Q26" t="n">
-        <v>165.6265512303115</v>
+        <v>163.0708844598074</v>
       </c>
       <c r="R26" t="n">
-        <v>96.34372884880192</v>
+        <v>94.85711656027485</v>
       </c>
       <c r="S26" t="n">
-        <v>34.95007615293931</v>
+        <v>34.41078612010847</v>
       </c>
       <c r="T26" t="n">
-        <v>6.713942220932167</v>
+        <v>6.610344102721875</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.1208058316888063</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.8079602292724831</v>
       </c>
       <c r="H27" t="n">
-        <v>7.925487466267349</v>
+        <v>7.803194845868457</v>
       </c>
       <c r="I27" t="n">
-        <v>28.25389491834636</v>
+        <v>27.81792894644295</v>
       </c>
       <c r="J27" t="n">
-        <v>77.53084718931197</v>
+        <v>76.33452324016913</v>
       </c>
       <c r="K27" t="n">
-        <v>132.5125667781857</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L27" t="n">
-        <v>178.1794990997116</v>
+        <v>175.430136623396</v>
       </c>
       <c r="M27" t="n">
-        <v>207.9270712653336</v>
+        <v>204.7186949345234</v>
       </c>
       <c r="N27" t="n">
-        <v>213.4302821354166</v>
+        <v>210.1369896299517</v>
       </c>
       <c r="O27" t="n">
-        <v>195.2470111637624</v>
+        <v>192.2342919181771</v>
       </c>
       <c r="P27" t="n">
-        <v>156.7029397394858</v>
+        <v>154.2849669388832</v>
       </c>
       <c r="Q27" t="n">
-        <v>104.7517653125544</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R27" t="n">
-        <v>50.95059063237085</v>
+        <v>50.16440791921612</v>
       </c>
       <c r="S27" t="n">
-        <v>15.24270636677665</v>
+        <v>15.00750689021475</v>
       </c>
       <c r="T27" t="n">
-        <v>3.307685277701948</v>
+        <v>3.256646713602683</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05315527824161075</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.6773667150788864</v>
       </c>
       <c r="H28" t="n">
-        <v>6.116789763798959</v>
+        <v>6.022405884974104</v>
       </c>
       <c r="I28" t="n">
-        <v>20.68950975321774</v>
+        <v>20.37026448619052</v>
       </c>
       <c r="J28" t="n">
-        <v>48.64036195609864</v>
+        <v>47.88982675607727</v>
       </c>
       <c r="K28" t="n">
-        <v>79.93105642264891</v>
+        <v>78.6976965337106</v>
       </c>
       <c r="L28" t="n">
-        <v>102.2842329214398</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M28" t="n">
-        <v>107.8443823079605</v>
+        <v>106.1803115282294</v>
       </c>
       <c r="N28" t="n">
-        <v>105.2800839407238</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O28" t="n">
-        <v>97.243197594628</v>
+        <v>95.74270623678663</v>
       </c>
       <c r="P28" t="n">
-        <v>83.20835482370272</v>
+        <v>81.92442524917729</v>
       </c>
       <c r="Q28" t="n">
-        <v>57.60915185516583</v>
+        <v>56.72022556901476</v>
       </c>
       <c r="R28" t="n">
-        <v>30.93419444964174</v>
+        <v>30.45687066163792</v>
       </c>
       <c r="S28" t="n">
-        <v>11.98965846339733</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T28" t="n">
-        <v>2.939561542929968</v>
+        <v>2.894203237155241</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.0369472753679393</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.533738942531619</v>
+        <v>1.510072896110079</v>
       </c>
       <c r="H29" t="n">
-        <v>15.70740394520195</v>
+        <v>15.46503404728735</v>
       </c>
       <c r="I29" t="n">
-        <v>59.12947058195031</v>
+        <v>58.21708532728389</v>
       </c>
       <c r="J29" t="n">
-        <v>130.1741755736931</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K29" t="n">
-        <v>195.0973450110566</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L29" t="n">
-        <v>242.0355081735587</v>
+        <v>238.3008285528915</v>
       </c>
       <c r="M29" t="n">
-        <v>269.3111380928054</v>
+        <v>265.1555874190892</v>
       </c>
       <c r="N29" t="n">
-        <v>273.6688738632734</v>
+        <v>269.446082035162</v>
       </c>
       <c r="O29" t="n">
-        <v>258.4177572534746</v>
+        <v>254.4302946744673</v>
       </c>
       <c r="P29" t="n">
-        <v>220.5535771097252</v>
+        <v>217.1503700517497</v>
       </c>
       <c r="Q29" t="n">
-        <v>165.6265512303115</v>
+        <v>163.0708844598074</v>
       </c>
       <c r="R29" t="n">
-        <v>96.34372884880192</v>
+        <v>94.85711656027485</v>
       </c>
       <c r="S29" t="n">
-        <v>34.95007615293931</v>
+        <v>34.41078612010847</v>
       </c>
       <c r="T29" t="n">
-        <v>6.713942220932167</v>
+        <v>6.610344102721875</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.1208058316888063</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.8079602292724831</v>
       </c>
       <c r="H30" t="n">
-        <v>7.925487466267349</v>
+        <v>7.803194845868457</v>
       </c>
       <c r="I30" t="n">
-        <v>28.25389491834636</v>
+        <v>27.81792894644295</v>
       </c>
       <c r="J30" t="n">
-        <v>77.53084718931197</v>
+        <v>76.33452324016913</v>
       </c>
       <c r="K30" t="n">
-        <v>132.5125667781857</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L30" t="n">
-        <v>178.1794990997116</v>
+        <v>175.430136623396</v>
       </c>
       <c r="M30" t="n">
-        <v>207.9270712653336</v>
+        <v>204.7186949345234</v>
       </c>
       <c r="N30" t="n">
-        <v>213.4302821354166</v>
+        <v>210.1369896299517</v>
       </c>
       <c r="O30" t="n">
-        <v>195.2470111637624</v>
+        <v>192.2342919181771</v>
       </c>
       <c r="P30" t="n">
-        <v>156.7029397394858</v>
+        <v>154.2849669388832</v>
       </c>
       <c r="Q30" t="n">
-        <v>104.7517653125544</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R30" t="n">
-        <v>50.95059063237085</v>
+        <v>50.16440791921612</v>
       </c>
       <c r="S30" t="n">
-        <v>15.24270636677665</v>
+        <v>15.00750689021475</v>
       </c>
       <c r="T30" t="n">
-        <v>3.307685277701948</v>
+        <v>3.256646713602683</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05315527824161075</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.6773667150788864</v>
       </c>
       <c r="H31" t="n">
-        <v>6.116789763798959</v>
+        <v>6.022405884974104</v>
       </c>
       <c r="I31" t="n">
-        <v>20.68950975321774</v>
+        <v>20.37026448619052</v>
       </c>
       <c r="J31" t="n">
-        <v>48.64036195609864</v>
+        <v>47.88982675607727</v>
       </c>
       <c r="K31" t="n">
-        <v>79.93105642264891</v>
+        <v>78.6976965337106</v>
       </c>
       <c r="L31" t="n">
-        <v>102.2842329214398</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M31" t="n">
-        <v>107.8443823079605</v>
+        <v>106.1803115282294</v>
       </c>
       <c r="N31" t="n">
-        <v>105.2800839407238</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O31" t="n">
-        <v>97.243197594628</v>
+        <v>95.74270623678663</v>
       </c>
       <c r="P31" t="n">
-        <v>83.20835482370272</v>
+        <v>81.92442524917729</v>
       </c>
       <c r="Q31" t="n">
-        <v>57.60915185516583</v>
+        <v>56.72022556901476</v>
       </c>
       <c r="R31" t="n">
-        <v>30.93419444964174</v>
+        <v>30.45687066163792</v>
       </c>
       <c r="S31" t="n">
-        <v>11.98965846339733</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T31" t="n">
-        <v>2.939561542929968</v>
+        <v>2.894203237155241</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.0369472753679393</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.533738942531619</v>
+        <v>1.510072896110079</v>
       </c>
       <c r="H32" t="n">
-        <v>15.70740394520195</v>
+        <v>15.46503404728735</v>
       </c>
       <c r="I32" t="n">
-        <v>59.12947058195031</v>
+        <v>58.21708532728389</v>
       </c>
       <c r="J32" t="n">
-        <v>130.1741755736931</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K32" t="n">
-        <v>195.0973450110566</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L32" t="n">
-        <v>242.0355081735587</v>
+        <v>238.3008285528915</v>
       </c>
       <c r="M32" t="n">
-        <v>269.3111380928054</v>
+        <v>265.1555874190892</v>
       </c>
       <c r="N32" t="n">
-        <v>273.6688738632734</v>
+        <v>269.446082035162</v>
       </c>
       <c r="O32" t="n">
-        <v>258.4177572534746</v>
+        <v>254.4302946744673</v>
       </c>
       <c r="P32" t="n">
-        <v>220.5535771097252</v>
+        <v>217.1503700517497</v>
       </c>
       <c r="Q32" t="n">
-        <v>165.6265512303115</v>
+        <v>163.0708844598074</v>
       </c>
       <c r="R32" t="n">
-        <v>96.34372884880192</v>
+        <v>94.85711656027485</v>
       </c>
       <c r="S32" t="n">
-        <v>34.95007615293931</v>
+        <v>34.41078612010847</v>
       </c>
       <c r="T32" t="n">
-        <v>6.713942220932167</v>
+        <v>6.610344102721875</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.1208058316888063</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.8079602292724831</v>
       </c>
       <c r="H33" t="n">
-        <v>7.925487466267349</v>
+        <v>7.803194845868457</v>
       </c>
       <c r="I33" t="n">
-        <v>28.25389491834636</v>
+        <v>27.81792894644295</v>
       </c>
       <c r="J33" t="n">
-        <v>77.53084718931197</v>
+        <v>76.33452324016913</v>
       </c>
       <c r="K33" t="n">
-        <v>132.5125667781857</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L33" t="n">
-        <v>178.1794990997116</v>
+        <v>175.430136623396</v>
       </c>
       <c r="M33" t="n">
-        <v>207.9270712653336</v>
+        <v>204.7186949345234</v>
       </c>
       <c r="N33" t="n">
-        <v>213.4302821354166</v>
+        <v>210.1369896299517</v>
       </c>
       <c r="O33" t="n">
-        <v>195.2470111637624</v>
+        <v>192.2342919181771</v>
       </c>
       <c r="P33" t="n">
-        <v>156.7029397394858</v>
+        <v>154.2849669388832</v>
       </c>
       <c r="Q33" t="n">
-        <v>104.7517653125544</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R33" t="n">
-        <v>50.95059063237085</v>
+        <v>50.16440791921612</v>
       </c>
       <c r="S33" t="n">
-        <v>15.24270636677665</v>
+        <v>15.00750689021475</v>
       </c>
       <c r="T33" t="n">
-        <v>3.307685277701948</v>
+        <v>3.256646713602683</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05315527824161075</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.6773667150788864</v>
       </c>
       <c r="H34" t="n">
-        <v>6.116789763798959</v>
+        <v>6.022405884974104</v>
       </c>
       <c r="I34" t="n">
-        <v>20.68950975321774</v>
+        <v>20.37026448619052</v>
       </c>
       <c r="J34" t="n">
-        <v>48.64036195609864</v>
+        <v>47.88982675607727</v>
       </c>
       <c r="K34" t="n">
-        <v>79.93105642264891</v>
+        <v>78.6976965337106</v>
       </c>
       <c r="L34" t="n">
-        <v>102.2842329214398</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M34" t="n">
-        <v>107.8443823079605</v>
+        <v>106.1803115282294</v>
       </c>
       <c r="N34" t="n">
-        <v>105.2800839407238</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O34" t="n">
-        <v>97.243197594628</v>
+        <v>95.74270623678663</v>
       </c>
       <c r="P34" t="n">
-        <v>83.20835482370272</v>
+        <v>81.92442524917729</v>
       </c>
       <c r="Q34" t="n">
-        <v>57.60915185516583</v>
+        <v>56.72022556901476</v>
       </c>
       <c r="R34" t="n">
-        <v>30.93419444964174</v>
+        <v>30.45687066163792</v>
       </c>
       <c r="S34" t="n">
-        <v>11.98965846339733</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T34" t="n">
-        <v>2.939561542929968</v>
+        <v>2.894203237155241</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.0369472753679393</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.533738942531619</v>
+        <v>1.510072896110079</v>
       </c>
       <c r="H35" t="n">
-        <v>15.70740394520195</v>
+        <v>15.46503404728735</v>
       </c>
       <c r="I35" t="n">
-        <v>59.12947058195031</v>
+        <v>58.21708532728389</v>
       </c>
       <c r="J35" t="n">
-        <v>130.1741755736931</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K35" t="n">
-        <v>195.0973450110566</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L35" t="n">
-        <v>242.0355081735587</v>
+        <v>238.3008285528915</v>
       </c>
       <c r="M35" t="n">
-        <v>269.3111380928054</v>
+        <v>265.1555874190892</v>
       </c>
       <c r="N35" t="n">
-        <v>273.6688738632734</v>
+        <v>269.446082035162</v>
       </c>
       <c r="O35" t="n">
-        <v>258.4177572534746</v>
+        <v>254.4302946744673</v>
       </c>
       <c r="P35" t="n">
-        <v>220.5535771097252</v>
+        <v>217.1503700517497</v>
       </c>
       <c r="Q35" t="n">
-        <v>165.6265512303115</v>
+        <v>163.0708844598074</v>
       </c>
       <c r="R35" t="n">
-        <v>96.34372884880192</v>
+        <v>94.85711656027485</v>
       </c>
       <c r="S35" t="n">
-        <v>34.95007615293931</v>
+        <v>34.41078612010847</v>
       </c>
       <c r="T35" t="n">
-        <v>6.713942220932167</v>
+        <v>6.610344102721875</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.1208058316888063</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.8079602292724831</v>
       </c>
       <c r="H36" t="n">
-        <v>7.925487466267349</v>
+        <v>7.803194845868457</v>
       </c>
       <c r="I36" t="n">
-        <v>28.25389491834636</v>
+        <v>27.81792894644295</v>
       </c>
       <c r="J36" t="n">
-        <v>77.53084718931197</v>
+        <v>76.33452324016913</v>
       </c>
       <c r="K36" t="n">
-        <v>132.5125667781857</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L36" t="n">
-        <v>178.1794990997116</v>
+        <v>175.430136623396</v>
       </c>
       <c r="M36" t="n">
-        <v>207.9270712653336</v>
+        <v>204.7186949345234</v>
       </c>
       <c r="N36" t="n">
-        <v>213.4302821354166</v>
+        <v>210.1369896299517</v>
       </c>
       <c r="O36" t="n">
-        <v>195.2470111637624</v>
+        <v>192.2342919181771</v>
       </c>
       <c r="P36" t="n">
-        <v>156.7029397394858</v>
+        <v>154.2849669388832</v>
       </c>
       <c r="Q36" t="n">
-        <v>104.7517653125544</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R36" t="n">
-        <v>50.95059063237085</v>
+        <v>50.16440791921612</v>
       </c>
       <c r="S36" t="n">
-        <v>15.24270636677665</v>
+        <v>15.00750689021475</v>
       </c>
       <c r="T36" t="n">
-        <v>3.307685277701948</v>
+        <v>3.256646713602683</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05315527824161075</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.6773667150788864</v>
       </c>
       <c r="H37" t="n">
-        <v>6.116789763798959</v>
+        <v>6.022405884974104</v>
       </c>
       <c r="I37" t="n">
-        <v>20.68950975321774</v>
+        <v>20.37026448619052</v>
       </c>
       <c r="J37" t="n">
-        <v>48.64036195609864</v>
+        <v>47.88982675607727</v>
       </c>
       <c r="K37" t="n">
-        <v>79.93105642264891</v>
+        <v>78.6976965337106</v>
       </c>
       <c r="L37" t="n">
-        <v>102.2842329214398</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M37" t="n">
-        <v>107.8443823079605</v>
+        <v>106.1803115282294</v>
       </c>
       <c r="N37" t="n">
-        <v>105.2800839407238</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O37" t="n">
-        <v>97.243197594628</v>
+        <v>95.74270623678663</v>
       </c>
       <c r="P37" t="n">
-        <v>83.20835482370272</v>
+        <v>81.92442524917729</v>
       </c>
       <c r="Q37" t="n">
-        <v>57.60915185516583</v>
+        <v>56.72022556901476</v>
       </c>
       <c r="R37" t="n">
-        <v>30.93419444964174</v>
+        <v>30.45687066163792</v>
       </c>
       <c r="S37" t="n">
-        <v>11.98965846339733</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T37" t="n">
-        <v>2.939561542929968</v>
+        <v>2.894203237155241</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.0369472753679393</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.533738942531619</v>
+        <v>1.510072896110079</v>
       </c>
       <c r="H38" t="n">
-        <v>15.70740394520195</v>
+        <v>15.46503404728735</v>
       </c>
       <c r="I38" t="n">
-        <v>59.12947058195031</v>
+        <v>58.21708532728389</v>
       </c>
       <c r="J38" t="n">
-        <v>130.1741755736931</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K38" t="n">
-        <v>195.0973450110566</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L38" t="n">
-        <v>242.0355081735587</v>
+        <v>238.3008285528915</v>
       </c>
       <c r="M38" t="n">
-        <v>269.3111380928054</v>
+        <v>265.1555874190892</v>
       </c>
       <c r="N38" t="n">
-        <v>273.6688738632734</v>
+        <v>269.446082035162</v>
       </c>
       <c r="O38" t="n">
-        <v>258.4177572534746</v>
+        <v>254.4302946744673</v>
       </c>
       <c r="P38" t="n">
-        <v>220.5535771097252</v>
+        <v>217.1503700517497</v>
       </c>
       <c r="Q38" t="n">
-        <v>165.6265512303115</v>
+        <v>163.0708844598074</v>
       </c>
       <c r="R38" t="n">
-        <v>96.34372884880192</v>
+        <v>94.85711656027485</v>
       </c>
       <c r="S38" t="n">
-        <v>34.95007615293931</v>
+        <v>34.41078612010847</v>
       </c>
       <c r="T38" t="n">
-        <v>6.713942220932167</v>
+        <v>6.610344102721875</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.1208058316888063</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.8079602292724831</v>
       </c>
       <c r="H39" t="n">
-        <v>7.925487466267349</v>
+        <v>7.803194845868457</v>
       </c>
       <c r="I39" t="n">
-        <v>28.25389491834636</v>
+        <v>27.81792894644295</v>
       </c>
       <c r="J39" t="n">
-        <v>77.53084718931197</v>
+        <v>76.33452324016913</v>
       </c>
       <c r="K39" t="n">
-        <v>132.5125667781857</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L39" t="n">
-        <v>178.1794990997116</v>
+        <v>175.430136623396</v>
       </c>
       <c r="M39" t="n">
-        <v>207.9270712653336</v>
+        <v>204.7186949345234</v>
       </c>
       <c r="N39" t="n">
-        <v>213.4302821354166</v>
+        <v>210.1369896299517</v>
       </c>
       <c r="O39" t="n">
-        <v>195.2470111637624</v>
+        <v>192.2342919181771</v>
       </c>
       <c r="P39" t="n">
-        <v>156.7029397394858</v>
+        <v>154.2849669388832</v>
       </c>
       <c r="Q39" t="n">
-        <v>104.7517653125544</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R39" t="n">
-        <v>50.95059063237085</v>
+        <v>50.16440791921612</v>
       </c>
       <c r="S39" t="n">
-        <v>15.24270636677665</v>
+        <v>15.00750689021475</v>
       </c>
       <c r="T39" t="n">
-        <v>3.307685277701948</v>
+        <v>3.256646713602683</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05315527824161075</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.6773667150788864</v>
       </c>
       <c r="H40" t="n">
-        <v>6.116789763798959</v>
+        <v>6.022405884974104</v>
       </c>
       <c r="I40" t="n">
-        <v>20.68950975321774</v>
+        <v>20.37026448619052</v>
       </c>
       <c r="J40" t="n">
-        <v>48.64036195609864</v>
+        <v>47.88982675607727</v>
       </c>
       <c r="K40" t="n">
-        <v>79.93105642264891</v>
+        <v>78.6976965337106</v>
       </c>
       <c r="L40" t="n">
-        <v>102.2842329214398</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M40" t="n">
-        <v>107.8443823079605</v>
+        <v>106.1803115282294</v>
       </c>
       <c r="N40" t="n">
-        <v>105.2800839407238</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O40" t="n">
-        <v>97.243197594628</v>
+        <v>95.74270623678663</v>
       </c>
       <c r="P40" t="n">
-        <v>83.20835482370272</v>
+        <v>81.92442524917729</v>
       </c>
       <c r="Q40" t="n">
-        <v>57.60915185516583</v>
+        <v>56.72022556901476</v>
       </c>
       <c r="R40" t="n">
-        <v>30.93419444964174</v>
+        <v>30.45687066163792</v>
       </c>
       <c r="S40" t="n">
-        <v>11.98965846339733</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T40" t="n">
-        <v>2.939561542929968</v>
+        <v>2.894203237155241</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.0369472753679393</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.533738942531619</v>
+        <v>1.510072896110079</v>
       </c>
       <c r="H41" t="n">
-        <v>15.70740394520195</v>
+        <v>15.46503404728735</v>
       </c>
       <c r="I41" t="n">
-        <v>59.12947058195031</v>
+        <v>58.21708532728389</v>
       </c>
       <c r="J41" t="n">
-        <v>130.1741755736931</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K41" t="n">
-        <v>195.0973450110566</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L41" t="n">
-        <v>242.0355081735587</v>
+        <v>238.3008285528915</v>
       </c>
       <c r="M41" t="n">
-        <v>269.3111380928054</v>
+        <v>265.1555874190892</v>
       </c>
       <c r="N41" t="n">
-        <v>273.6688738632734</v>
+        <v>269.446082035162</v>
       </c>
       <c r="O41" t="n">
-        <v>258.4177572534746</v>
+        <v>254.4302946744673</v>
       </c>
       <c r="P41" t="n">
-        <v>220.5535771097252</v>
+        <v>217.1503700517497</v>
       </c>
       <c r="Q41" t="n">
-        <v>165.6265512303115</v>
+        <v>163.0708844598074</v>
       </c>
       <c r="R41" t="n">
-        <v>96.34372884880192</v>
+        <v>94.85711656027485</v>
       </c>
       <c r="S41" t="n">
-        <v>34.95007615293931</v>
+        <v>34.41078612010847</v>
       </c>
       <c r="T41" t="n">
-        <v>6.713942220932167</v>
+        <v>6.610344102721875</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.1208058316888063</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.8079602292724831</v>
       </c>
       <c r="H42" t="n">
-        <v>7.925487466267349</v>
+        <v>7.803194845868457</v>
       </c>
       <c r="I42" t="n">
-        <v>28.25389491834636</v>
+        <v>27.81792894644295</v>
       </c>
       <c r="J42" t="n">
-        <v>77.53084718931197</v>
+        <v>76.33452324016913</v>
       </c>
       <c r="K42" t="n">
-        <v>132.5125667781857</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L42" t="n">
-        <v>178.1794990997116</v>
+        <v>175.430136623396</v>
       </c>
       <c r="M42" t="n">
-        <v>207.9270712653336</v>
+        <v>204.7186949345234</v>
       </c>
       <c r="N42" t="n">
-        <v>213.4302821354166</v>
+        <v>210.1369896299517</v>
       </c>
       <c r="O42" t="n">
-        <v>195.2470111637624</v>
+        <v>192.2342919181771</v>
       </c>
       <c r="P42" t="n">
-        <v>156.7029397394858</v>
+        <v>154.2849669388832</v>
       </c>
       <c r="Q42" t="n">
-        <v>104.7517653125544</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R42" t="n">
-        <v>50.95059063237085</v>
+        <v>50.16440791921612</v>
       </c>
       <c r="S42" t="n">
-        <v>15.24270636677665</v>
+        <v>15.00750689021475</v>
       </c>
       <c r="T42" t="n">
-        <v>3.307685277701948</v>
+        <v>3.256646713602683</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05315527824161075</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.6773667150788864</v>
       </c>
       <c r="H43" t="n">
-        <v>6.116789763798959</v>
+        <v>6.022405884974104</v>
       </c>
       <c r="I43" t="n">
-        <v>20.68950975321774</v>
+        <v>20.37026448619052</v>
       </c>
       <c r="J43" t="n">
-        <v>48.64036195609864</v>
+        <v>47.88982675607727</v>
       </c>
       <c r="K43" t="n">
-        <v>79.93105642264891</v>
+        <v>78.6976965337106</v>
       </c>
       <c r="L43" t="n">
-        <v>102.2842329214398</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M43" t="n">
-        <v>107.8443823079605</v>
+        <v>106.1803115282294</v>
       </c>
       <c r="N43" t="n">
-        <v>105.2800839407238</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O43" t="n">
-        <v>97.243197594628</v>
+        <v>95.74270623678663</v>
       </c>
       <c r="P43" t="n">
-        <v>83.20835482370272</v>
+        <v>81.92442524917729</v>
       </c>
       <c r="Q43" t="n">
-        <v>57.60915185516583</v>
+        <v>56.72022556901476</v>
       </c>
       <c r="R43" t="n">
-        <v>30.93419444964174</v>
+        <v>30.45687066163792</v>
       </c>
       <c r="S43" t="n">
-        <v>11.98965846339733</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T43" t="n">
-        <v>2.939561542929968</v>
+        <v>2.894203237155241</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.0369472753679393</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.533738942531619</v>
+        <v>1.510072896110079</v>
       </c>
       <c r="H44" t="n">
-        <v>15.70740394520195</v>
+        <v>15.46503404728735</v>
       </c>
       <c r="I44" t="n">
-        <v>59.12947058195031</v>
+        <v>58.21708532728389</v>
       </c>
       <c r="J44" t="n">
-        <v>130.1741755736931</v>
+        <v>128.165549466223</v>
       </c>
       <c r="K44" t="n">
-        <v>195.0973450110566</v>
+        <v>192.0869351585627</v>
       </c>
       <c r="L44" t="n">
-        <v>242.0355081735587</v>
+        <v>238.3008285528915</v>
       </c>
       <c r="M44" t="n">
-        <v>269.3111380928054</v>
+        <v>265.1555874190892</v>
       </c>
       <c r="N44" t="n">
-        <v>273.6688738632734</v>
+        <v>269.446082035162</v>
       </c>
       <c r="O44" t="n">
-        <v>258.4177572534746</v>
+        <v>254.4302946744673</v>
       </c>
       <c r="P44" t="n">
-        <v>220.5535771097252</v>
+        <v>217.1503700517497</v>
       </c>
       <c r="Q44" t="n">
-        <v>165.6265512303115</v>
+        <v>163.0708844598074</v>
       </c>
       <c r="R44" t="n">
-        <v>96.34372884880192</v>
+        <v>94.85711656027485</v>
       </c>
       <c r="S44" t="n">
-        <v>34.95007615293931</v>
+        <v>34.41078612010847</v>
       </c>
       <c r="T44" t="n">
-        <v>6.713942220932167</v>
+        <v>6.610344102721875</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1226991154025295</v>
+        <v>0.1208058316888063</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8206226804309514</v>
+        <v>0.8079602292724831</v>
       </c>
       <c r="H45" t="n">
-        <v>7.925487466267349</v>
+        <v>7.803194845868457</v>
       </c>
       <c r="I45" t="n">
-        <v>28.25389491834636</v>
+        <v>27.81792894644295</v>
       </c>
       <c r="J45" t="n">
-        <v>77.53084718931197</v>
+        <v>76.33452324016913</v>
       </c>
       <c r="K45" t="n">
-        <v>132.5125667781857</v>
+        <v>130.4678586014255</v>
       </c>
       <c r="L45" t="n">
-        <v>178.1794990997116</v>
+        <v>175.430136623396</v>
       </c>
       <c r="M45" t="n">
-        <v>207.9270712653336</v>
+        <v>204.7186949345234</v>
       </c>
       <c r="N45" t="n">
-        <v>213.4302821354166</v>
+        <v>210.1369896299517</v>
       </c>
       <c r="O45" t="n">
-        <v>195.2470111637624</v>
+        <v>192.2342919181771</v>
       </c>
       <c r="P45" t="n">
-        <v>156.7029397394858</v>
+        <v>154.2849669388832</v>
       </c>
       <c r="Q45" t="n">
-        <v>104.7517653125544</v>
+        <v>103.1354145295893</v>
       </c>
       <c r="R45" t="n">
-        <v>50.95059063237085</v>
+        <v>50.16440791921612</v>
       </c>
       <c r="S45" t="n">
-        <v>15.24270636677665</v>
+        <v>15.00750689021475</v>
       </c>
       <c r="T45" t="n">
-        <v>3.307685277701948</v>
+        <v>3.256646713602683</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05398833423887841</v>
+        <v>0.05315527824161075</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.6879824887708436</v>
+        <v>0.6773667150788864</v>
       </c>
       <c r="H46" t="n">
-        <v>6.116789763798959</v>
+        <v>6.022405884974104</v>
       </c>
       <c r="I46" t="n">
-        <v>20.68950975321774</v>
+        <v>20.37026448619052</v>
       </c>
       <c r="J46" t="n">
-        <v>48.64036195609864</v>
+        <v>47.88982675607727</v>
       </c>
       <c r="K46" t="n">
-        <v>79.93105642264891</v>
+        <v>78.6976965337106</v>
       </c>
       <c r="L46" t="n">
-        <v>102.2842329214398</v>
+        <v>100.7059568945465</v>
       </c>
       <c r="M46" t="n">
-        <v>107.8443823079605</v>
+        <v>106.1803115282294</v>
       </c>
       <c r="N46" t="n">
-        <v>105.2800839407238</v>
+        <v>103.6555810447537</v>
       </c>
       <c r="O46" t="n">
-        <v>97.243197594628</v>
+        <v>95.74270623678663</v>
       </c>
       <c r="P46" t="n">
-        <v>83.20835482370272</v>
+        <v>81.92442524917729</v>
       </c>
       <c r="Q46" t="n">
-        <v>57.60915185516583</v>
+        <v>56.72022556901476</v>
       </c>
       <c r="R46" t="n">
-        <v>30.93419444964174</v>
+        <v>30.45687066163792</v>
       </c>
       <c r="S46" t="n">
-        <v>11.98965846339733</v>
+        <v>11.80465448005659</v>
       </c>
       <c r="T46" t="n">
-        <v>2.939561542929968</v>
+        <v>2.894203237155241</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03752631756931878</v>
+        <v>0.0369472753679393</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
